--- a/Temp/이사준비-20200605.xlsx
+++ b/Temp/이사준비-20200605.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kan63697\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D448EBD-32F5-418D-9008-1E4D53D953BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59EB56A-6437-48E5-A5D4-8BE67D22757B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="이사짐센터 견적" sheetId="7" r:id="rId1"/>
@@ -18,13 +18,52 @@
     <sheet name="큰언니네로 갈것" sheetId="5" r:id="rId3"/>
     <sheet name="현대아파트 이사" sheetId="1" r:id="rId4"/>
     <sheet name="자이 입주시" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="MoveToXi" sheetId="3" r:id="rId6"/>
+    <sheet name="OCT" sheetId="9" r:id="rId7"/>
+    <sheet name="NOV" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'이사짐 센터 견적시 물품'!$C$5:$F$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'이사짐센터 견적'!$B$5:$K$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'자이 입주시'!$A$5:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'현대아파트 이사'!$A$5:$K$84</definedName>
+    <definedName name="DayToStart" localSheetId="7">NOV!$E$1</definedName>
+    <definedName name="DayToStart">OCT!$E$1</definedName>
+    <definedName name="MonthToDisplay" localSheetId="7">NOV!$C$1</definedName>
+    <definedName name="MonthToDisplay" localSheetId="6">OCT!$C$1</definedName>
+    <definedName name="MonthToDisplayNumber" localSheetId="7">MATCH(NOV!MonthToDisplay,NOV!월,0)</definedName>
+    <definedName name="MonthToDisplayNumber" localSheetId="6">MATCH(OCT!MonthToDisplay,월,0)</definedName>
+    <definedName name="ndx" localSheetId="7">ROUNDUP(MATCH(2,1/FREQUENCY(DATE(NOV!표시할연도,NOV!MonthToDisplayNumber,1),NOV!달력))/7,0)</definedName>
+    <definedName name="ndx" localSheetId="6">ROUNDUP(MATCH(2,1/FREQUENCY(DATE(OCT!표시할연도,OCT!MonthToDisplayNumber,1),OCT!달력))/7,0)</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">NOV!$3:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">OCT!$3:$3</definedName>
+    <definedName name="weekdays_reversed" localSheetId="7">{"일요일","토요일","금요일","목요일","수요일","화요일","월요일"}</definedName>
+    <definedName name="weekdays_reversed">{"일요일","토요일","금요일","목요일","수요일","화요일","월요일"}</definedName>
+    <definedName name="날짜눈금" localSheetId="7">NOV!요일+NOV!주*7</definedName>
+    <definedName name="날짜눈금">요일+주*7</definedName>
+    <definedName name="날짜패턴" localSheetId="7">{1,1,2,2,3,3,4,4,5,5,6,6,7}</definedName>
+    <definedName name="날짜패턴">{1,1,2,2,3,3,4,4,5,5,6,6,7}</definedName>
+    <definedName name="달력" localSheetId="7">NOV!날짜눈금+NOV!첫째날짜-WEEKDAY(NOV!첫째날짜)-NOV!요일_옵션</definedName>
+    <definedName name="달력" localSheetId="6">날짜눈금+OCT!첫째날짜-WEEKDAY(OCT!첫째날짜)-요일_옵션</definedName>
+    <definedName name="시작날짜" localSheetId="7">DATE(NOV!표시할연도,NOV!월,1)</definedName>
+    <definedName name="시작날짜" localSheetId="6">DATE(OCT!표시할연도,OCT!월,1)</definedName>
+    <definedName name="요일" localSheetId="7">{0,1,2,3,4,5,6}</definedName>
+    <definedName name="요일">{0,1,2,3,4,5,6}</definedName>
+    <definedName name="요일_옵션" localSheetId="7">MATCH(NOV!DayToStart,NOV!weekdays_reversed,0)-2</definedName>
+    <definedName name="요일_옵션">MATCH(DayToStart,weekdays_reversed,0)-2</definedName>
+    <definedName name="월" localSheetId="7">{"1월","2월","3월","4월","5월","6월","7월","8월","9월","10월","11월","12월"}</definedName>
+    <definedName name="월" localSheetId="7">MATCH(NOV!MonthToDisplay,NOV!월,0)</definedName>
+    <definedName name="월" localSheetId="6">MATCH(OCT!MonthToDisplay,월,0)</definedName>
+    <definedName name="월">{"1월","2월","3월","4월","5월","6월","7월","8월","9월","10월","11월","12월"}</definedName>
+    <definedName name="주" localSheetId="7">{0;1;2;3;4;5;6}</definedName>
+    <definedName name="주">{0;1;2;3;4;5;6}</definedName>
+    <definedName name="첫째날짜" localSheetId="7">DATE(NOV!표시할연도,NOV!월,1)</definedName>
+    <definedName name="첫째날짜" localSheetId="6">DATE(OCT!표시할연도,OCT!월,1)</definedName>
+    <definedName name="평일" localSheetId="7">{"월요일","화요일","수요일","목요일","금요일","토요일","일요일"}</definedName>
+    <definedName name="평일">{"월요일","화요일","수요일","목요일","금요일","토요일","일요일"}</definedName>
+    <definedName name="표시할연도" localSheetId="7">NOV!$B$1</definedName>
+    <definedName name="표시할연도" localSheetId="6">OCT!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="226">
   <si>
     <t>현대아파트 이사 준비</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -845,13 +884,92 @@
   <si>
     <t>업체4 (믿음익스프레스)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>10월</t>
+  </si>
+  <si>
+    <t>월요일</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  연도</t>
+  </si>
+  <si>
+    <t>월</t>
+  </si>
+  <si>
+    <t>시작 요일</t>
+  </si>
+  <si>
+    <t>11월</t>
+  </si>
+  <si>
+    <t>탄성코트</t>
+  </si>
+  <si>
+    <t>실외기실-루버창을 수시로 여는 환기가 정답</t>
+  </si>
+  <si>
+    <t>드레스룸 중문설치 - 드레스룸에 냉기가 많을 수 있다고 함</t>
+  </si>
+  <si>
+    <t>줄눈</t>
+  </si>
+  <si>
+    <t>입주청소</t>
+  </si>
+  <si>
+    <t>이사?</t>
+  </si>
+  <si>
+    <t>잔금
+LED 리폼 가능성 타진</t>
+  </si>
+  <si>
+    <t>천장 청소
+아버지 생신</t>
+  </si>
+  <si>
+    <t>탄성코트 전처리</t>
+  </si>
+  <si>
+    <t>탄성코트 전처리 &amp; 환기</t>
+  </si>
+  <si>
+    <t>LED 리폼, LED 간접조명 - 알아보기</t>
+  </si>
+  <si>
+    <t>나노코팅 - 셀프 알아보기</t>
+  </si>
+  <si>
+    <t>환기</t>
+  </si>
+  <si>
+    <t>워시타워
+식기세척기</t>
+  </si>
+  <si>
+    <t>인덕션</t>
+  </si>
+  <si>
+    <t>베이킹, 환기</t>
+  </si>
+  <si>
+    <t>입주청소, 환기</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="aaaa"/>
+    <numFmt numFmtId="165" formatCode="dd"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -899,6 +1017,98 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="32"/>
+      <color theme="4" tint="-0.24994659260841701"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="32"/>
+      <color theme="3"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -938,7 +1148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -998,13 +1208,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" applyFill="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" applyFill="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1209,6 +1479,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1224,30 +1500,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1263,17 +1539,126 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="7" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="7" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="7" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="8" applyFont="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="9" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="6" xfId="8" applyFont="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="6" xfId="8" applyFont="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="9" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="10">
+    <cellStyle name="날짜 설명" xfId="9" xr:uid="{BF84D2BD-7FFF-419B-83EE-C92AE5859995}"/>
+    <cellStyle name="오른쪽 정렬된 입력 레이블" xfId="6" xr:uid="{BE9D1B82-878C-4CC7-B5E5-BE88E26368D4}"/>
+    <cellStyle name="왼쪽 정렬된 입력 레이블" xfId="5" xr:uid="{45C1AFDB-A987-4B76-A537-319174430331}"/>
+    <cellStyle name="제목 1 2" xfId="1" xr:uid="{1011A572-C383-4780-9A0E-6DC279774EB2}"/>
+    <cellStyle name="제목 2 2" xfId="3" xr:uid="{1E050B4B-FC85-4A0B-A49E-1686A6B2E8AF}"/>
+    <cellStyle name="제목 3 2" xfId="7" xr:uid="{D02B0C82-AE74-42AE-B149-3703B5B798EB}"/>
+    <cellStyle name="제목 4 2" xfId="8" xr:uid="{CFC11C75-DE94-48F9-B149-EC08E91A78B6}"/>
+    <cellStyle name="제목 5" xfId="2" xr:uid="{082425BB-B4A8-4A41-803B-69405D797D4F}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="4" xr:uid="{DD432FB4-98DC-4BA5-BFAB-A59530CAF70C}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1653,29 +2038,29 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11" s="1" customFormat="1">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="74" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="68" t="s">
+      <c r="D5" s="74"/>
+      <c r="E5" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="69" t="s">
+      <c r="F5" s="70"/>
+      <c r="G5" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="68" t="s">
+      <c r="H5" s="71"/>
+      <c r="I5" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="38"/>
     </row>
     <row r="6" spans="2:11" s="1" customFormat="1">
-      <c r="B6" s="71"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="33" t="s">
         <v>170</v>
       </c>
@@ -2269,10 +2654,10 @@
       <c r="G5" s="38"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="78" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -2285,8 +2670,8 @@
       <c r="G6" s="32"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="73"/>
-      <c r="C7" s="74"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="36" t="s">
         <v>25</v>
       </c>
@@ -2299,8 +2684,8 @@
       <c r="G7" s="37"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="73"/>
-      <c r="C8" s="75" t="s">
+      <c r="B8" s="81"/>
+      <c r="C8" s="82" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="36" t="s">
@@ -2313,8 +2698,8 @@
       <c r="G8" s="37"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="73"/>
-      <c r="C9" s="75"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="34" t="s">
         <v>34</v>
       </c>
@@ -2325,8 +2710,8 @@
       <c r="G9" s="32"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="73"/>
-      <c r="C10" s="74" t="s">
+      <c r="B10" s="81"/>
+      <c r="C10" s="78" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="36" t="s">
@@ -2339,8 +2724,8 @@
       <c r="G10" s="37"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="73"/>
-      <c r="C11" s="74"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="36" t="s">
         <v>114</v>
       </c>
@@ -2351,8 +2736,8 @@
       <c r="G11" s="37"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="73"/>
-      <c r="C12" s="74" t="s">
+      <c r="B12" s="81"/>
+      <c r="C12" s="78" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="36" t="s">
@@ -2365,8 +2750,8 @@
       <c r="G12" s="32"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="36" t="s">
         <v>84</v>
       </c>
@@ -2377,8 +2762,8 @@
       <c r="G13" s="37"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="36" t="s">
         <v>88</v>
       </c>
@@ -2389,8 +2774,8 @@
       <c r="G14" s="37"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="36" t="s">
         <v>115</v>
       </c>
@@ -2417,7 +2802,7 @@
       <c r="G16" s="32"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="81" t="s">
         <v>147</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -2433,7 +2818,7 @@
       <c r="G17" s="32"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="73"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="35" t="s">
         <v>64</v>
       </c>
@@ -2447,10 +2832,10 @@
       <c r="G18" s="32"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="78" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="36" t="s">
@@ -2463,8 +2848,8 @@
       <c r="G19" s="32"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="77"/>
-      <c r="C20" s="74"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="36" t="s">
         <v>17</v>
       </c>
@@ -2475,8 +2860,8 @@
       <c r="G20" s="32"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="77"/>
-      <c r="C21" s="74" t="s">
+      <c r="B21" s="76"/>
+      <c r="C21" s="78" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="36" t="s">
@@ -2489,8 +2874,8 @@
       <c r="G21" s="32"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="77"/>
-      <c r="C22" s="74"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="36" t="s">
         <v>112</v>
       </c>
@@ -2501,7 +2886,7 @@
       <c r="G22" s="37"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="77"/>
+      <c r="B23" s="76"/>
       <c r="C23" s="35" t="s">
         <v>63</v>
       </c>
@@ -2515,7 +2900,7 @@
       <c r="G23" s="32"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="77"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="79" t="s">
         <v>69</v>
       </c>
@@ -2529,7 +2914,7 @@
       <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="77"/>
+      <c r="B25" s="76"/>
       <c r="C25" s="80"/>
       <c r="D25" s="36" t="s">
         <v>72</v>
@@ -2541,7 +2926,7 @@
       <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="77"/>
+      <c r="B26" s="76"/>
       <c r="C26" s="35" t="s">
         <v>100</v>
       </c>
@@ -2555,7 +2940,7 @@
       <c r="G26" s="32"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="77"/>
+      <c r="B27" s="76"/>
       <c r="C27" s="79" t="s">
         <v>4</v>
       </c>
@@ -2569,7 +2954,7 @@
       <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="77"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="80"/>
       <c r="D28" s="36" t="s">
         <v>12</v>
@@ -2581,7 +2966,7 @@
       <c r="G28" s="32"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="77"/>
+      <c r="B29" s="76"/>
       <c r="C29" s="79" t="s">
         <v>81</v>
       </c>
@@ -2595,7 +2980,7 @@
       <c r="G29" s="32"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="78"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="80"/>
       <c r="D30" s="36" t="s">
         <v>83</v>
@@ -3579,18 +3964,18 @@
   </sheetData>
   <autoFilter ref="C5:F5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="12">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="B19:B30"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3602,7 +3987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:D37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -3641,7 +4026,7 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="84" t="s">
         <v>128</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -3650,35 +4035,35 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="81"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="81"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="81"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="6" t="s">
         <v>112</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="81"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="83" t="s">
         <v>127</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -3687,67 +4072,67 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="81"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="26" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="81"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="26" t="s">
         <v>85</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:4" s="21" customFormat="1">
-      <c r="B14" s="81"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="26" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="81"/>
-      <c r="C15" s="86" t="s">
+      <c r="B15" s="83"/>
+      <c r="C15" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="68" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="81"/>
-      <c r="C16" s="86" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="68" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="81"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="81"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="6" t="s">
         <v>120</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="81"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="85" t="s">
         <v>130</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -3756,56 +4141,56 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="84"/>
+      <c r="B21" s="86"/>
       <c r="C21" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="84"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="6" t="s">
         <v>82</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="84"/>
-      <c r="C23" s="86" t="s">
+      <c r="B23" s="86"/>
+      <c r="C23" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="86"/>
+      <c r="D23" s="68"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="84"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="6" t="s">
         <v>126</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="84"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="84"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="84"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="84"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="6" t="s">
         <v>121</v>
       </c>
@@ -3814,7 +4199,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" s="21" customFormat="1">
-      <c r="B29" s="84"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="6" t="s">
         <v>41</v>
       </c>
@@ -3823,49 +4208,49 @@
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="84"/>
+      <c r="B30" s="86"/>
       <c r="C30" s="6" t="s">
         <v>132</v>
       </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="84"/>
+      <c r="B31" s="86"/>
       <c r="C31" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="84"/>
+      <c r="B32" s="86"/>
       <c r="C32" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="84"/>
+      <c r="B33" s="86"/>
       <c r="C33" s="6" t="s">
         <v>131</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="84"/>
+      <c r="B34" s="86"/>
       <c r="C34" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="84"/>
+      <c r="B35" s="86"/>
       <c r="C35" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="85"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="6" t="s">
         <v>122</v>
       </c>
@@ -3889,7 +4274,7 @@
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
@@ -4655,20 +5040,20 @@
       <c r="A42" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="86" t="s">
+      <c r="B42" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="86"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87">
-        <v>0</v>
-      </c>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69">
+        <v>0</v>
+      </c>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="10" t="s">
@@ -4809,20 +5194,20 @@
       <c r="A50" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="86" t="s">
+      <c r="B50" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="86"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87">
-        <v>0</v>
-      </c>
-      <c r="F50" s="87"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="87"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69">
+        <v>0</v>
+      </c>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="9" t="s">
@@ -5075,20 +5460,20 @@
       <c r="A64" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B64" s="86" t="s">
+      <c r="B64" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="86"/>
-      <c r="D64" s="87">
-        <v>0</v>
-      </c>
-      <c r="E64" s="87"/>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="H64" s="87"/>
-      <c r="I64" s="87"/>
-      <c r="J64" s="87"/>
-      <c r="K64" s="87"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="69">
+        <v>0</v>
+      </c>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="69"/>
+      <c r="J64" s="69"/>
+      <c r="K64" s="69"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="10" t="s">
@@ -6068,13 +6453,824 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1F8A40-99C3-4069-BFFD-3A6DF1C722B3}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.499984740745262"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:H28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="91" customWidth="1"/>
+    <col min="2" max="8" width="23.5703125" style="91" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="91"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="45" customHeight="1">
+      <c r="B1" s="88">
+        <f ca="1">YEAR(TODAY())</f>
+        <v>2020</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="89"/>
+      <c r="E1" s="90" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="30" customHeight="1">
+      <c r="B2" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="B3" s="95">
+        <f t="array" aca="1" ref="B3:H3" ca="1">달력</f>
+        <v>44095</v>
+      </c>
+      <c r="C3" s="95">
+        <f ca="1"/>
+        <v>44096</v>
+      </c>
+      <c r="D3" s="95">
+        <f ca="1"/>
+        <v>44097</v>
+      </c>
+      <c r="E3" s="95">
+        <f ca="1"/>
+        <v>44098</v>
+      </c>
+      <c r="F3" s="95">
+        <f ca="1"/>
+        <v>44099</v>
+      </c>
+      <c r="G3" s="96">
+        <f ca="1"/>
+        <v>44100</v>
+      </c>
+      <c r="H3" s="97">
+        <f ca="1"/>
+        <v>44101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="24" customHeight="1">
+      <c r="B4" s="98">
+        <f t="array" aca="1" ref="B4:H4" ca="1">INDEX(달력,ndx+0)</f>
+        <v>44102</v>
+      </c>
+      <c r="C4" s="98">
+        <f ca="1"/>
+        <v>44103</v>
+      </c>
+      <c r="D4" s="98">
+        <f ca="1"/>
+        <v>44104</v>
+      </c>
+      <c r="E4" s="98">
+        <f ca="1"/>
+        <v>44105</v>
+      </c>
+      <c r="F4" s="98">
+        <f ca="1"/>
+        <v>44106</v>
+      </c>
+      <c r="G4" s="100">
+        <f ca="1"/>
+        <v>44107</v>
+      </c>
+      <c r="H4" s="101">
+        <f ca="1"/>
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="51" customHeight="1">
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+    </row>
+    <row r="6" spans="2:8" ht="24" customHeight="1">
+      <c r="B6" s="98">
+        <f t="array" aca="1" ref="B6:H6" ca="1">INDEX(달력,ndx+1)</f>
+        <v>44109</v>
+      </c>
+      <c r="C6" s="98">
+        <f ca="1"/>
+        <v>44110</v>
+      </c>
+      <c r="D6" s="98">
+        <f ca="1"/>
+        <v>44111</v>
+      </c>
+      <c r="E6" s="98">
+        <f ca="1"/>
+        <v>44112</v>
+      </c>
+      <c r="F6" s="98">
+        <f ca="1"/>
+        <v>44113</v>
+      </c>
+      <c r="G6" s="100">
+        <f ca="1"/>
+        <v>44114</v>
+      </c>
+      <c r="H6" s="101">
+        <f ca="1"/>
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="51" customHeight="1">
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+    </row>
+    <row r="8" spans="2:8" ht="24" customHeight="1">
+      <c r="B8" s="98">
+        <f t="array" aca="1" ref="B8:H8" ca="1">INDEX(달력,ndx+2)</f>
+        <v>44116</v>
+      </c>
+      <c r="C8" s="98">
+        <f ca="1"/>
+        <v>44117</v>
+      </c>
+      <c r="D8" s="98">
+        <f ca="1"/>
+        <v>44118</v>
+      </c>
+      <c r="E8" s="98">
+        <f ca="1"/>
+        <v>44119</v>
+      </c>
+      <c r="F8" s="98">
+        <f ca="1"/>
+        <v>44120</v>
+      </c>
+      <c r="G8" s="100">
+        <f ca="1"/>
+        <v>44121</v>
+      </c>
+      <c r="H8" s="101">
+        <f ca="1"/>
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="51" customHeight="1">
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+    </row>
+    <row r="10" spans="2:8" ht="24" customHeight="1">
+      <c r="B10" s="98">
+        <f t="array" aca="1" ref="B10:H10" ca="1">INDEX(달력,ndx+3)</f>
+        <v>44123</v>
+      </c>
+      <c r="C10" s="98">
+        <f ca="1"/>
+        <v>44124</v>
+      </c>
+      <c r="D10" s="98">
+        <f ca="1"/>
+        <v>44125</v>
+      </c>
+      <c r="E10" s="98">
+        <f ca="1"/>
+        <v>44126</v>
+      </c>
+      <c r="F10" s="98">
+        <f ca="1"/>
+        <v>44127</v>
+      </c>
+      <c r="G10" s="100">
+        <f ca="1"/>
+        <v>44128</v>
+      </c>
+      <c r="H10" s="101">
+        <f ca="1"/>
+        <v>44129</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="51" customHeight="1">
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+    </row>
+    <row r="12" spans="2:8" ht="24" customHeight="1">
+      <c r="B12" s="98">
+        <f t="array" aca="1" ref="B12:H12" ca="1">INDEX(달력,ndx+4)</f>
+        <v>44130</v>
+      </c>
+      <c r="C12" s="98">
+        <f ca="1"/>
+        <v>44131</v>
+      </c>
+      <c r="D12" s="98">
+        <f ca="1"/>
+        <v>44132</v>
+      </c>
+      <c r="E12" s="98">
+        <f ca="1"/>
+        <v>44133</v>
+      </c>
+      <c r="F12" s="98">
+        <f ca="1"/>
+        <v>44134</v>
+      </c>
+      <c r="G12" s="100">
+        <f ca="1"/>
+        <v>44135</v>
+      </c>
+      <c r="H12" s="98">
+        <f ca="1"/>
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="51" customHeight="1">
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="99" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="99" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B14" s="98">
+        <f t="array" aca="1" ref="B14:H14" ca="1">INDEX(달력,ndx+5)</f>
+        <v>44137</v>
+      </c>
+      <c r="C14" s="98">
+        <f ca="1"/>
+        <v>44138</v>
+      </c>
+      <c r="D14" s="98">
+        <f ca="1"/>
+        <v>44139</v>
+      </c>
+      <c r="E14" s="98">
+        <f ca="1"/>
+        <v>44140</v>
+      </c>
+      <c r="F14" s="98">
+        <f ca="1"/>
+        <v>44141</v>
+      </c>
+      <c r="G14" s="98">
+        <f ca="1"/>
+        <v>44142</v>
+      </c>
+      <c r="H14" s="98">
+        <f ca="1"/>
+        <v>44143</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="51" customHeight="1">
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="91" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="91" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="91" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="91" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B6:H6">
+    <cfRule type="expression" dxfId="11" priority="6">
+      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:H8">
+    <cfRule type="expression" dxfId="10" priority="5">
+      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:H10">
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:H12">
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:H14">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:H4">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3" xr:uid="{DD5CA88F-A0C5-41AC-A8BF-9455295DC03F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4" xr:uid="{6D35853F-30EA-495A-BC78-CDD26B74986A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12" xr:uid="{89EE7BBE-E46B-45F1-8E1B-C7BB4077BCD2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5" xr:uid="{FD350E77-406C-42B5-8EE0-FA755621C273}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1" xr:uid="{9867FC1F-1AC9-4975-ADC9-9DF4863D68E9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1" xr:uid="{009356E7-E06F-4B56-AA03-B0B3A812D581}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1" xr:uid="{6801CFA1-A028-4615-B440-AB6E0ECF44B9}">
+      <formula1>"1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1" xr:uid="{D6B12E96-3D93-452B-AF1C-7A9E49BED069}">
+      <formula1>"월요일,화요일,수요일,목요일,금요일,토요일,일요일"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.45" right="0.45" top="0.4" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1">
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D912176-DD42-45EE-A5A6-3E9852D24924}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.499984740745262"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:H15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="91" customWidth="1"/>
+    <col min="2" max="8" width="23.5703125" style="91" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="91"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="45" customHeight="1">
+      <c r="B1" s="88">
+        <f ca="1">YEAR(TODAY())</f>
+        <v>2020</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="89"/>
+      <c r="E1" s="90" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="30" customHeight="1">
+      <c r="B2" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="B3" s="95">
+        <f t="array" aca="1" ref="B3:H3" ca="1">달력</f>
+        <v>44130</v>
+      </c>
+      <c r="C3" s="95">
+        <f ca="1"/>
+        <v>44131</v>
+      </c>
+      <c r="D3" s="95">
+        <f ca="1"/>
+        <v>44132</v>
+      </c>
+      <c r="E3" s="95">
+        <f ca="1"/>
+        <v>44133</v>
+      </c>
+      <c r="F3" s="95">
+        <f ca="1"/>
+        <v>44134</v>
+      </c>
+      <c r="G3" s="95">
+        <f ca="1"/>
+        <v>44135</v>
+      </c>
+      <c r="H3" s="95">
+        <f ca="1"/>
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="24" customHeight="1">
+      <c r="B4" s="98">
+        <f t="array" aca="1" ref="B4:H4" ca="1">INDEX(달력,ndx+0)</f>
+        <v>44130</v>
+      </c>
+      <c r="C4" s="98">
+        <f ca="1"/>
+        <v>44131</v>
+      </c>
+      <c r="D4" s="98">
+        <f ca="1"/>
+        <v>44132</v>
+      </c>
+      <c r="E4" s="98">
+        <f ca="1"/>
+        <v>44133</v>
+      </c>
+      <c r="F4" s="98">
+        <f ca="1"/>
+        <v>44134</v>
+      </c>
+      <c r="G4" s="98">
+        <f ca="1"/>
+        <v>44135</v>
+      </c>
+      <c r="H4" s="101">
+        <f ca="1"/>
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="51" customHeight="1">
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="24" customHeight="1">
+      <c r="B6" s="98">
+        <f t="array" aca="1" ref="B6:H6" ca="1">INDEX(달력,ndx+1)</f>
+        <v>44137</v>
+      </c>
+      <c r="C6" s="98">
+        <f ca="1"/>
+        <v>44138</v>
+      </c>
+      <c r="D6" s="98">
+        <f ca="1"/>
+        <v>44139</v>
+      </c>
+      <c r="E6" s="98">
+        <f ca="1"/>
+        <v>44140</v>
+      </c>
+      <c r="F6" s="98">
+        <f ca="1"/>
+        <v>44141</v>
+      </c>
+      <c r="G6" s="100">
+        <f ca="1"/>
+        <v>44142</v>
+      </c>
+      <c r="H6" s="101">
+        <f ca="1"/>
+        <v>44143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="51" customHeight="1">
+      <c r="B7" s="102" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="102" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" s="102" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="102" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="24" customHeight="1">
+      <c r="B8" s="98">
+        <f t="array" aca="1" ref="B8:H8" ca="1">INDEX(달력,ndx+2)</f>
+        <v>44144</v>
+      </c>
+      <c r="C8" s="98">
+        <f ca="1"/>
+        <v>44145</v>
+      </c>
+      <c r="D8" s="98">
+        <f ca="1"/>
+        <v>44146</v>
+      </c>
+      <c r="E8" s="98">
+        <f ca="1"/>
+        <v>44147</v>
+      </c>
+      <c r="F8" s="98">
+        <f ca="1"/>
+        <v>44148</v>
+      </c>
+      <c r="G8" s="100">
+        <f ca="1"/>
+        <v>44149</v>
+      </c>
+      <c r="H8" s="101">
+        <f ca="1"/>
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="51" customHeight="1">
+      <c r="B9" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="99" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="99" t="s">
+        <v>225</v>
+      </c>
+      <c r="F9" s="99" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9" s="102" t="s">
+        <v>222</v>
+      </c>
+      <c r="H9" s="99"/>
+    </row>
+    <row r="10" spans="2:8" ht="24" customHeight="1">
+      <c r="B10" s="98">
+        <f t="array" aca="1" ref="B10:H10" ca="1">INDEX(달력,ndx+3)</f>
+        <v>44151</v>
+      </c>
+      <c r="C10" s="98">
+        <f ca="1"/>
+        <v>44152</v>
+      </c>
+      <c r="D10" s="98">
+        <f ca="1"/>
+        <v>44153</v>
+      </c>
+      <c r="E10" s="98">
+        <f ca="1"/>
+        <v>44154</v>
+      </c>
+      <c r="F10" s="98">
+        <f ca="1"/>
+        <v>44155</v>
+      </c>
+      <c r="G10" s="100">
+        <f ca="1"/>
+        <v>44156</v>
+      </c>
+      <c r="H10" s="101">
+        <f ca="1"/>
+        <v>44157</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="51" customHeight="1">
+      <c r="B11" s="102" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+    </row>
+    <row r="12" spans="2:8" ht="24" customHeight="1">
+      <c r="B12" s="98">
+        <f t="array" aca="1" ref="B12:H12" ca="1">INDEX(달력,ndx+4)</f>
+        <v>44158</v>
+      </c>
+      <c r="C12" s="98">
+        <f ca="1"/>
+        <v>44159</v>
+      </c>
+      <c r="D12" s="98">
+        <f ca="1"/>
+        <v>44160</v>
+      </c>
+      <c r="E12" s="98">
+        <f ca="1"/>
+        <v>44161</v>
+      </c>
+      <c r="F12" s="98">
+        <f ca="1"/>
+        <v>44162</v>
+      </c>
+      <c r="G12" s="100">
+        <f ca="1"/>
+        <v>44163</v>
+      </c>
+      <c r="H12" s="101">
+        <f ca="1"/>
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="51" customHeight="1">
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+    </row>
+    <row r="14" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B14" s="98">
+        <f t="array" aca="1" ref="B14:H14" ca="1">INDEX(달력,ndx+5)</f>
+        <v>44165</v>
+      </c>
+      <c r="C14" s="98">
+        <f ca="1"/>
+        <v>44166</v>
+      </c>
+      <c r="D14" s="98">
+        <f ca="1"/>
+        <v>44167</v>
+      </c>
+      <c r="E14" s="98">
+        <f ca="1"/>
+        <v>44168</v>
+      </c>
+      <c r="F14" s="98">
+        <f ca="1"/>
+        <v>44169</v>
+      </c>
+      <c r="G14" s="98">
+        <f ca="1"/>
+        <v>44170</v>
+      </c>
+      <c r="H14" s="98">
+        <f ca="1"/>
+        <v>44171</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="51" customHeight="1">
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B6:H6">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:H8">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:H10">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:H12">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:H14">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:H4">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3" xr:uid="{261DC67E-BD6B-4F4F-B3F7-600DA657D39A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4" xr:uid="{28639A83-92A4-4162-B70B-3A20A754F878}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12" xr:uid="{76E0E0CD-8554-48E1-87B3-ED1FF8276E91}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1" xr:uid="{50028BE5-BED6-4E9C-9EEF-4D20696C8CDD}">
+      <formula1>"월요일,화요일,수요일,목요일,금요일,토요일,일요일"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1" xr:uid="{CBE5B2AD-ED79-4331-81D8-A728F6D8059A}">
+      <formula1>"1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1" xr:uid="{6F2BF1DD-2832-4A65-A42B-2143B8C8045A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1" xr:uid="{D99B9906-C028-43EF-B785-0EA17BA6C696}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5" xr:uid="{0F08B0D1-1C89-42B6-947E-E95E96F3F11F}"/>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.45" right="0.45" top="0.4" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1">
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727D1B76-AFF4-4223-844E-7562534489ED}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Temp/이사준비-20200605.xlsx
+++ b/Temp/이사준비-20200605.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\03_doc\01_doc\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59EB56A-6437-48E5-A5D4-8BE67D22757B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="이사짐센터 견적" sheetId="7" r:id="rId1"/>
@@ -52,9 +51,8 @@
     <definedName name="요일">{0,1,2,3,4,5,6}</definedName>
     <definedName name="요일_옵션" localSheetId="7">MATCH(NOV!DayToStart,NOV!weekdays_reversed,0)-2</definedName>
     <definedName name="요일_옵션">MATCH(DayToStart,weekdays_reversed,0)-2</definedName>
-    <definedName name="월" localSheetId="7">{"1월","2월","3월","4월","5월","6월","7월","8월","9월","10월","11월","12월"}</definedName>
     <definedName name="월" localSheetId="7">MATCH(NOV!MonthToDisplay,NOV!월,0)</definedName>
-    <definedName name="월" localSheetId="6">MATCH(OCT!MonthToDisplay,월,0)</definedName>
+    <definedName name="월" localSheetId="6">MATCH(OCT!MonthToDisplay,NOV!월,0)</definedName>
     <definedName name="월">{"1월","2월","3월","4월","5월","6월","7월","8월","9월","10월","11월","12월"}</definedName>
     <definedName name="주" localSheetId="7">{0;1;2;3;4;5;6}</definedName>
     <definedName name="주">{0;1;2;3;4;5;6}</definedName>
@@ -65,7 +63,7 @@
     <definedName name="표시할연도" localSheetId="7">NOV!$B$1</definedName>
     <definedName name="표시할연도" localSheetId="6">OCT!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -80,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="233">
   <si>
     <t>현대아파트 이사 준비</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -907,22 +905,13 @@
     <t>11월</t>
   </si>
   <si>
-    <t>탄성코트</t>
-  </si>
-  <si>
     <t>실외기실-루버창을 수시로 여는 환기가 정답</t>
   </si>
   <si>
     <t>드레스룸 중문설치 - 드레스룸에 냉기가 많을 수 있다고 함</t>
   </si>
   <si>
-    <t>줄눈</t>
-  </si>
-  <si>
     <t>입주청소</t>
-  </si>
-  <si>
-    <t>이사?</t>
   </si>
   <si>
     <t>잔금
@@ -945,9 +934,6 @@
     <t>나노코팅 - 셀프 알아보기</t>
   </si>
   <si>
-    <t>환기</t>
-  </si>
-  <si>
     <t>워시타워
 식기세척기</t>
   </si>
@@ -958,22 +944,67 @@
     <t>베이킹, 환기</t>
   </si>
   <si>
-    <t>입주청소, 환기</t>
+    <t>TV 무타공 알아보기 - 이사전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄성코트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>줄눈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입주청소, 베이킹, 환기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이킹, 환기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED 케이스 타공 실측</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이크아웃 방법 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정전기포, 물티슈, 청소도구(밀대)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="aaaa"/>
-    <numFmt numFmtId="165" formatCode="dd"/>
+    <numFmt numFmtId="176" formatCode="aaaa"/>
+    <numFmt numFmtId="177" formatCode="dd"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -981,14 +1012,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -996,7 +1027,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1004,7 +1035,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1012,7 +1043,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1264,17 +1295,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" applyFill="0" applyProtection="0">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" applyFill="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="6" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1485,6 +1516,48 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="5" xfId="7" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="7" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="5" xfId="7" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="8" applyFont="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="9" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="6" xfId="8" applyFont="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="6" xfId="8" applyFont="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="9" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="9" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1539,63 +1612,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="7" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="7" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="7" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="8" applyFont="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="9" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="6" xfId="8" applyFont="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="6" xfId="8" applyFont="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="9" applyFont="1" applyFill="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="날짜 설명" xfId="9" xr:uid="{BF84D2BD-7FFF-419B-83EE-C92AE5859995}"/>
-    <cellStyle name="오른쪽 정렬된 입력 레이블" xfId="6" xr:uid="{BE9D1B82-878C-4CC7-B5E5-BE88E26368D4}"/>
-    <cellStyle name="왼쪽 정렬된 입력 레이블" xfId="5" xr:uid="{45C1AFDB-A987-4B76-A537-319174430331}"/>
-    <cellStyle name="제목 1 2" xfId="1" xr:uid="{1011A572-C383-4780-9A0E-6DC279774EB2}"/>
-    <cellStyle name="제목 2 2" xfId="3" xr:uid="{1E050B4B-FC85-4A0B-A49E-1686A6B2E8AF}"/>
-    <cellStyle name="제목 3 2" xfId="7" xr:uid="{D02B0C82-AE74-42AE-B149-3703B5B798EB}"/>
-    <cellStyle name="제목 4 2" xfId="8" xr:uid="{CFC11C75-DE94-48F9-B149-EC08E91A78B6}"/>
-    <cellStyle name="제목 5" xfId="2" xr:uid="{082425BB-B4A8-4A41-803B-69405D797D4F}"/>
+    <cellStyle name="날짜 설명" xfId="9"/>
+    <cellStyle name="오른쪽 정렬된 입력 레이블" xfId="6"/>
+    <cellStyle name="왼쪽 정렬된 입력 레이블" xfId="5"/>
+    <cellStyle name="제목 1 2" xfId="1"/>
+    <cellStyle name="제목 2 2" xfId="3"/>
+    <cellStyle name="제목 3 2" xfId="7"/>
+    <cellStyle name="제목 4 2" xfId="8"/>
+    <cellStyle name="제목 5" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="4" xr:uid="{DD432FB4-98DC-4BA5-BFAB-A59530CAF70C}"/>
+    <cellStyle name="표준 2" xfId="4"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -1747,23 +1781,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1799,23 +1816,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1991,7 +1991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1999,22 +1999,22 @@
       <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.25" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="1" customWidth="1"/>
-    <col min="11" max="11" width="1.28515625" style="39" customWidth="1"/>
+    <col min="11" max="11" width="1.25" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="14" customFormat="1" ht="26.25">
+    <row r="1" spans="2:11" s="14" customFormat="1" ht="31.5">
       <c r="B1" s="14" t="s">
         <v>196</v>
       </c>
@@ -2038,29 +2038,29 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11" s="1" customFormat="1">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="88" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="70" t="s">
+      <c r="D5" s="88"/>
+      <c r="E5" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71" t="s">
+      <c r="F5" s="84"/>
+      <c r="G5" s="85" t="s">
         <v>199</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="70" t="s">
+      <c r="H5" s="85"/>
+      <c r="I5" s="84" t="s">
         <v>201</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="38"/>
     </row>
     <row r="6" spans="2:11" s="1" customFormat="1">
-      <c r="B6" s="73"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="33" t="s">
         <v>170</v>
       </c>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="K11" s="37"/>
     </row>
-    <row r="12" spans="2:11" ht="30">
+    <row r="12" spans="2:11" ht="33">
       <c r="B12" s="34" t="s">
         <v>162</v>
       </c>
@@ -2370,7 +2370,7 @@
       <c r="J17" s="46"/>
       <c r="K17" s="37"/>
     </row>
-    <row r="18" spans="2:11" ht="60">
+    <row r="18" spans="2:11" ht="49.5">
       <c r="B18" s="13" t="s">
         <v>169</v>
       </c>
@@ -2426,7 +2426,7 @@
       <c r="J19" s="47"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="2:11" ht="30">
+    <row r="20" spans="2:11" ht="33">
       <c r="B20" s="34" t="s">
         <v>174</v>
       </c>
@@ -2574,7 +2574,7 @@
       <c r="K30" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:K5" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="B5:K5">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
@@ -2594,7 +2594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G96"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2604,18 +2604,18 @@
       <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="1.28515625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="1.25" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="1.25" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="14" customFormat="1" ht="26.25">
+    <row r="1" spans="2:7" s="14" customFormat="1" ht="31.5">
       <c r="B1" s="15"/>
       <c r="C1" s="14" t="s">
         <v>0</v>
@@ -2654,10 +2654,10 @@
       <c r="G5" s="38"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="92" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -2670,8 +2670,8 @@
       <c r="G6" s="32"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="81"/>
-      <c r="C7" s="78"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="36" t="s">
         <v>25</v>
       </c>
@@ -2684,8 +2684,8 @@
       <c r="G7" s="37"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="81"/>
-      <c r="C8" s="82" t="s">
+      <c r="B8" s="95"/>
+      <c r="C8" s="96" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="36" t="s">
@@ -2698,8 +2698,8 @@
       <c r="G8" s="37"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="81"/>
-      <c r="C9" s="82"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="34" t="s">
         <v>34</v>
       </c>
@@ -2710,8 +2710,8 @@
       <c r="G9" s="32"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="81"/>
-      <c r="C10" s="78" t="s">
+      <c r="B10" s="95"/>
+      <c r="C10" s="92" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="36" t="s">
@@ -2724,8 +2724,8 @@
       <c r="G10" s="37"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="81"/>
-      <c r="C11" s="78"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="36" t="s">
         <v>114</v>
       </c>
@@ -2736,8 +2736,8 @@
       <c r="G11" s="37"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="81"/>
-      <c r="C12" s="78" t="s">
+      <c r="B12" s="95"/>
+      <c r="C12" s="92" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="36" t="s">
@@ -2750,8 +2750,8 @@
       <c r="G12" s="32"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="81"/>
-      <c r="C13" s="78"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="36" t="s">
         <v>84</v>
       </c>
@@ -2762,8 +2762,8 @@
       <c r="G13" s="37"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="81"/>
-      <c r="C14" s="78"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="36" t="s">
         <v>88</v>
       </c>
@@ -2774,8 +2774,8 @@
       <c r="G14" s="37"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="81"/>
-      <c r="C15" s="78"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="36" t="s">
         <v>115</v>
       </c>
@@ -2802,7 +2802,7 @@
       <c r="G16" s="32"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="95" t="s">
         <v>147</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -2818,7 +2818,7 @@
       <c r="G17" s="32"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="81"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="35" t="s">
         <v>64</v>
       </c>
@@ -2832,10 +2832,10 @@
       <c r="G18" s="32"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="92" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="36" t="s">
@@ -2848,8 +2848,8 @@
       <c r="G19" s="32"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="76"/>
-      <c r="C20" s="78"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="36" t="s">
         <v>17</v>
       </c>
@@ -2860,8 +2860,8 @@
       <c r="G20" s="32"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="76"/>
-      <c r="C21" s="78" t="s">
+      <c r="B21" s="90"/>
+      <c r="C21" s="92" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="36" t="s">
@@ -2874,8 +2874,8 @@
       <c r="G21" s="32"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="76"/>
-      <c r="C22" s="78"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="92"/>
       <c r="D22" s="36" t="s">
         <v>112</v>
       </c>
@@ -2886,7 +2886,7 @@
       <c r="G22" s="37"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="76"/>
+      <c r="B23" s="90"/>
       <c r="C23" s="35" t="s">
         <v>63</v>
       </c>
@@ -2900,8 +2900,8 @@
       <c r="G23" s="32"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="76"/>
-      <c r="C24" s="79" t="s">
+      <c r="B24" s="90"/>
+      <c r="C24" s="93" t="s">
         <v>69</v>
       </c>
       <c r="D24" s="36" t="s">
@@ -2914,8 +2914,8 @@
       <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="76"/>
-      <c r="C25" s="80"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="94"/>
       <c r="D25" s="36" t="s">
         <v>72</v>
       </c>
@@ -2926,7 +2926,7 @@
       <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="76"/>
+      <c r="B26" s="90"/>
       <c r="C26" s="35" t="s">
         <v>100</v>
       </c>
@@ -2940,8 +2940,8 @@
       <c r="G26" s="32"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="76"/>
-      <c r="C27" s="79" t="s">
+      <c r="B27" s="90"/>
+      <c r="C27" s="93" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="36" t="s">
@@ -2954,8 +2954,8 @@
       <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="76"/>
-      <c r="C28" s="80"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="94"/>
       <c r="D28" s="36" t="s">
         <v>12</v>
       </c>
@@ -2966,8 +2966,8 @@
       <c r="G28" s="32"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="76"/>
-      <c r="C29" s="79" t="s">
+      <c r="B29" s="90"/>
+      <c r="C29" s="93" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -2980,8 +2980,8 @@
       <c r="G29" s="32"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="77"/>
-      <c r="C30" s="80"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="94"/>
       <c r="D30" s="36" t="s">
         <v>83</v>
       </c>
@@ -3962,7 +3962,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C5:F5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="C5:F5"/>
   <mergeCells count="12">
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B6:B15"/>
@@ -3984,7 +3984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3994,16 +3994,16 @@
       <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="1.140625" customWidth="1"/>
+    <col min="1" max="1" width="1.125" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="24" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="1.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="14" customFormat="1" ht="26.25">
+    <row r="1" spans="2:4" s="14" customFormat="1" ht="31.5">
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4026,7 +4026,7 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="98" t="s">
         <v>128</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -4035,35 +4035,35 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="83"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="83"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="83"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="6" t="s">
         <v>112</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="83"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="97" t="s">
         <v>127</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -4072,28 +4072,28 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="83"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="26" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="83"/>
+      <c r="B13" s="97"/>
       <c r="C13" s="26" t="s">
         <v>85</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:4" s="21" customFormat="1">
-      <c r="B14" s="83"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="26" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="83"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="68" t="s">
         <v>56</v>
       </c>
@@ -4102,7 +4102,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="83"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="68" t="s">
         <v>57</v>
       </c>
@@ -4111,28 +4111,28 @@
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="83"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="83"/>
+      <c r="B18" s="97"/>
       <c r="C18" s="6" t="s">
         <v>120</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="83"/>
+      <c r="B19" s="97"/>
       <c r="C19" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="99" t="s">
         <v>130</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -4141,56 +4141,56 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="86"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="86"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="6" t="s">
         <v>82</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="86"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="68" t="s">
         <v>110</v>
       </c>
       <c r="D23" s="68"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="86"/>
+      <c r="B24" s="100"/>
       <c r="C24" s="6" t="s">
         <v>126</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="86"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="86"/>
+      <c r="B26" s="100"/>
       <c r="C26" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="86"/>
+      <c r="B27" s="100"/>
       <c r="C27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="86"/>
+      <c r="B28" s="100"/>
       <c r="C28" s="6" t="s">
         <v>121</v>
       </c>
@@ -4199,7 +4199,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" s="21" customFormat="1">
-      <c r="B29" s="86"/>
+      <c r="B29" s="100"/>
       <c r="C29" s="6" t="s">
         <v>41</v>
       </c>
@@ -4208,49 +4208,49 @@
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="86"/>
+      <c r="B30" s="100"/>
       <c r="C30" s="6" t="s">
         <v>132</v>
       </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="86"/>
+      <c r="B31" s="100"/>
       <c r="C31" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="86"/>
+      <c r="B32" s="100"/>
       <c r="C32" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="86"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="6" t="s">
         <v>131</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="86"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="86"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="87"/>
+      <c r="B36" s="101"/>
       <c r="C36" s="6" t="s">
         <v>122</v>
       </c>
@@ -4270,7 +4270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4280,15 +4280,15 @@
       <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="11" width="8.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="11" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" ht="26.25">
+    <row r="1" spans="1:11" s="14" customFormat="1" ht="31.5">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -5858,14 +5858,14 @@
       <c r="K84" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:K84" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A5:K84"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5875,16 +5875,16 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" ht="26.25">
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="31.5">
       <c r="A1" s="14" t="s">
         <v>103</v>
       </c>
@@ -6445,21 +6445,21 @@
       <c r="E63" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:E5" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A5:E5"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
@@ -6476,337 +6476,357 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1F8A40-99C3-4069-BFFD-3A6DF1C722B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:H28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="91" customWidth="1"/>
-    <col min="2" max="8" width="23.5703125" style="91" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="91"/>
+    <col min="1" max="1" width="2.625" style="72" customWidth="1"/>
+    <col min="2" max="8" width="23.625" style="72" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45" customHeight="1">
-      <c r="B1" s="88">
+      <c r="B1" s="70">
         <f ca="1">YEAR(TODAY())</f>
         <v>2020</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="102" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90" t="s">
+      <c r="D1" s="102"/>
+      <c r="E1" s="71" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="30" customHeight="1">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94" t="s">
+      <c r="D2" s="103"/>
+      <c r="E2" s="74" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="95">
+      <c r="B3" s="75" t="e">
         <f t="array" aca="1" ref="B3:H3" ca="1">달력</f>
-        <v>44095</v>
-      </c>
-      <c r="C3" s="95">
-        <f ca="1"/>
-        <v>44096</v>
-      </c>
-      <c r="D3" s="95">
-        <f ca="1"/>
-        <v>44097</v>
-      </c>
-      <c r="E3" s="95">
-        <f ca="1"/>
-        <v>44098</v>
-      </c>
-      <c r="F3" s="95">
-        <f ca="1"/>
-        <v>44099</v>
-      </c>
-      <c r="G3" s="96">
-        <f ca="1"/>
-        <v>44100</v>
-      </c>
-      <c r="H3" s="97">
-        <f ca="1"/>
-        <v>44101</v>
+        <v>#NAME?</v>
+      </c>
+      <c r="C3" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E3" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F3" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G3" s="76" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H3" s="77" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="24" customHeight="1">
-      <c r="B4" s="98">
+      <c r="B4" s="78" t="e">
         <f t="array" aca="1" ref="B4:H4" ca="1">INDEX(달력,ndx+0)</f>
-        <v>44102</v>
-      </c>
-      <c r="C4" s="98">
-        <f ca="1"/>
-        <v>44103</v>
-      </c>
-      <c r="D4" s="98">
-        <f ca="1"/>
-        <v>44104</v>
-      </c>
-      <c r="E4" s="98">
-        <f ca="1"/>
-        <v>44105</v>
-      </c>
-      <c r="F4" s="98">
-        <f ca="1"/>
-        <v>44106</v>
-      </c>
-      <c r="G4" s="100">
-        <f ca="1"/>
-        <v>44107</v>
-      </c>
-      <c r="H4" s="101">
-        <f ca="1"/>
-        <v>44108</v>
+        <v>#NAME?</v>
+      </c>
+      <c r="C4" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F4" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G4" s="80" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H4" s="81" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="51" customHeight="1">
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="2:8" ht="24" customHeight="1">
-      <c r="B6" s="98">
+      <c r="B6" s="78" t="e">
         <f t="array" aca="1" ref="B6:H6" ca="1">INDEX(달력,ndx+1)</f>
-        <v>44109</v>
-      </c>
-      <c r="C6" s="98">
-        <f ca="1"/>
-        <v>44110</v>
-      </c>
-      <c r="D6" s="98">
-        <f ca="1"/>
-        <v>44111</v>
-      </c>
-      <c r="E6" s="98">
-        <f ca="1"/>
-        <v>44112</v>
-      </c>
-      <c r="F6" s="98">
-        <f ca="1"/>
-        <v>44113</v>
-      </c>
-      <c r="G6" s="100">
-        <f ca="1"/>
-        <v>44114</v>
-      </c>
-      <c r="H6" s="101">
-        <f ca="1"/>
-        <v>44115</v>
+        <v>#NAME?</v>
+      </c>
+      <c r="C6" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F6" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G6" s="80" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" s="81" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="51" customHeight="1">
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
     </row>
     <row r="8" spans="2:8" ht="24" customHeight="1">
-      <c r="B8" s="98">
+      <c r="B8" s="78" t="e">
         <f t="array" aca="1" ref="B8:H8" ca="1">INDEX(달력,ndx+2)</f>
-        <v>44116</v>
-      </c>
-      <c r="C8" s="98">
-        <f ca="1"/>
-        <v>44117</v>
-      </c>
-      <c r="D8" s="98">
-        <f ca="1"/>
-        <v>44118</v>
-      </c>
-      <c r="E8" s="98">
-        <f ca="1"/>
-        <v>44119</v>
-      </c>
-      <c r="F8" s="98">
-        <f ca="1"/>
-        <v>44120</v>
-      </c>
-      <c r="G8" s="100">
-        <f ca="1"/>
-        <v>44121</v>
-      </c>
-      <c r="H8" s="101">
-        <f ca="1"/>
-        <v>44122</v>
+        <v>#NAME?</v>
+      </c>
+      <c r="C8" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E8" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F8" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G8" s="80" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H8" s="81" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="51" customHeight="1">
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
     </row>
     <row r="10" spans="2:8" ht="24" customHeight="1">
-      <c r="B10" s="98">
+      <c r="B10" s="78" t="e">
         <f t="array" aca="1" ref="B10:H10" ca="1">INDEX(달력,ndx+3)</f>
-        <v>44123</v>
-      </c>
-      <c r="C10" s="98">
-        <f ca="1"/>
-        <v>44124</v>
-      </c>
-      <c r="D10" s="98">
-        <f ca="1"/>
-        <v>44125</v>
-      </c>
-      <c r="E10" s="98">
-        <f ca="1"/>
-        <v>44126</v>
-      </c>
-      <c r="F10" s="98">
-        <f ca="1"/>
-        <v>44127</v>
-      </c>
-      <c r="G10" s="100">
-        <f ca="1"/>
-        <v>44128</v>
-      </c>
-      <c r="H10" s="101">
-        <f ca="1"/>
-        <v>44129</v>
+        <v>#NAME?</v>
+      </c>
+      <c r="C10" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D10" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F10" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G10" s="80" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H10" s="81" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="51" customHeight="1">
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
     </row>
     <row r="12" spans="2:8" ht="24" customHeight="1">
-      <c r="B12" s="98">
+      <c r="B12" s="78" t="e">
         <f t="array" aca="1" ref="B12:H12" ca="1">INDEX(달력,ndx+4)</f>
-        <v>44130</v>
-      </c>
-      <c r="C12" s="98">
-        <f ca="1"/>
-        <v>44131</v>
-      </c>
-      <c r="D12" s="98">
-        <f ca="1"/>
-        <v>44132</v>
-      </c>
-      <c r="E12" s="98">
-        <f ca="1"/>
-        <v>44133</v>
-      </c>
-      <c r="F12" s="98">
-        <f ca="1"/>
-        <v>44134</v>
-      </c>
-      <c r="G12" s="100">
-        <f ca="1"/>
-        <v>44135</v>
-      </c>
-      <c r="H12" s="98">
-        <f ca="1"/>
-        <v>44136</v>
+        <v>#NAME?</v>
+      </c>
+      <c r="C12" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D12" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E12" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F12" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G12" s="80" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H12" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="51" customHeight="1">
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="102" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13" s="99" t="s">
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="H13" s="79" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B14" s="78" t="e">
+        <f t="array" aca="1" ref="B14:H14" ca="1">INDEX(달력,ndx+5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C14" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D14" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E14" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F14" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G14" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H14" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="51" customHeight="1">
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="72" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="H13" s="99" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B14" s="98">
-        <f t="array" aca="1" ref="B14:H14" ca="1">INDEX(달력,ndx+5)</f>
-        <v>44137</v>
-      </c>
-      <c r="C14" s="98">
-        <f ca="1"/>
-        <v>44138</v>
-      </c>
-      <c r="D14" s="98">
-        <f ca="1"/>
-        <v>44139</v>
-      </c>
-      <c r="E14" s="98">
-        <f ca="1"/>
-        <v>44140</v>
-      </c>
-      <c r="F14" s="98">
-        <f ca="1"/>
-        <v>44141</v>
-      </c>
-      <c r="G14" s="98">
-        <f ca="1"/>
-        <v>44142</v>
-      </c>
-      <c r="H14" s="98">
-        <f ca="1"/>
-        <v>44143</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="51" customHeight="1">
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="91" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="91" t="s">
-        <v>219</v>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="72" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="72" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="72" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="72" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="72" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="72" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="91" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -6814,6 +6834,7 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B6:H6">
     <cfRule type="expression" dxfId="11" priority="6">
       <formula>MonthToDisplayNumber&lt;&gt;MONTH(B6)</formula>
@@ -6845,16 +6866,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3" xr:uid="{DD5CA88F-A0C5-41AC-A8BF-9455295DC03F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4" xr:uid="{6D35853F-30EA-495A-BC78-CDD26B74986A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12" xr:uid="{89EE7BBE-E46B-45F1-8E1B-C7BB4077BCD2}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5" xr:uid="{FD350E77-406C-42B5-8EE0-FA755621C273}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1" xr:uid="{9867FC1F-1AC9-4975-ADC9-9DF4863D68E9}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1" xr:uid="{009356E7-E06F-4B56-AA03-B0B3A812D581}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1" xr:uid="{6801CFA1-A028-4615-B440-AB6E0ECF44B9}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1">
       <formula1>"1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1" xr:uid="{D6B12E96-3D93-452B-AF1C-7A9E49BED069}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1">
       <formula1>"월요일,화요일,수요일,목요일,금요일,토요일,일요일"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6868,348 +6889,347 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D912176-DD42-45EE-A5A6-3E9852D24924}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="91" customWidth="1"/>
-    <col min="2" max="8" width="23.5703125" style="91" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="91"/>
+    <col min="1" max="1" width="2.625" style="72" customWidth="1"/>
+    <col min="2" max="8" width="23.625" style="72" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45" customHeight="1">
-      <c r="B1" s="88">
+      <c r="B1" s="70">
         <f ca="1">YEAR(TODAY())</f>
         <v>2020</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90" t="s">
+      <c r="D1" s="102"/>
+      <c r="E1" s="71" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="30" customHeight="1">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94" t="s">
+      <c r="D2" s="103"/>
+      <c r="E2" s="74" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="95">
+      <c r="B3" s="75" t="e">
         <f t="array" aca="1" ref="B3:H3" ca="1">달력</f>
-        <v>44130</v>
-      </c>
-      <c r="C3" s="95">
-        <f ca="1"/>
-        <v>44131</v>
-      </c>
-      <c r="D3" s="95">
-        <f ca="1"/>
-        <v>44132</v>
-      </c>
-      <c r="E3" s="95">
-        <f ca="1"/>
-        <v>44133</v>
-      </c>
-      <c r="F3" s="95">
-        <f ca="1"/>
-        <v>44134</v>
-      </c>
-      <c r="G3" s="95">
-        <f ca="1"/>
-        <v>44135</v>
-      </c>
-      <c r="H3" s="95">
-        <f ca="1"/>
-        <v>44136</v>
+        <v>#NAME?</v>
+      </c>
+      <c r="C3" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E3" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F3" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G3" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H3" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="24" customHeight="1">
-      <c r="B4" s="98">
+      <c r="B4" s="78" t="e">
         <f t="array" aca="1" ref="B4:H4" ca="1">INDEX(달력,ndx+0)</f>
-        <v>44130</v>
-      </c>
-      <c r="C4" s="98">
-        <f ca="1"/>
-        <v>44131</v>
-      </c>
-      <c r="D4" s="98">
-        <f ca="1"/>
-        <v>44132</v>
-      </c>
-      <c r="E4" s="98">
-        <f ca="1"/>
-        <v>44133</v>
-      </c>
-      <c r="F4" s="98">
-        <f ca="1"/>
-        <v>44134</v>
-      </c>
-      <c r="G4" s="98">
-        <f ca="1"/>
-        <v>44135</v>
-      </c>
-      <c r="H4" s="101">
-        <f ca="1"/>
-        <v>44136</v>
+        <v>#NAME?</v>
+      </c>
+      <c r="C4" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F4" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G4" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H4" s="81" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="51" customHeight="1">
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99" t="s">
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="24" customHeight="1">
+      <c r="B6" s="78" t="e">
+        <f t="array" aca="1" ref="B6:H6" ca="1">INDEX(달력,ndx+1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C6" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F6" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G6" s="80" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" s="81" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="51" customHeight="1">
+      <c r="B7" s="83"/>
+      <c r="C7" s="82" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="82" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="24" customHeight="1">
+      <c r="B8" s="78" t="e">
+        <f t="array" aca="1" ref="B8:H8" ca="1">INDEX(달력,ndx+2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C8" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E8" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F8" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G8" s="80" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H8" s="81" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="51" customHeight="1">
+      <c r="B9" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>227</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>228</v>
+      </c>
+      <c r="G9" s="82" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="24" customHeight="1">
-      <c r="B6" s="98">
-        <f t="array" aca="1" ref="B6:H6" ca="1">INDEX(달력,ndx+1)</f>
-        <v>44137</v>
-      </c>
-      <c r="C6" s="98">
-        <f ca="1"/>
-        <v>44138</v>
-      </c>
-      <c r="D6" s="98">
-        <f ca="1"/>
-        <v>44139</v>
-      </c>
-      <c r="E6" s="98">
-        <f ca="1"/>
-        <v>44140</v>
-      </c>
-      <c r="F6" s="98">
-        <f ca="1"/>
-        <v>44141</v>
-      </c>
-      <c r="G6" s="100">
-        <f ca="1"/>
-        <v>44142</v>
-      </c>
-      <c r="H6" s="101">
-        <f ca="1"/>
-        <v>44143</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="51" customHeight="1">
-      <c r="B7" s="102" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="99" t="s">
-        <v>221</v>
-      </c>
-      <c r="D7" s="102" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" s="99" t="s">
-        <v>224</v>
-      </c>
-      <c r="F7" s="99" t="s">
-        <v>224</v>
-      </c>
-      <c r="G7" s="102" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="102" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="24" customHeight="1">
-      <c r="B8" s="98">
-        <f t="array" aca="1" ref="B8:H8" ca="1">INDEX(달력,ndx+2)</f>
-        <v>44144</v>
-      </c>
-      <c r="C8" s="98">
-        <f ca="1"/>
-        <v>44145</v>
-      </c>
-      <c r="D8" s="98">
-        <f ca="1"/>
-        <v>44146</v>
-      </c>
-      <c r="E8" s="98">
-        <f ca="1"/>
-        <v>44147</v>
-      </c>
-      <c r="F8" s="98">
-        <f ca="1"/>
-        <v>44148</v>
-      </c>
-      <c r="G8" s="100">
-        <f ca="1"/>
-        <v>44149</v>
-      </c>
-      <c r="H8" s="101">
-        <f ca="1"/>
-        <v>44150</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="51" customHeight="1">
-      <c r="B9" s="99" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="99" t="s">
-        <v>224</v>
-      </c>
-      <c r="D9" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="E9" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="F9" s="99" t="s">
-        <v>214</v>
-      </c>
-      <c r="G9" s="102" t="s">
-        <v>222</v>
-      </c>
-      <c r="H9" s="99"/>
+      <c r="H9" s="79"/>
     </row>
     <row r="10" spans="2:8" ht="24" customHeight="1">
-      <c r="B10" s="98">
+      <c r="B10" s="78" t="e">
         <f t="array" aca="1" ref="B10:H10" ca="1">INDEX(달력,ndx+3)</f>
-        <v>44151</v>
-      </c>
-      <c r="C10" s="98">
-        <f ca="1"/>
-        <v>44152</v>
-      </c>
-      <c r="D10" s="98">
-        <f ca="1"/>
-        <v>44153</v>
-      </c>
-      <c r="E10" s="98">
-        <f ca="1"/>
-        <v>44154</v>
-      </c>
-      <c r="F10" s="98">
-        <f ca="1"/>
-        <v>44155</v>
-      </c>
-      <c r="G10" s="100">
-        <f ca="1"/>
-        <v>44156</v>
-      </c>
-      <c r="H10" s="101">
-        <f ca="1"/>
-        <v>44157</v>
+        <v>#NAME?</v>
+      </c>
+      <c r="C10" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D10" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F10" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G10" s="80" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H10" s="81" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="51" customHeight="1">
-      <c r="B11" s="102" t="s">
-        <v>223</v>
-      </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
+      <c r="B11" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
     </row>
     <row r="12" spans="2:8" ht="24" customHeight="1">
-      <c r="B12" s="98">
+      <c r="B12" s="78" t="e">
         <f t="array" aca="1" ref="B12:H12" ca="1">INDEX(달력,ndx+4)</f>
-        <v>44158</v>
-      </c>
-      <c r="C12" s="98">
-        <f ca="1"/>
-        <v>44159</v>
-      </c>
-      <c r="D12" s="98">
-        <f ca="1"/>
-        <v>44160</v>
-      </c>
-      <c r="E12" s="98">
-        <f ca="1"/>
-        <v>44161</v>
-      </c>
-      <c r="F12" s="98">
-        <f ca="1"/>
-        <v>44162</v>
-      </c>
-      <c r="G12" s="100">
-        <f ca="1"/>
-        <v>44163</v>
-      </c>
-      <c r="H12" s="101">
-        <f ca="1"/>
-        <v>44164</v>
+        <v>#NAME?</v>
+      </c>
+      <c r="C12" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D12" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E12" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F12" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G12" s="80" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H12" s="81" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="51" customHeight="1">
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
     </row>
     <row r="14" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B14" s="98">
+      <c r="B14" s="78" t="e">
         <f t="array" aca="1" ref="B14:H14" ca="1">INDEX(달력,ndx+5)</f>
-        <v>44165</v>
-      </c>
-      <c r="C14" s="98">
-        <f ca="1"/>
-        <v>44166</v>
-      </c>
-      <c r="D14" s="98">
-        <f ca="1"/>
-        <v>44167</v>
-      </c>
-      <c r="E14" s="98">
-        <f ca="1"/>
-        <v>44168</v>
-      </c>
-      <c r="F14" s="98">
-        <f ca="1"/>
-        <v>44169</v>
-      </c>
-      <c r="G14" s="98">
-        <f ca="1"/>
-        <v>44170</v>
-      </c>
-      <c r="H14" s="98">
-        <f ca="1"/>
-        <v>44171</v>
+        <v>#NAME?</v>
+      </c>
+      <c r="C14" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D14" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E14" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F14" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G14" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H14" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="51" customHeight="1">
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B6:H6">
     <cfRule type="expression" dxfId="5" priority="6">
       <formula>MonthToDisplayNumber&lt;&gt;MONTH(B6)</formula>
@@ -7241,18 +7261,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3" xr:uid="{261DC67E-BD6B-4F4F-B3F7-600DA657D39A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4" xr:uid="{28639A83-92A4-4162-B70B-3A20A754F878}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12" xr:uid="{76E0E0CD-8554-48E1-87B3-ED1FF8276E91}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1" xr:uid="{50028BE5-BED6-4E9C-9EEF-4D20696C8CDD}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1">
       <formula1>"월요일,화요일,수요일,목요일,금요일,토요일,일요일"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1" xr:uid="{CBE5B2AD-ED79-4331-81D8-A728F6D8059A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1">
       <formula1>"1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1" xr:uid="{6F2BF1DD-2832-4A65-A42B-2143B8C8045A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1" xr:uid="{D99B9906-C028-43EF-B785-0EA17BA6C696}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5" xr:uid="{0F08B0D1-1C89-42B6-947E-E95E96F3F11F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.4" bottom="0.5" header="0.3" footer="0.3"/>
@@ -7264,13 +7284,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727D1B76-AFF4-4223-844E-7562534489ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Temp/이사준비-20200605.xlsx
+++ b/Temp/이사준비-20200605.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\03_doc\01_doc\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E8270A-FFEE-419B-A93A-3ACAA9196F02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="840" activeTab="7"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="이사짐센터 견적" sheetId="7" r:id="rId1"/>
@@ -20,7 +21,8 @@
     <sheet name="MoveToXi" sheetId="3" r:id="rId6"/>
     <sheet name="OCT" sheetId="9" r:id="rId7"/>
     <sheet name="NOV" sheetId="10" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId9"/>
+    <sheet name="NOV (2)" sheetId="11" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'이사짐 센터 견적시 물품'!$C$5:$F$5</definedName>
@@ -28,42 +30,59 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'자이 입주시'!$A$5:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'현대아파트 이사'!$A$5:$K$84</definedName>
     <definedName name="DayToStart" localSheetId="7">NOV!$E$1</definedName>
+    <definedName name="DayToStart" localSheetId="8">'NOV (2)'!$E$1</definedName>
     <definedName name="DayToStart">OCT!$E$1</definedName>
     <definedName name="MonthToDisplay" localSheetId="7">NOV!$C$1</definedName>
+    <definedName name="MonthToDisplay" localSheetId="8">'NOV (2)'!$C$1</definedName>
     <definedName name="MonthToDisplay" localSheetId="6">OCT!$C$1</definedName>
     <definedName name="MonthToDisplayNumber" localSheetId="7">MATCH(NOV!MonthToDisplay,NOV!월,0)</definedName>
+    <definedName name="MonthToDisplayNumber" localSheetId="8">MATCH('NOV (2)'!MonthToDisplay,'NOV (2)'!월,0)</definedName>
     <definedName name="MonthToDisplayNumber" localSheetId="6">MATCH(OCT!MonthToDisplay,월,0)</definedName>
     <definedName name="ndx" localSheetId="7">ROUNDUP(MATCH(2,1/FREQUENCY(DATE(NOV!표시할연도,NOV!MonthToDisplayNumber,1),NOV!달력))/7,0)</definedName>
+    <definedName name="ndx" localSheetId="8">ROUNDUP(MATCH(2,1/FREQUENCY(DATE('NOV (2)'!표시할연도,'NOV (2)'!MonthToDisplayNumber,1),'NOV (2)'!달력))/7,0)</definedName>
     <definedName name="ndx" localSheetId="6">ROUNDUP(MATCH(2,1/FREQUENCY(DATE(OCT!표시할연도,OCT!MonthToDisplayNumber,1),OCT!달력))/7,0)</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">NOV!$3:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">'NOV (2)'!$3:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">OCT!$3:$3</definedName>
     <definedName name="weekdays_reversed" localSheetId="7">{"일요일","토요일","금요일","목요일","수요일","화요일","월요일"}</definedName>
+    <definedName name="weekdays_reversed" localSheetId="8">{"일요일","토요일","금요일","목요일","수요일","화요일","월요일"}</definedName>
     <definedName name="weekdays_reversed">{"일요일","토요일","금요일","목요일","수요일","화요일","월요일"}</definedName>
     <definedName name="날짜눈금" localSheetId="7">NOV!요일+NOV!주*7</definedName>
+    <definedName name="날짜눈금" localSheetId="8">'NOV (2)'!요일+'NOV (2)'!주*7</definedName>
     <definedName name="날짜눈금">요일+주*7</definedName>
     <definedName name="날짜패턴" localSheetId="7">{1,1,2,2,3,3,4,4,5,5,6,6,7}</definedName>
+    <definedName name="날짜패턴" localSheetId="8">{1,1,2,2,3,3,4,4,5,5,6,6,7}</definedName>
     <definedName name="날짜패턴">{1,1,2,2,3,3,4,4,5,5,6,6,7}</definedName>
     <definedName name="달력" localSheetId="7">NOV!날짜눈금+NOV!첫째날짜-WEEKDAY(NOV!첫째날짜)-NOV!요일_옵션</definedName>
+    <definedName name="달력" localSheetId="8">'NOV (2)'!날짜눈금+'NOV (2)'!첫째날짜-WEEKDAY('NOV (2)'!첫째날짜)-'NOV (2)'!요일_옵션</definedName>
     <definedName name="달력" localSheetId="6">날짜눈금+OCT!첫째날짜-WEEKDAY(OCT!첫째날짜)-요일_옵션</definedName>
     <definedName name="시작날짜" localSheetId="7">DATE(NOV!표시할연도,NOV!월,1)</definedName>
+    <definedName name="시작날짜" localSheetId="8">DATE('NOV (2)'!표시할연도,'NOV (2)'!월,1)</definedName>
     <definedName name="시작날짜" localSheetId="6">DATE(OCT!표시할연도,OCT!월,1)</definedName>
     <definedName name="요일" localSheetId="7">{0,1,2,3,4,5,6}</definedName>
+    <definedName name="요일" localSheetId="8">{0,1,2,3,4,5,6}</definedName>
     <definedName name="요일">{0,1,2,3,4,5,6}</definedName>
     <definedName name="요일_옵션" localSheetId="7">MATCH(NOV!DayToStart,NOV!weekdays_reversed,0)-2</definedName>
+    <definedName name="요일_옵션" localSheetId="8">MATCH('NOV (2)'!DayToStart,'NOV (2)'!weekdays_reversed,0)-2</definedName>
     <definedName name="요일_옵션">MATCH(DayToStart,weekdays_reversed,0)-2</definedName>
     <definedName name="월" localSheetId="7">MATCH(NOV!MonthToDisplay,NOV!월,0)</definedName>
+    <definedName name="월" localSheetId="8">MATCH('NOV (2)'!MonthToDisplay,'NOV (2)'!월,0)</definedName>
     <definedName name="월" localSheetId="6">MATCH(OCT!MonthToDisplay,NOV!월,0)</definedName>
     <definedName name="월">{"1월","2월","3월","4월","5월","6월","7월","8월","9월","10월","11월","12월"}</definedName>
     <definedName name="주" localSheetId="7">{0;1;2;3;4;5;6}</definedName>
+    <definedName name="주" localSheetId="8">{0;1;2;3;4;5;6}</definedName>
     <definedName name="주">{0;1;2;3;4;5;6}</definedName>
     <definedName name="첫째날짜" localSheetId="7">DATE(NOV!표시할연도,NOV!월,1)</definedName>
+    <definedName name="첫째날짜" localSheetId="8">DATE('NOV (2)'!표시할연도,'NOV (2)'!월,1)</definedName>
     <definedName name="첫째날짜" localSheetId="6">DATE(OCT!표시할연도,OCT!월,1)</definedName>
     <definedName name="평일" localSheetId="7">{"월요일","화요일","수요일","목요일","금요일","토요일","일요일"}</definedName>
+    <definedName name="평일" localSheetId="8">{"월요일","화요일","수요일","목요일","금요일","토요일","일요일"}</definedName>
     <definedName name="평일">{"월요일","화요일","수요일","목요일","금요일","토요일","일요일"}</definedName>
     <definedName name="표시할연도" localSheetId="7">NOV!$B$1</definedName>
+    <definedName name="표시할연도" localSheetId="8">'NOV (2)'!$B$1</definedName>
     <definedName name="표시할연도" localSheetId="6">OCT!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -78,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="243">
   <si>
     <t>현대아파트 이사 준비</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -914,17 +933,6 @@
     <t>입주청소</t>
   </si>
   <si>
-    <t>잔금
-LED 리폼 가능성 타진</t>
-  </si>
-  <si>
-    <t>천장 청소
-아버지 생신</t>
-  </si>
-  <si>
-    <t>탄성코트 전처리</t>
-  </si>
-  <si>
     <t>탄성코트 전처리 &amp; 환기</t>
   </si>
   <si>
@@ -972,10 +980,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이사?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>베이킹, 환기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -988,23 +992,158 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>정전기포, 물티슈, 청소도구(밀대)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <r>
+      <t xml:space="preserve">11/10 베이킹, 환기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서(9/25)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11/19
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서(10/5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11/29
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서 10/15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>11/9 MON
+베이킹, 환기</t>
+  </si>
+  <si>
+    <t>11/15 SUN
+10AM 이사</t>
+  </si>
+  <si>
+    <t>11/3 TUE
+탄성코트</t>
+  </si>
+  <si>
+    <t>11/5 THU
+줄눈</t>
+  </si>
+  <si>
+    <t>11/7 SAT
+입주청소</t>
+  </si>
+  <si>
+    <t>11/14 SAT
+워시타워
+식기세척기</t>
+  </si>
+  <si>
+    <t>11/16 MON
+인덕션</t>
+  </si>
+  <si>
+    <t>10/30 FRI
+잔금
+LED 리폼 가능성 타진</t>
+  </si>
+  <si>
+    <t>10/31 SAT
+천장 청소
+아버지 생신</t>
+  </si>
+  <si>
+    <t>10/24 SAT
+아쿠아 수리 의뢰
+청소 용품 구매</t>
+  </si>
+  <si>
+    <t xml:space="preserve">정전기포, 물티슈, 청소도구(밀대), 라텍스장갑, 걸레, </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">새집증후군제거 - 베이크아웃, 야자활성탄(10kg) or 화목한가정, 공기청정기, 열교환기, 환기, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알델리트</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="aaaa"/>
-    <numFmt numFmtId="177" formatCode="dd"/>
+    <numFmt numFmtId="164" formatCode="aaaa"/>
+    <numFmt numFmtId="165" formatCode="dd"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1012,14 +1151,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1027,7 +1166,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1035,7 +1174,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1043,7 +1182,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1140,8 +1279,20 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Malgun Gothic"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Malgun Gothic"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1175,6 +1326,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,17 +1452,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" applyFill="0" applyProtection="0">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="6" applyFill="0" applyProtection="0">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1531,25 +1688,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="5" xfId="7" applyFont="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="7" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="7" applyFont="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="7" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="5" xfId="7" applyFont="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="7" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="8" applyFont="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="9" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="6" xfId="8" applyFont="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="6" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="6" xfId="8" applyFont="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="6" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="9" applyFont="1" applyFill="1">
@@ -1558,6 +1715,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="9" applyFont="1" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="9" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1620,18 +1783,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="날짜 설명" xfId="9"/>
-    <cellStyle name="오른쪽 정렬된 입력 레이블" xfId="6"/>
-    <cellStyle name="왼쪽 정렬된 입력 레이블" xfId="5"/>
-    <cellStyle name="제목 1 2" xfId="1"/>
-    <cellStyle name="제목 2 2" xfId="3"/>
-    <cellStyle name="제목 3 2" xfId="7"/>
-    <cellStyle name="제목 4 2" xfId="8"/>
-    <cellStyle name="제목 5" xfId="2"/>
+    <cellStyle name="날짜 설명" xfId="9" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="오른쪽 정렬된 입력 레이블" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="왼쪽 정렬된 입력 레이블" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="제목 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="제목 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="제목 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="제목 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="제목 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="4"/>
+    <cellStyle name="표준 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -1694,6 +1887,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1781,6 +1979,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1816,6 +2031,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1991,7 +2223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1999,22 +2231,22 @@
       <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.25" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="15.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="1" customWidth="1"/>
-    <col min="11" max="11" width="1.25" style="39" customWidth="1"/>
+    <col min="11" max="11" width="1.28515625" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="14" customFormat="1" ht="31.5">
+    <row r="1" spans="2:11" s="14" customFormat="1" ht="26.25">
       <c r="B1" s="14" t="s">
         <v>196</v>
       </c>
@@ -2038,29 +2270,29 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11" s="1" customFormat="1">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="90" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="84" t="s">
+      <c r="D5" s="90"/>
+      <c r="E5" s="86" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="85" t="s">
+      <c r="F5" s="86"/>
+      <c r="G5" s="87" t="s">
         <v>199</v>
       </c>
-      <c r="H5" s="85"/>
-      <c r="I5" s="84" t="s">
+      <c r="H5" s="87"/>
+      <c r="I5" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="38"/>
     </row>
     <row r="6" spans="2:11" s="1" customFormat="1">
-      <c r="B6" s="87"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="33" t="s">
         <v>170</v>
       </c>
@@ -2213,7 +2445,7 @@
       </c>
       <c r="K11" s="37"/>
     </row>
-    <row r="12" spans="2:11" ht="33">
+    <row r="12" spans="2:11" ht="30">
       <c r="B12" s="34" t="s">
         <v>162</v>
       </c>
@@ -2370,7 +2602,7 @@
       <c r="J17" s="46"/>
       <c r="K17" s="37"/>
     </row>
-    <row r="18" spans="2:11" ht="49.5">
+    <row r="18" spans="2:11" ht="60">
       <c r="B18" s="13" t="s">
         <v>169</v>
       </c>
@@ -2426,7 +2658,7 @@
       <c r="J19" s="47"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="2:11" ht="33">
+    <row r="20" spans="2:11" ht="30">
       <c r="B20" s="34" t="s">
         <v>174</v>
       </c>
@@ -2574,7 +2806,7 @@
       <c r="K30" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:K5">
+  <autoFilter ref="B5:K5" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
@@ -2593,8 +2825,21 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:G96"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2604,18 +2849,18 @@
       <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.25" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="1.25" style="39" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="1.28515625" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="14" customFormat="1" ht="31.5">
+    <row r="1" spans="2:7" s="14" customFormat="1" ht="26.25">
       <c r="B1" s="15"/>
       <c r="C1" s="14" t="s">
         <v>0</v>
@@ -2654,10 +2899,10 @@
       <c r="G5" s="38"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="94" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -2670,8 +2915,8 @@
       <c r="G6" s="32"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="95"/>
-      <c r="C7" s="92"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="94"/>
       <c r="D7" s="36" t="s">
         <v>25</v>
       </c>
@@ -2684,8 +2929,8 @@
       <c r="G7" s="37"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="95"/>
-      <c r="C8" s="96" t="s">
+      <c r="B8" s="97"/>
+      <c r="C8" s="98" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="36" t="s">
@@ -2698,8 +2943,8 @@
       <c r="G8" s="37"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="95"/>
-      <c r="C9" s="96"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="34" t="s">
         <v>34</v>
       </c>
@@ -2710,8 +2955,8 @@
       <c r="G9" s="32"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="95"/>
-      <c r="C10" s="92" t="s">
+      <c r="B10" s="97"/>
+      <c r="C10" s="94" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="36" t="s">
@@ -2724,8 +2969,8 @@
       <c r="G10" s="37"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="95"/>
-      <c r="C11" s="92"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="36" t="s">
         <v>114</v>
       </c>
@@ -2736,8 +2981,8 @@
       <c r="G11" s="37"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="95"/>
-      <c r="C12" s="92" t="s">
+      <c r="B12" s="97"/>
+      <c r="C12" s="94" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="36" t="s">
@@ -2750,8 +2995,8 @@
       <c r="G12" s="32"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="95"/>
-      <c r="C13" s="92"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="36" t="s">
         <v>84</v>
       </c>
@@ -2762,8 +3007,8 @@
       <c r="G13" s="37"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="95"/>
-      <c r="C14" s="92"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="94"/>
       <c r="D14" s="36" t="s">
         <v>88</v>
       </c>
@@ -2774,8 +3019,8 @@
       <c r="G14" s="37"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="95"/>
-      <c r="C15" s="92"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="36" t="s">
         <v>115</v>
       </c>
@@ -2802,7 +3047,7 @@
       <c r="G16" s="32"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="97" t="s">
         <v>147</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -2818,7 +3063,7 @@
       <c r="G17" s="32"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="95"/>
+      <c r="B18" s="97"/>
       <c r="C18" s="35" t="s">
         <v>64</v>
       </c>
@@ -2832,10 +3077,10 @@
       <c r="G18" s="32"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="94" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="36" t="s">
@@ -2848,8 +3093,8 @@
       <c r="G19" s="32"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="90"/>
-      <c r="C20" s="92"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="94"/>
       <c r="D20" s="36" t="s">
         <v>17</v>
       </c>
@@ -2860,8 +3105,8 @@
       <c r="G20" s="32"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="90"/>
-      <c r="C21" s="92" t="s">
+      <c r="B21" s="92"/>
+      <c r="C21" s="94" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="36" t="s">
@@ -2874,8 +3119,8 @@
       <c r="G21" s="32"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="90"/>
-      <c r="C22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="94"/>
       <c r="D22" s="36" t="s">
         <v>112</v>
       </c>
@@ -2886,7 +3131,7 @@
       <c r="G22" s="37"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="90"/>
+      <c r="B23" s="92"/>
       <c r="C23" s="35" t="s">
         <v>63</v>
       </c>
@@ -2900,8 +3145,8 @@
       <c r="G23" s="32"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="90"/>
-      <c r="C24" s="93" t="s">
+      <c r="B24" s="92"/>
+      <c r="C24" s="95" t="s">
         <v>69</v>
       </c>
       <c r="D24" s="36" t="s">
@@ -2914,8 +3159,8 @@
       <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="90"/>
-      <c r="C25" s="94"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="96"/>
       <c r="D25" s="36" t="s">
         <v>72</v>
       </c>
@@ -2926,7 +3171,7 @@
       <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="90"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="35" t="s">
         <v>100</v>
       </c>
@@ -2940,8 +3185,8 @@
       <c r="G26" s="32"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="90"/>
-      <c r="C27" s="93" t="s">
+      <c r="B27" s="92"/>
+      <c r="C27" s="95" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="36" t="s">
@@ -2954,8 +3199,8 @@
       <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="90"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="36" t="s">
         <v>12</v>
       </c>
@@ -2966,8 +3211,8 @@
       <c r="G28" s="32"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="90"/>
-      <c r="C29" s="93" t="s">
+      <c r="B29" s="92"/>
+      <c r="C29" s="95" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -2980,8 +3225,8 @@
       <c r="G29" s="32"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="91"/>
-      <c r="C30" s="94"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="96"/>
       <c r="D30" s="36" t="s">
         <v>83</v>
       </c>
@@ -3962,7 +4207,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C5:F5"/>
+  <autoFilter ref="C5:F5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="12">
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B6:B15"/>
@@ -3984,7 +4229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:D37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3994,16 +4239,16 @@
       <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.125" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="24" customWidth="1"/>
-    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" customWidth="1"/>
-    <col min="5" max="5" width="1.125" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="1.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="14" customFormat="1" ht="31.5">
+    <row r="1" spans="2:4" s="14" customFormat="1" ht="26.25">
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4026,7 +4271,7 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="100" t="s">
         <v>128</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -4035,35 +4280,35 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="97"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="97"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="97"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="6" t="s">
         <v>112</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="97"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="99" t="s">
         <v>127</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -4072,28 +4317,28 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="97"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="26" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="97"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="26" t="s">
         <v>85</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:4" s="21" customFormat="1">
-      <c r="B14" s="97"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="26" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="97"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="68" t="s">
         <v>56</v>
       </c>
@@ -4102,7 +4347,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="97"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="68" t="s">
         <v>57</v>
       </c>
@@ -4111,28 +4356,28 @@
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="97"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="97"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="6" t="s">
         <v>120</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="97"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="101" t="s">
         <v>130</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -4141,56 +4386,56 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="100"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="100"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="6" t="s">
         <v>82</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="100"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="68" t="s">
         <v>110</v>
       </c>
       <c r="D23" s="68"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="100"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="6" t="s">
         <v>126</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="100"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="100"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="100"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="100"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="6" t="s">
         <v>121</v>
       </c>
@@ -4199,7 +4444,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" s="21" customFormat="1">
-      <c r="B29" s="100"/>
+      <c r="B29" s="102"/>
       <c r="C29" s="6" t="s">
         <v>41</v>
       </c>
@@ -4208,49 +4453,49 @@
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="100"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="6" t="s">
         <v>132</v>
       </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="100"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="100"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="100"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="6" t="s">
         <v>131</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="100"/>
+      <c r="B34" s="102"/>
       <c r="C34" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="100"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="101"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="6" t="s">
         <v>122</v>
       </c>
@@ -4270,7 +4515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4280,15 +4525,15 @@
       <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="11" width="8.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="11" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" ht="31.5">
+    <row r="1" spans="1:11" s="14" customFormat="1" ht="26.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -5858,14 +6103,14 @@
       <c r="K84" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:K84"/>
+  <autoFilter ref="A5:K84" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5875,16 +6120,16 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" ht="31.5">
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="26.25">
       <c r="A1" s="14" t="s">
         <v>103</v>
       </c>
@@ -6445,21 +6690,21 @@
       <c r="E63" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:E5"/>
+  <autoFilter ref="A5:E5" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
@@ -6476,22 +6721,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:H28"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="72" customWidth="1"/>
-    <col min="2" max="8" width="23.625" style="72" customWidth="1"/>
-    <col min="9" max="16384" width="9.125" style="72"/>
+    <col min="1" max="1" width="2.5703125" style="72" customWidth="1"/>
+    <col min="2" max="8" width="23.5703125" style="72" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45" customHeight="1">
@@ -6499,10 +6744,10 @@
         <f ca="1">YEAR(TODAY())</f>
         <v>2020</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="102"/>
+      <c r="D1" s="104"/>
       <c r="E1" s="71" t="s">
         <v>204</v>
       </c>
@@ -6511,10 +6756,10 @@
       <c r="B2" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="105" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="103"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="74" t="s">
         <v>207</v>
       </c>
@@ -6702,7 +6947,9 @@
       <c r="D11" s="79"/>
       <c r="E11" s="79"/>
       <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
+      <c r="G11" s="79" t="s">
+        <v>240</v>
+      </c>
       <c r="H11" s="79"/>
     </row>
     <row r="12" spans="2:8" ht="24" customHeight="1">
@@ -6741,14 +6988,12 @@
       <c r="D13" s="79"/>
       <c r="E13" s="79"/>
       <c r="F13" s="82" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="G13" s="79" t="s">
-        <v>213</v>
-      </c>
-      <c r="H13" s="79" t="s">
-        <v>214</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="H13" s="79"/>
     </row>
     <row r="14" spans="2:8" ht="23.25" customHeight="1">
       <c r="B14" s="78" t="e">
@@ -6791,32 +7036,37 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="72" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="72" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="72" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="72" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="72" t="s">
-        <v>231</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="72" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="72" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="2:2">
@@ -6828,6 +7078,399 @@
       <c r="B28" s="72" t="s">
         <v>210</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B6:H6">
+    <cfRule type="expression" dxfId="17" priority="6">
+      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:H8">
+    <cfRule type="expression" dxfId="16" priority="5">
+      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:H10">
+    <cfRule type="expression" dxfId="15" priority="4">
+      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:H12">
+    <cfRule type="expression" dxfId="14" priority="3">
+      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:H14">
+    <cfRule type="expression" dxfId="13" priority="2">
+      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:H4">
+    <cfRule type="expression" dxfId="12" priority="1">
+      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4" xr:uid="{00000000-0002-0000-0600-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12" xr:uid="{00000000-0002-0000-0600-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5" xr:uid="{00000000-0002-0000-0600-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1" xr:uid="{00000000-0002-0000-0600-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1" xr:uid="{00000000-0002-0000-0600-000005000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1" xr:uid="{00000000-0002-0000-0600-000006000000}">
+      <formula1>"1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1" xr:uid="{00000000-0002-0000-0600-000007000000}">
+      <formula1>"월요일,화요일,수요일,목요일,금요일,토요일,일요일"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.45" right="0.45" top="0.4" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1">
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.499984740745262"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:H15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="72" customWidth="1"/>
+    <col min="2" max="8" width="23.5703125" style="72" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="72"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="45" customHeight="1">
+      <c r="B1" s="70">
+        <f ca="1">YEAR(TODAY())</f>
+        <v>2020</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="104"/>
+      <c r="E1" s="71" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="30" customHeight="1">
+      <c r="B2" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="105" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="105"/>
+      <c r="E2" s="74" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="B3" s="75" t="e">
+        <f t="array" aca="1" ref="B3:H3" ca="1">달력</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C3" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E3" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F3" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G3" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H3" s="75" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="24" customHeight="1">
+      <c r="B4" s="78" t="e">
+        <f t="array" aca="1" ref="B4:H4" ca="1">INDEX(달력,ndx+0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C4" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F4" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G4" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H4" s="81" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="51" customHeight="1">
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="24" customHeight="1">
+      <c r="B6" s="78" t="e">
+        <f t="array" aca="1" ref="B6:H6" ca="1">INDEX(달력,ndx+1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C6" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F6" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G6" s="80" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" s="81" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="51" customHeight="1">
+      <c r="B7" s="83"/>
+      <c r="C7" s="82" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="82" t="s">
+        <v>234</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" s="82" t="s">
+        <v>235</v>
+      </c>
+      <c r="H7" s="82" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="24" customHeight="1">
+      <c r="B8" s="78" t="e">
+        <f t="array" aca="1" ref="B8:H8" ca="1">INDEX(달력,ndx+2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C8" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E8" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F8" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G8" s="80" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H8" s="81" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="51" customHeight="1">
+      <c r="B9" s="79" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="82" t="s">
+        <v>236</v>
+      </c>
+      <c r="H9" s="85" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="24" customHeight="1">
+      <c r="B10" s="78" t="e">
+        <f t="array" aca="1" ref="B10:H10" ca="1">INDEX(달력,ndx+3)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C10" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D10" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F10" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G10" s="80" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H10" s="81" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="51" customHeight="1">
+      <c r="B11" s="82" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+    </row>
+    <row r="12" spans="2:8" ht="24" customHeight="1">
+      <c r="B12" s="78" t="e">
+        <f t="array" aca="1" ref="B12:H12" ca="1">INDEX(달력,ndx+4)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C12" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D12" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E12" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F12" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G12" s="80" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H12" s="81" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="51" customHeight="1">
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+    </row>
+    <row r="14" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B14" s="78" t="e">
+        <f t="array" aca="1" ref="B14:H14" ca="1">INDEX(달력,ndx+5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C14" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D14" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E14" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F14" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G14" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H14" s="78" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="51" customHeight="1">
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6866,18 +7509,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3" xr:uid="{00000000-0002-0000-0700-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4" xr:uid="{00000000-0002-0000-0700-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12" xr:uid="{00000000-0002-0000-0700-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1" xr:uid="{00000000-0002-0000-0700-000003000000}">
+      <formula1>"월요일,화요일,수요일,목요일,금요일,토요일,일요일"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1" xr:uid="{00000000-0002-0000-0700-000004000000}">
       <formula1>"1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1">
-      <formula1>"월요일,화요일,수요일,목요일,금요일,토요일,일요일"</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1" xr:uid="{00000000-0002-0000-0700-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1" xr:uid="{00000000-0002-0000-0700-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5" xr:uid="{00000000-0002-0000-0700-000007000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.4" bottom="0.5" header="0.3" footer="0.3"/>
@@ -6888,23 +7531,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD11B490-5908-4BE3-8828-E870D4A11256}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="72" customWidth="1"/>
-    <col min="2" max="8" width="23.625" style="72" customWidth="1"/>
-    <col min="9" max="16384" width="9.125" style="72"/>
+    <col min="1" max="1" width="2.5703125" style="72" customWidth="1"/>
+    <col min="2" max="8" width="23.5703125" style="72" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45" customHeight="1">
@@ -6912,22 +7555,22 @@
         <f ca="1">YEAR(TODAY())</f>
         <v>2020</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="102"/>
+      <c r="D1" s="104"/>
       <c r="E1" s="71" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="30" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="105" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="103"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="74" t="s">
         <v>207</v>
       </c>
@@ -7000,7 +7643,7 @@
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
       <c r="H5" s="79" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="24" customHeight="1">
@@ -7036,22 +7679,22 @@
     <row r="7" spans="2:8" ht="51" customHeight="1">
       <c r="B7" s="83"/>
       <c r="C7" s="82" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D7" s="83" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F7" s="79" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G7" s="82" t="s">
         <v>211</v>
       </c>
       <c r="H7" s="82" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="24" customHeight="1">
@@ -7086,22 +7729,22 @@
     </row>
     <row r="9" spans="2:8" ht="51" customHeight="1">
       <c r="B9" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="79" t="s">
-        <v>220</v>
+        <v>217</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>228</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E9" s="79" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F9" s="79" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G9" s="82" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H9" s="79"/>
     </row>
@@ -7137,11 +7780,13 @@
     </row>
     <row r="11" spans="2:8" ht="51" customHeight="1">
       <c r="B11" s="82" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
+      <c r="E11" s="79" t="s">
+        <v>229</v>
+      </c>
       <c r="F11" s="79"/>
       <c r="G11" s="79"/>
       <c r="H11" s="79"/>
@@ -7183,7 +7828,9 @@
       <c r="E13" s="79"/>
       <c r="F13" s="79"/>
       <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
+      <c r="H13" s="79" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="23.25" customHeight="1">
       <c r="B14" s="78" t="e">
@@ -7229,7 +7876,6 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B6:H6">
     <cfRule type="expression" dxfId="5" priority="6">
       <formula>MonthToDisplayNumber&lt;&gt;MONTH(B6)</formula>
@@ -7261,18 +7907,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3" xr:uid="{D8C335D1-0883-431E-A324-9A194F3CF312}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4" xr:uid="{DC417EDA-C569-442C-8AEF-F64EFC76304A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12" xr:uid="{779DCC84-5655-4B92-908C-A9BAC48223BA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5" xr:uid="{D66DFBB3-C718-4FFA-A671-DFDC72385F06}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1" xr:uid="{C4B1011E-BCBD-49FB-80CA-DDAE64DC67B9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1" xr:uid="{F328E7D3-3FEE-4737-BC06-D6EFD2214109}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1" xr:uid="{3F7E78F1-A86F-4FE7-98D2-13578D8110C1}">
+      <formula1>"1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1" xr:uid="{462F9299-FA2B-414B-A6B5-82190305DFB0}">
       <formula1>"월요일,화요일,수요일,목요일,금요일,토요일,일요일"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1">
-      <formula1>"1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.4" bottom="0.5" header="0.3" footer="0.3"/>
@@ -7281,17 +7927,4 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Temp/이사준비-20200605.xlsx
+++ b/Temp/이사준비-20200605.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E8270A-FFEE-419B-A93A-3ACAA9196F02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403EB142-6E9D-4748-9A67-C97B5C2E4D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="244">
   <si>
     <t>현대아파트 이사 준비</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -952,10 +952,6 @@
     <t>베이킹, 환기</t>
   </si>
   <si>
-    <t>TV 무타공 알아보기 - 이사전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>탄성코트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -985,10 +981,6 @@
   </si>
   <si>
     <t>LED 케이스 타공 실측</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>베이크아웃 방법 찾기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1074,10 +1066,6 @@
 베이킹, 환기</t>
   </si>
   <si>
-    <t>11/15 SUN
-10AM 이사</t>
-  </si>
-  <si>
     <t>11/3 TUE
 탄성코트</t>
   </si>
@@ -1088,15 +1076,6 @@
   <si>
     <t>11/7 SAT
 입주청소</t>
-  </si>
-  <si>
-    <t>11/14 SAT
-워시타워
-식기세척기</t>
-  </si>
-  <si>
-    <t>11/16 MON
-인덕션</t>
   </si>
   <si>
     <t>10/30 FRI
@@ -1114,11 +1093,8 @@
 청소 용품 구매</t>
   </si>
   <si>
-    <t xml:space="preserve">정전기포, 물티슈, 청소도구(밀대), 라텍스장갑, 걸레, </t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">새집증후군제거 - 베이크아웃, 야자활성탄(10kg) or 화목한가정, 공기청정기, 열교환기, 환기, </t>
+      <t xml:space="preserve">새집증후군제거 - 베이크아웃(온도 올리는 방법), 야자활성탄(10kg) or 화목한가정, 공기청정기, 열교환기, 환기, </t>
     </r>
     <r>
       <rPr>
@@ -1129,6 +1105,34 @@
       </rPr>
       <t>알델리트</t>
     </r>
+  </si>
+  <si>
+    <t>천장 선 청소</t>
+  </si>
+  <si>
+    <t>11/16 MON
+인덕션
+베이킹 / 환기</t>
+  </si>
+  <si>
+    <t>베이킹/환기</t>
+  </si>
+  <si>
+    <t>11/15 SUN
+10AM 이사
+베이킹/환기</t>
+  </si>
+  <si>
+    <t>11/14 SAT
+워시타워
+식기세척기
+베이킹/환기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">입주청소 - 정전기 청소포, 물티슈, 청소도구(밀대), 라텍스장갑, 걸레, </t>
+  </si>
+  <si>
+    <t>탄성코트 - 선 청소, 선반제거 미리 부탁,</t>
   </si>
 </sst>
 </file>
@@ -1736,6 +1740,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1745,19 +1758,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2899,10 +2903,10 @@
       <c r="G5" s="38"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="92" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -2915,8 +2919,8 @@
       <c r="G6" s="32"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="97"/>
-      <c r="C7" s="94"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="36" t="s">
         <v>25</v>
       </c>
@@ -2929,8 +2933,8 @@
       <c r="G7" s="37"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="97"/>
-      <c r="C8" s="98" t="s">
+      <c r="B8" s="91"/>
+      <c r="C8" s="93" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="36" t="s">
@@ -2943,8 +2947,8 @@
       <c r="G8" s="37"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="97"/>
-      <c r="C9" s="98"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="34" t="s">
         <v>34</v>
       </c>
@@ -2955,8 +2959,8 @@
       <c r="G9" s="32"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="97"/>
-      <c r="C10" s="94" t="s">
+      <c r="B10" s="91"/>
+      <c r="C10" s="92" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="36" t="s">
@@ -2969,8 +2973,8 @@
       <c r="G10" s="37"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="97"/>
-      <c r="C11" s="94"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="36" t="s">
         <v>114</v>
       </c>
@@ -2981,8 +2985,8 @@
       <c r="G11" s="37"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="97"/>
-      <c r="C12" s="94" t="s">
+      <c r="B12" s="91"/>
+      <c r="C12" s="92" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="36" t="s">
@@ -2995,8 +2999,8 @@
       <c r="G12" s="32"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="97"/>
-      <c r="C13" s="94"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="36" t="s">
         <v>84</v>
       </c>
@@ -3007,8 +3011,8 @@
       <c r="G13" s="37"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="97"/>
-      <c r="C14" s="94"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="36" t="s">
         <v>88</v>
       </c>
@@ -3019,8 +3023,8 @@
       <c r="G14" s="37"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="97"/>
-      <c r="C15" s="94"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="36" t="s">
         <v>115</v>
       </c>
@@ -3047,7 +3051,7 @@
       <c r="G16" s="32"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="91" t="s">
         <v>147</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -3063,7 +3067,7 @@
       <c r="G17" s="32"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="97"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="35" t="s">
         <v>64</v>
       </c>
@@ -3077,10 +3081,10 @@
       <c r="G18" s="32"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="92" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="36" t="s">
@@ -3093,8 +3097,8 @@
       <c r="G19" s="32"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="92"/>
-      <c r="C20" s="94"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="36" t="s">
         <v>17</v>
       </c>
@@ -3105,8 +3109,8 @@
       <c r="G20" s="32"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="92"/>
-      <c r="C21" s="94" t="s">
+      <c r="B21" s="95"/>
+      <c r="C21" s="92" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="36" t="s">
@@ -3119,8 +3123,8 @@
       <c r="G21" s="32"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="92"/>
-      <c r="C22" s="94"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="92"/>
       <c r="D22" s="36" t="s">
         <v>112</v>
       </c>
@@ -3131,7 +3135,7 @@
       <c r="G22" s="37"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="92"/>
+      <c r="B23" s="95"/>
       <c r="C23" s="35" t="s">
         <v>63</v>
       </c>
@@ -3145,8 +3149,8 @@
       <c r="G23" s="32"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="92"/>
-      <c r="C24" s="95" t="s">
+      <c r="B24" s="95"/>
+      <c r="C24" s="97" t="s">
         <v>69</v>
       </c>
       <c r="D24" s="36" t="s">
@@ -3159,8 +3163,8 @@
       <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="92"/>
-      <c r="C25" s="96"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="98"/>
       <c r="D25" s="36" t="s">
         <v>72</v>
       </c>
@@ -3171,7 +3175,7 @@
       <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="92"/>
+      <c r="B26" s="95"/>
       <c r="C26" s="35" t="s">
         <v>100</v>
       </c>
@@ -3185,8 +3189,8 @@
       <c r="G26" s="32"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="92"/>
-      <c r="C27" s="95" t="s">
+      <c r="B27" s="95"/>
+      <c r="C27" s="97" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="36" t="s">
@@ -3199,8 +3203,8 @@
       <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="92"/>
-      <c r="C28" s="96"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="98"/>
       <c r="D28" s="36" t="s">
         <v>12</v>
       </c>
@@ -3211,8 +3215,8 @@
       <c r="G28" s="32"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="92"/>
-      <c r="C29" s="95" t="s">
+      <c r="B29" s="95"/>
+      <c r="C29" s="97" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -3225,8 +3229,8 @@
       <c r="G29" s="32"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="93"/>
-      <c r="C30" s="96"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="98"/>
       <c r="D30" s="36" t="s">
         <v>83</v>
       </c>
@@ -4209,18 +4213,18 @@
   </sheetData>
   <autoFilter ref="C5:F5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="12">
+    <mergeCell ref="B19:B30"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B6:B15"/>
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B19:B30"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6728,8 +6732,8 @@
   </sheetPr>
   <dimension ref="B1:H28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -6948,7 +6952,7 @@
       <c r="E11" s="79"/>
       <c r="F11" s="79"/>
       <c r="G11" s="79" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H11" s="79"/>
     </row>
@@ -6988,10 +6992,10 @@
       <c r="D13" s="79"/>
       <c r="E13" s="79"/>
       <c r="F13" s="82" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G13" s="79" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H13" s="79"/>
     </row>
@@ -7034,39 +7038,39 @@
       <c r="G15" s="79"/>
       <c r="H15" s="79"/>
     </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="72" t="s">
+        <v>213</v>
+      </c>
+    </row>
     <row r="18" spans="2:2">
       <c r="B18" s="72" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="72" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="72" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="72" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="72" t="s">
-        <v>227</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="72" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="72" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="72" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="2:2">
@@ -7286,22 +7290,22 @@
     <row r="7" spans="2:8" ht="51" customHeight="1">
       <c r="B7" s="83"/>
       <c r="C7" s="82" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D7" s="83" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="82" t="s">
+        <v>231</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G7" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="H7" s="82" t="s">
         <v>222</v>
-      </c>
-      <c r="E7" s="82" t="s">
-        <v>234</v>
-      </c>
-      <c r="F7" s="79" t="s">
-        <v>221</v>
-      </c>
-      <c r="G7" s="82" t="s">
-        <v>235</v>
-      </c>
-      <c r="H7" s="82" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="24" customHeight="1">
@@ -7336,21 +7340,21 @@
     </row>
     <row r="9" spans="2:8" ht="51" customHeight="1">
       <c r="B9" s="79" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C9" s="79" t="s">
         <v>217</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E9" s="79"/>
       <c r="F9" s="79"/>
       <c r="G9" s="82" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H9" s="85" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="24" customHeight="1">
@@ -7385,9 +7389,11 @@
     </row>
     <row r="11" spans="2:8" ht="51" customHeight="1">
       <c r="B11" s="82" t="s">
-        <v>237</v>
-      </c>
-      <c r="C11" s="79"/>
+        <v>238</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>239</v>
+      </c>
       <c r="D11" s="79"/>
       <c r="E11" s="79"/>
       <c r="F11" s="79"/>
@@ -7679,22 +7685,22 @@
     <row r="7" spans="2:8" ht="51" customHeight="1">
       <c r="B7" s="83"/>
       <c r="C7" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="82" t="s">
         <v>219</v>
       </c>
-      <c r="D7" s="83" t="s">
-        <v>221</v>
-      </c>
-      <c r="E7" s="82" t="s">
+      <c r="F7" s="79" t="s">
         <v>220</v>
-      </c>
-      <c r="F7" s="79" t="s">
-        <v>221</v>
       </c>
       <c r="G7" s="82" t="s">
         <v>211</v>
       </c>
       <c r="H7" s="82" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="24" customHeight="1">
@@ -7732,16 +7738,16 @@
         <v>217</v>
       </c>
       <c r="C9" s="83" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E9" s="79" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F9" s="79" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G9" s="82" t="s">
         <v>215</v>
@@ -7785,7 +7791,7 @@
       <c r="C11" s="79"/>
       <c r="D11" s="79"/>
       <c r="E11" s="79" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F11" s="79"/>
       <c r="G11" s="79"/>
@@ -7829,7 +7835,7 @@
       <c r="F13" s="79"/>
       <c r="G13" s="79"/>
       <c r="H13" s="79" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="23.25" customHeight="1">

--- a/Temp/이사준비-20200605.xlsx
+++ b/Temp/이사준비-20200605.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403EB142-6E9D-4748-9A67-C97B5C2E4D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945EA34D-1478-42DF-B7D0-08B288D35CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="이사짐센터 견적" sheetId="7" r:id="rId1"/>
@@ -19,68 +19,42 @@
     <sheet name="현대아파트 이사" sheetId="1" r:id="rId4"/>
     <sheet name="자이 입주시" sheetId="4" r:id="rId5"/>
     <sheet name="MoveToXi" sheetId="3" r:id="rId6"/>
-    <sheet name="OCT" sheetId="9" r:id="rId7"/>
-    <sheet name="NOV" sheetId="10" r:id="rId8"/>
-    <sheet name="NOV (2)" sheetId="11" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId10"/>
+    <sheet name="NOV" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'이사짐 센터 견적시 물품'!$C$5:$F$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'이사짐센터 견적'!$B$5:$K$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'자이 입주시'!$A$5:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'현대아파트 이사'!$A$5:$K$84</definedName>
-    <definedName name="DayToStart" localSheetId="7">NOV!$E$1</definedName>
-    <definedName name="DayToStart" localSheetId="8">'NOV (2)'!$E$1</definedName>
-    <definedName name="DayToStart">OCT!$E$1</definedName>
-    <definedName name="MonthToDisplay" localSheetId="7">NOV!$C$1</definedName>
-    <definedName name="MonthToDisplay" localSheetId="8">'NOV (2)'!$C$1</definedName>
-    <definedName name="MonthToDisplay" localSheetId="6">OCT!$C$1</definedName>
-    <definedName name="MonthToDisplayNumber" localSheetId="7">MATCH(NOV!MonthToDisplay,NOV!월,0)</definedName>
-    <definedName name="MonthToDisplayNumber" localSheetId="8">MATCH('NOV (2)'!MonthToDisplay,'NOV (2)'!월,0)</definedName>
-    <definedName name="MonthToDisplayNumber" localSheetId="6">MATCH(OCT!MonthToDisplay,월,0)</definedName>
-    <definedName name="ndx" localSheetId="7">ROUNDUP(MATCH(2,1/FREQUENCY(DATE(NOV!표시할연도,NOV!MonthToDisplayNumber,1),NOV!달력))/7,0)</definedName>
-    <definedName name="ndx" localSheetId="8">ROUNDUP(MATCH(2,1/FREQUENCY(DATE('NOV (2)'!표시할연도,'NOV (2)'!MonthToDisplayNumber,1),'NOV (2)'!달력))/7,0)</definedName>
-    <definedName name="ndx" localSheetId="6">ROUNDUP(MATCH(2,1/FREQUENCY(DATE(OCT!표시할연도,OCT!MonthToDisplayNumber,1),OCT!달력))/7,0)</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">NOV!$3:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="8">'NOV (2)'!$3:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">OCT!$3:$3</definedName>
-    <definedName name="weekdays_reversed" localSheetId="7">{"일요일","토요일","금요일","목요일","수요일","화요일","월요일"}</definedName>
-    <definedName name="weekdays_reversed" localSheetId="8">{"일요일","토요일","금요일","목요일","수요일","화요일","월요일"}</definedName>
+    <definedName name="DayToStart" localSheetId="6">NOV!$E$1</definedName>
+    <definedName name="DayToStart">#REF!</definedName>
+    <definedName name="MonthToDisplay" localSheetId="6">NOV!$C$1</definedName>
+    <definedName name="MonthToDisplay">#REF!</definedName>
+    <definedName name="MonthToDisplayNumber" localSheetId="6">MATCH(NOV!MonthToDisplay,NOV!월,0)</definedName>
+    <definedName name="MonthToDisplayNumber">MATCH([0]!MonthToDisplay,월,0)</definedName>
+    <definedName name="ndx" localSheetId="6">ROUNDUP(MATCH(2,1/FREQUENCY(DATE(NOV!표시할연도,NOV!MonthToDisplayNumber,1),NOV!달력))/7,0)</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">NOV!$3:$3</definedName>
+    <definedName name="weekdays_reversed" localSheetId="6">{"일요일","토요일","금요일","목요일","수요일","화요일","월요일"}</definedName>
     <definedName name="weekdays_reversed">{"일요일","토요일","금요일","목요일","수요일","화요일","월요일"}</definedName>
-    <definedName name="날짜눈금" localSheetId="7">NOV!요일+NOV!주*7</definedName>
-    <definedName name="날짜눈금" localSheetId="8">'NOV (2)'!요일+'NOV (2)'!주*7</definedName>
+    <definedName name="날짜눈금" localSheetId="6">NOV!요일+NOV!주*7</definedName>
     <definedName name="날짜눈금">요일+주*7</definedName>
-    <definedName name="날짜패턴" localSheetId="7">{1,1,2,2,3,3,4,4,5,5,6,6,7}</definedName>
-    <definedName name="날짜패턴" localSheetId="8">{1,1,2,2,3,3,4,4,5,5,6,6,7}</definedName>
+    <definedName name="날짜패턴" localSheetId="6">{1,1,2,2,3,3,4,4,5,5,6,6,7}</definedName>
     <definedName name="날짜패턴">{1,1,2,2,3,3,4,4,5,5,6,6,7}</definedName>
-    <definedName name="달력" localSheetId="7">NOV!날짜눈금+NOV!첫째날짜-WEEKDAY(NOV!첫째날짜)-NOV!요일_옵션</definedName>
-    <definedName name="달력" localSheetId="8">'NOV (2)'!날짜눈금+'NOV (2)'!첫째날짜-WEEKDAY('NOV (2)'!첫째날짜)-'NOV (2)'!요일_옵션</definedName>
-    <definedName name="달력" localSheetId="6">날짜눈금+OCT!첫째날짜-WEEKDAY(OCT!첫째날짜)-요일_옵션</definedName>
-    <definedName name="시작날짜" localSheetId="7">DATE(NOV!표시할연도,NOV!월,1)</definedName>
-    <definedName name="시작날짜" localSheetId="8">DATE('NOV (2)'!표시할연도,'NOV (2)'!월,1)</definedName>
-    <definedName name="시작날짜" localSheetId="6">DATE(OCT!표시할연도,OCT!월,1)</definedName>
-    <definedName name="요일" localSheetId="7">{0,1,2,3,4,5,6}</definedName>
-    <definedName name="요일" localSheetId="8">{0,1,2,3,4,5,6}</definedName>
+    <definedName name="달력" localSheetId="6">NOV!날짜눈금+NOV!첫째날짜-WEEKDAY(NOV!첫째날짜)-NOV!요일_옵션</definedName>
+    <definedName name="시작날짜" localSheetId="6">DATE(NOV!표시할연도,NOV!월,1)</definedName>
+    <definedName name="요일" localSheetId="6">{0,1,2,3,4,5,6}</definedName>
     <definedName name="요일">{0,1,2,3,4,5,6}</definedName>
-    <definedName name="요일_옵션" localSheetId="7">MATCH(NOV!DayToStart,NOV!weekdays_reversed,0)-2</definedName>
-    <definedName name="요일_옵션" localSheetId="8">MATCH('NOV (2)'!DayToStart,'NOV (2)'!weekdays_reversed,0)-2</definedName>
+    <definedName name="요일_옵션" localSheetId="6">MATCH(NOV!DayToStart,NOV!weekdays_reversed,0)-2</definedName>
     <definedName name="요일_옵션">MATCH(DayToStart,weekdays_reversed,0)-2</definedName>
-    <definedName name="월" localSheetId="7">MATCH(NOV!MonthToDisplay,NOV!월,0)</definedName>
-    <definedName name="월" localSheetId="8">MATCH('NOV (2)'!MonthToDisplay,'NOV (2)'!월,0)</definedName>
-    <definedName name="월" localSheetId="6">MATCH(OCT!MonthToDisplay,NOV!월,0)</definedName>
+    <definedName name="월" localSheetId="6">MATCH(NOV!MonthToDisplay,NOV!월,0)</definedName>
     <definedName name="월">{"1월","2월","3월","4월","5월","6월","7월","8월","9월","10월","11월","12월"}</definedName>
-    <definedName name="주" localSheetId="7">{0;1;2;3;4;5;6}</definedName>
-    <definedName name="주" localSheetId="8">{0;1;2;3;4;5;6}</definedName>
+    <definedName name="주" localSheetId="6">{0;1;2;3;4;5;6}</definedName>
     <definedName name="주">{0;1;2;3;4;5;6}</definedName>
-    <definedName name="첫째날짜" localSheetId="7">DATE(NOV!표시할연도,NOV!월,1)</definedName>
-    <definedName name="첫째날짜" localSheetId="8">DATE('NOV (2)'!표시할연도,'NOV (2)'!월,1)</definedName>
-    <definedName name="첫째날짜" localSheetId="6">DATE(OCT!표시할연도,OCT!월,1)</definedName>
-    <definedName name="평일" localSheetId="7">{"월요일","화요일","수요일","목요일","금요일","토요일","일요일"}</definedName>
-    <definedName name="평일" localSheetId="8">{"월요일","화요일","수요일","목요일","금요일","토요일","일요일"}</definedName>
+    <definedName name="첫째날짜" localSheetId="6">DATE(NOV!표시할연도,NOV!월,1)</definedName>
+    <definedName name="평일" localSheetId="6">{"월요일","화요일","수요일","목요일","금요일","토요일","일요일"}</definedName>
     <definedName name="평일">{"월요일","화요일","수요일","목요일","금요일","토요일","일요일"}</definedName>
-    <definedName name="표시할연도" localSheetId="7">NOV!$B$1</definedName>
-    <definedName name="표시할연도" localSheetId="8">'NOV (2)'!$B$1</definedName>
-    <definedName name="표시할연도" localSheetId="6">OCT!$B$1</definedName>
+    <definedName name="표시할연도" localSheetId="6">NOV!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="243">
   <si>
     <t>현대아파트 이사 준비</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -906,9 +880,6 @@
     <t>schedule</t>
   </si>
   <si>
-    <t>10월</t>
-  </si>
-  <si>
     <t>월요일</t>
   </si>
   <si>
@@ -924,69 +895,216 @@
     <t>11월</t>
   </si>
   <si>
-    <t>실외기실-루버창을 수시로 여는 환기가 정답</t>
-  </si>
-  <si>
-    <t>드레스룸 중문설치 - 드레스룸에 냉기가 많을 수 있다고 함</t>
-  </si>
-  <si>
-    <t>입주청소</t>
-  </si>
-  <si>
-    <t>탄성코트 전처리 &amp; 환기</t>
-  </si>
-  <si>
-    <t>LED 리폼, LED 간접조명 - 알아보기</t>
-  </si>
-  <si>
-    <t>나노코팅 - 셀프 알아보기</t>
-  </si>
-  <si>
-    <t>워시타워
-식기세척기</t>
-  </si>
-  <si>
-    <t>인덕션</t>
-  </si>
-  <si>
-    <t>베이킹, 환기</t>
-  </si>
-  <si>
-    <t>탄성코트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>줄눈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>환기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>환기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입주청소, 베이킹, 환기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이사?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>베이킹, 환기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED 케이스 타공 실측</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>11/5 THU
+줄눈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">입주청소 - 정전기 청소포, 물티슈, 청소도구(밀대), 라텍스장갑, 걸레, </t>
+  </si>
+  <si>
+    <t>10/29 THU</t>
+  </si>
+  <si>
+    <t>10/28 WED</t>
+  </si>
+  <si>
+    <t>10/27 TUE</t>
+  </si>
+  <si>
+    <t>10/26 MON</t>
+  </si>
+  <si>
+    <t>11/2 MON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/3 TUE
+</t>
+  </si>
+  <si>
+    <t>11/4 WED</t>
+  </si>
+  <si>
+    <t>11/6 FRI</t>
+  </si>
+  <si>
+    <t>11/12 THU</t>
+  </si>
+  <si>
+    <t>11/13 FRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/14 SAT
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/15 SUN
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/16 MON
+</t>
+  </si>
+  <si>
+    <t>11/17 TUE</t>
+  </si>
+  <si>
+    <t>아쿠아 청소기 수리 대기중
+청소 물품 list-up (필요시 구매)
+LED 리폼(사이즈 측정)</t>
+  </si>
+  <si>
+    <t>청소list-up(천장-&gt;탄성코트벽-&gt;베이크아웃-&gt;알델리트-&gt;환기)</t>
+  </si>
+  <si>
+    <t>탄성코트 벽면 선반 제거 요청
+나노코팅 방향 계획</t>
+  </si>
+  <si>
+    <t>새집증후군제거 - 베이크아웃(온도 올리는 방법), 야자활성탄(10kg) or 화목한가정, 공기청정기, 열교환기, 환기, 알델리트</t>
+  </si>
+  <si>
+    <t>드레스룸 중문설치 고려 - 드레스룸에 냉기가 많을 수 있다고 함</t>
+  </si>
+  <si>
+    <t>진공청소기, 아쿠아 청소기, 스팀 청소기
+활성탄</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">11/10 베이킹, 환기
+      <t xml:space="preserve">10/30 FRI
 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>APT 잔금/key 분출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+베이크아웃 문의-&gt;실행
+천장 청소</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10/31 SAT
+환기, 활성탄, 베이크 아웃
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아버지 생신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+환기</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11/1 SUN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탄성코트 시공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+환기, 활성탄, 베이크아웃</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11/7 SAT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입주청소</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11/8
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이사</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11/9 MON
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Frame/Bed
+냉장고설치
+인터넷 설치(3PM)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11/10 TUE </t>
     </r>
     <r>
       <rPr>
@@ -995,7 +1113,7 @@
         <rFont val="Malgun Gothic"/>
         <charset val="129"/>
       </rPr>
-      <t>서(9/25)</t>
+      <t>(서(9/25))</t>
     </r>
     <r>
       <rPr>
@@ -1008,11 +1126,43 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">11/19
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>LG(WashTower, 세척기)
+TV설치</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11/11 WED
 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인덕션 설치</t>
+    </r>
+  </si>
+  <si>
+    <t>11/18 WED</t>
+  </si>
+  <si>
+    <t>11/20 FRI</t>
+  </si>
+  <si>
+    <r>
+      <t>11/19 THU (</t>
     </r>
     <r>
       <rPr>
@@ -1031,108 +1181,14 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">11/29
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>서 10/15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>11/9 MON
-베이킹, 환기</t>
-  </si>
-  <si>
-    <t>11/3 TUE
-탄성코트</t>
-  </si>
-  <si>
-    <t>11/5 THU
-줄눈</t>
-  </si>
-  <si>
-    <t>11/7 SAT
-입주청소</t>
-  </si>
-  <si>
-    <t>10/30 FRI
-잔금
-LED 리폼 가능성 타진</t>
-  </si>
-  <si>
-    <t>10/31 SAT
-천장 청소
-아버지 생신</t>
-  </si>
-  <si>
-    <t>10/24 SAT
-아쿠아 수리 의뢰
-청소 용품 구매</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">새집증후군제거 - 베이크아웃(온도 올리는 방법), 야자활성탄(10kg) or 화목한가정, 공기청정기, 열교환기, 환기, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>알델리트</t>
-    </r>
-  </si>
-  <si>
-    <t>천장 선 청소</t>
-  </si>
-  <si>
-    <t>11/16 MON
-인덕션
-베이킹 / 환기</t>
-  </si>
-  <si>
-    <t>베이킹/환기</t>
-  </si>
-  <si>
-    <t>11/15 SUN
-10AM 이사
-베이킹/환기</t>
-  </si>
-  <si>
-    <t>11/14 SAT
-워시타워
-식기세척기
-베이킹/환기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">입주청소 - 정전기 청소포, 물티슈, 청소도구(밀대), 라텍스장갑, 걸레, </t>
-  </si>
-  <si>
-    <t>탄성코트 - 선 청소, 선반제거 미리 부탁,</t>
+    <t>11/21 SAT</t>
+  </si>
+  <si>
+    <t>11/22 SUN</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1199,7 @@
     <numFmt numFmtId="164" formatCode="aaaa"/>
     <numFmt numFmtId="165" formatCode="dd"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1243,20 +1299,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
@@ -1290,13 +1332,14 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Malgun Gothic"/>
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1330,12 +1373,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,11 +1499,11 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="6" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1695,95 +1732,89 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="7" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="7" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="7" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="9" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="9" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="6" xfId="8" applyFont="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="6" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="6" xfId="8" applyFont="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="9" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="9" applyFont="1" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="9" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="9" applyFont="1" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="9" applyFont="1" applyFill="1">
+    <xf numFmtId="16" fontId="15" fillId="6" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1798,67 +1829,7 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -2274,29 +2245,29 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11" s="1" customFormat="1">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="86" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="86" t="s">
+      <c r="D5" s="86"/>
+      <c r="E5" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87" t="s">
+      <c r="F5" s="82"/>
+      <c r="G5" s="83" t="s">
         <v>199</v>
       </c>
-      <c r="H5" s="87"/>
-      <c r="I5" s="86" t="s">
+      <c r="H5" s="83"/>
+      <c r="I5" s="82" t="s">
         <v>201</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="38"/>
     </row>
     <row r="6" spans="2:11" s="1" customFormat="1">
-      <c r="B6" s="89"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="33" t="s">
         <v>170</v>
       </c>
@@ -2826,19 +2797,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2903,10 +2861,10 @@
       <c r="G5" s="38"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="90" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -2919,8 +2877,8 @@
       <c r="G6" s="32"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="91"/>
-      <c r="C7" s="92"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="90"/>
       <c r="D7" s="36" t="s">
         <v>25</v>
       </c>
@@ -2933,8 +2891,8 @@
       <c r="G7" s="37"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="91"/>
-      <c r="C8" s="93" t="s">
+      <c r="B8" s="93"/>
+      <c r="C8" s="94" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="36" t="s">
@@ -2947,8 +2905,8 @@
       <c r="G8" s="37"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="91"/>
-      <c r="C9" s="93"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="34" t="s">
         <v>34</v>
       </c>
@@ -2959,8 +2917,8 @@
       <c r="G9" s="32"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="91"/>
-      <c r="C10" s="92" t="s">
+      <c r="B10" s="93"/>
+      <c r="C10" s="90" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="36" t="s">
@@ -2973,8 +2931,8 @@
       <c r="G10" s="37"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="91"/>
-      <c r="C11" s="92"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="36" t="s">
         <v>114</v>
       </c>
@@ -2985,8 +2943,8 @@
       <c r="G11" s="37"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="91"/>
-      <c r="C12" s="92" t="s">
+      <c r="B12" s="93"/>
+      <c r="C12" s="90" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="36" t="s">
@@ -2999,8 +2957,8 @@
       <c r="G12" s="32"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="91"/>
-      <c r="C13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="36" t="s">
         <v>84</v>
       </c>
@@ -3011,8 +2969,8 @@
       <c r="G13" s="37"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="36" t="s">
         <v>88</v>
       </c>
@@ -3023,8 +2981,8 @@
       <c r="G14" s="37"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="91"/>
-      <c r="C15" s="92"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="36" t="s">
         <v>115</v>
       </c>
@@ -3051,7 +3009,7 @@
       <c r="G16" s="32"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="93" t="s">
         <v>147</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -3067,7 +3025,7 @@
       <c r="G17" s="32"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="91"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="35" t="s">
         <v>64</v>
       </c>
@@ -3081,10 +3039,10 @@
       <c r="G18" s="32"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="90" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="36" t="s">
@@ -3097,8 +3055,8 @@
       <c r="G19" s="32"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="95"/>
-      <c r="C20" s="92"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="90"/>
       <c r="D20" s="36" t="s">
         <v>17</v>
       </c>
@@ -3109,8 +3067,8 @@
       <c r="G20" s="32"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="95"/>
-      <c r="C21" s="92" t="s">
+      <c r="B21" s="88"/>
+      <c r="C21" s="90" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="36" t="s">
@@ -3123,8 +3081,8 @@
       <c r="G21" s="32"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="95"/>
-      <c r="C22" s="92"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="90"/>
       <c r="D22" s="36" t="s">
         <v>112</v>
       </c>
@@ -3135,7 +3093,7 @@
       <c r="G22" s="37"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="95"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="35" t="s">
         <v>63</v>
       </c>
@@ -3149,8 +3107,8 @@
       <c r="G23" s="32"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="95"/>
-      <c r="C24" s="97" t="s">
+      <c r="B24" s="88"/>
+      <c r="C24" s="91" t="s">
         <v>69</v>
       </c>
       <c r="D24" s="36" t="s">
@@ -3163,8 +3121,8 @@
       <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="95"/>
-      <c r="C25" s="98"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="36" t="s">
         <v>72</v>
       </c>
@@ -3175,7 +3133,7 @@
       <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="95"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="35" t="s">
         <v>100</v>
       </c>
@@ -3189,8 +3147,8 @@
       <c r="G26" s="32"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="95"/>
-      <c r="C27" s="97" t="s">
+      <c r="B27" s="88"/>
+      <c r="C27" s="91" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="36" t="s">
@@ -3203,8 +3161,8 @@
       <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="95"/>
-      <c r="C28" s="98"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="36" t="s">
         <v>12</v>
       </c>
@@ -3215,8 +3173,8 @@
       <c r="G28" s="32"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="95"/>
-      <c r="C29" s="97" t="s">
+      <c r="B29" s="88"/>
+      <c r="C29" s="91" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -3229,8 +3187,8 @@
       <c r="G29" s="32"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="96"/>
-      <c r="C30" s="98"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="92"/>
       <c r="D30" s="36" t="s">
         <v>83</v>
       </c>
@@ -4213,18 +4171,18 @@
   </sheetData>
   <autoFilter ref="C5:F5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="12">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="B19:B30"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4275,7 +4233,7 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="96" t="s">
         <v>128</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -4284,35 +4242,35 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="99"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="99"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="99"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="6" t="s">
         <v>112</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="99"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="95" t="s">
         <v>127</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -4321,28 +4279,28 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="99"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="26" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="99"/>
+      <c r="B13" s="95"/>
       <c r="C13" s="26" t="s">
         <v>85</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:4" s="21" customFormat="1">
-      <c r="B14" s="99"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="26" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="99"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="68" t="s">
         <v>56</v>
       </c>
@@ -4351,7 +4309,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="99"/>
+      <c r="B16" s="95"/>
       <c r="C16" s="68" t="s">
         <v>57</v>
       </c>
@@ -4360,28 +4318,28 @@
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="99"/>
+      <c r="B17" s="95"/>
       <c r="C17" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="99"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="6" t="s">
         <v>120</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="99"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="97" t="s">
         <v>130</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -4390,56 +4348,56 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="102"/>
+      <c r="B21" s="98"/>
       <c r="C21" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="102"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="6" t="s">
         <v>82</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="102"/>
+      <c r="B23" s="98"/>
       <c r="C23" s="68" t="s">
         <v>110</v>
       </c>
       <c r="D23" s="68"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="102"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="6" t="s">
         <v>126</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="102"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="102"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="102"/>
+      <c r="B27" s="98"/>
       <c r="C27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="102"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="6" t="s">
         <v>121</v>
       </c>
@@ -4448,7 +4406,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" s="21" customFormat="1">
-      <c r="B29" s="102"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="6" t="s">
         <v>41</v>
       </c>
@@ -4457,49 +4415,49 @@
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="102"/>
+      <c r="B30" s="98"/>
       <c r="C30" s="6" t="s">
         <v>132</v>
       </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="102"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="102"/>
+      <c r="B32" s="98"/>
       <c r="C32" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="102"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="6" t="s">
         <v>131</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="102"/>
+      <c r="B34" s="98"/>
       <c r="C34" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="102"/>
+      <c r="B35" s="98"/>
       <c r="C35" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="103"/>
+      <c r="B36" s="99"/>
       <c r="C36" s="6" t="s">
         <v>122</v>
       </c>
@@ -6725,50 +6683,52 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="72" customWidth="1"/>
     <col min="2" max="8" width="23.5703125" style="72" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="72"/>
+    <col min="9" max="9" width="9.140625" style="72"/>
+    <col min="10" max="10" width="59.140625" style="72" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="45" customHeight="1">
+    <row r="1" spans="2:10" ht="45" customHeight="1">
       <c r="B1" s="70">
         <f ca="1">YEAR(TODAY())</f>
         <v>2020</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="100" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="100"/>
+      <c r="E1" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="104"/>
-      <c r="E1" s="71" t="s">
+    </row>
+    <row r="2" spans="2:10" ht="30" customHeight="1">
+      <c r="B2" s="73" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="2" spans="2:8" ht="30" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="C2" s="101" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="74" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="19.5" customHeight="1" thickBot="1">
+    </row>
+    <row r="3" spans="2:10" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="75" t="e">
         <f t="array" aca="1" ref="B3:H3" ca="1">달력</f>
         <v>#NAME?</v>
@@ -6789,299 +6749,325 @@
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="G3" s="76" t="e">
+      <c r="G3" s="75" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="H3" s="77" t="e">
+      <c r="H3" s="75" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="24" customHeight="1">
-      <c r="B4" s="78" t="e">
+    <row r="4" spans="2:10" ht="24" customHeight="1">
+      <c r="B4" s="76" t="e">
         <f t="array" aca="1" ref="B4:H4" ca="1">INDEX(달력,ndx+0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C4" s="78" t="e">
+      <c r="C4" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="D4" s="78" t="e">
+      <c r="D4" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E4" s="78" t="e">
+      <c r="E4" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="F4" s="78" t="e">
+      <c r="F4" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="G4" s="80" t="e">
+      <c r="G4" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="H4" s="81" t="e">
+      <c r="H4" s="79" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="51" customHeight="1">
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-    </row>
-    <row r="6" spans="2:8" ht="24" customHeight="1">
-      <c r="B6" s="78" t="e">
+    <row r="5" spans="2:10" ht="51" customHeight="1">
+      <c r="B5" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="102" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" s="80" t="s">
+        <v>232</v>
+      </c>
+      <c r="J5" s="103" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="24" customHeight="1">
+      <c r="B6" s="76" t="e">
         <f t="array" aca="1" ref="B6:H6" ca="1">INDEX(달력,ndx+1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C6" s="78" t="e">
+      <c r="C6" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="D6" s="78" t="e">
+      <c r="D6" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E6" s="78" t="e">
+      <c r="E6" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="F6" s="78" t="e">
+      <c r="F6" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="G6" s="80" t="e">
+      <c r="G6" s="78" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="H6" s="81" t="e">
+      <c r="H6" s="79" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="51" customHeight="1">
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-    </row>
-    <row r="8" spans="2:8" ht="24" customHeight="1">
-      <c r="B8" s="78" t="e">
+      <c r="J6" s="72" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="51" customHeight="1">
+      <c r="B7" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="81" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="H7" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="J7" s="103" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="24" customHeight="1">
+      <c r="B8" s="76" t="e">
         <f t="array" aca="1" ref="B8:H8" ca="1">INDEX(달력,ndx+2)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="78" t="e">
+      <c r="C8" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="D8" s="78" t="e">
+      <c r="D8" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E8" s="78" t="e">
+      <c r="E8" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="F8" s="78" t="e">
+      <c r="F8" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="G8" s="80" t="e">
+      <c r="G8" s="78" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="H8" s="81" t="e">
+      <c r="H8" s="79" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="51" customHeight="1">
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-    </row>
-    <row r="10" spans="2:8" ht="24" customHeight="1">
-      <c r="B10" s="78" t="e">
+      <c r="J8" s="72" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="51" customHeight="1">
+      <c r="B9" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="H9" s="81" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="24" customHeight="1">
+      <c r="B10" s="76" t="e">
         <f t="array" aca="1" ref="B10:H10" ca="1">INDEX(달력,ndx+3)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="78" t="e">
+      <c r="C10" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="D10" s="78" t="e">
+      <c r="D10" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E10" s="78" t="e">
+      <c r="E10" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="F10" s="78" t="e">
+      <c r="F10" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="G10" s="80" t="e">
+      <c r="G10" s="78" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="H10" s="81" t="e">
+      <c r="H10" s="79" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="51" customHeight="1">
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79" t="s">
-        <v>235</v>
-      </c>
-      <c r="H11" s="79"/>
-    </row>
-    <row r="12" spans="2:8" ht="24" customHeight="1">
-      <c r="B12" s="78" t="e">
+      <c r="J10" s="72" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="51" customHeight="1">
+      <c r="B11" s="81" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="H11" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="J11" s="103" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="24" customHeight="1">
+      <c r="B12" s="76" t="e">
         <f t="array" aca="1" ref="B12:H12" ca="1">INDEX(달력,ndx+4)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C12" s="78" t="e">
+      <c r="C12" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="D12" s="78" t="e">
+      <c r="D12" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="78" t="e">
+      <c r="E12" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="F12" s="78" t="e">
+      <c r="F12" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="G12" s="80" t="e">
+      <c r="G12" s="78" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="H12" s="78" t="e">
+      <c r="H12" s="79" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="51" customHeight="1">
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="82" t="s">
-        <v>233</v>
-      </c>
-      <c r="G13" s="79" t="s">
-        <v>234</v>
-      </c>
-      <c r="H13" s="79"/>
-    </row>
-    <row r="14" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B14" s="78" t="e">
+      <c r="J12" s="72" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="51" customHeight="1">
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+    </row>
+    <row r="14" spans="2:10" ht="23.25" customHeight="1">
+      <c r="B14" s="76" t="e">
         <f t="array" aca="1" ref="B14:H14" ca="1">INDEX(달력,ndx+5)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C14" s="78" t="e">
+      <c r="C14" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="78" t="e">
+      <c r="D14" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="E14" s="78" t="e">
+      <c r="E14" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="F14" s="78" t="e">
+      <c r="F14" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="G14" s="78" t="e">
+      <c r="G14" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="H14" s="78" t="e">
+      <c r="H14" s="76" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="51" customHeight="1">
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="72" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="72" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="72" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="72" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="72" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="72" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="72" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="72" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="72" t="s">
-        <v>210</v>
-      </c>
+    <row r="15" spans="2:10" ht="51" customHeight="1">
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7089,799 +7075,6 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B6:H6">
-    <cfRule type="expression" dxfId="17" priority="6">
-      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:H8">
-    <cfRule type="expression" dxfId="16" priority="5">
-      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:H10">
-    <cfRule type="expression" dxfId="15" priority="4">
-      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B10)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:H12">
-    <cfRule type="expression" dxfId="14" priority="3">
-      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B12)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:H14">
-    <cfRule type="expression" dxfId="13" priority="2">
-      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B14)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:H4">
-    <cfRule type="expression" dxfId="12" priority="1">
-      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B4)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4" xr:uid="{00000000-0002-0000-0600-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12" xr:uid="{00000000-0002-0000-0600-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5" xr:uid="{00000000-0002-0000-0600-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1" xr:uid="{00000000-0002-0000-0600-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1" xr:uid="{00000000-0002-0000-0600-000005000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1" xr:uid="{00000000-0002-0000-0600-000006000000}">
-      <formula1>"1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1" xr:uid="{00000000-0002-0000-0600-000007000000}">
-      <formula1>"월요일,화요일,수요일,목요일,금요일,토요일,일요일"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.45" right="0.45" top="0.4" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <headerFooter differentFirst="1">
-    <oddFooter>Page &amp;P of &amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <tabColor theme="4" tint="-0.499984740745262"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:H15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="2.5703125" style="72" customWidth="1"/>
-    <col min="2" max="8" width="23.5703125" style="72" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="72"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="45" customHeight="1">
-      <c r="B1" s="70">
-        <f ca="1">YEAR(TODAY())</f>
-        <v>2020</v>
-      </c>
-      <c r="C1" s="104" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="104"/>
-      <c r="E1" s="71" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" ht="30" customHeight="1">
-      <c r="B2" s="73" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="105" t="s">
-        <v>206</v>
-      </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="74" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="75" t="e">
-        <f t="array" aca="1" ref="B3:H3" ca="1">달력</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C3" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D3" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E3" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F3" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G3" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H3" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="24" customHeight="1">
-      <c r="B4" s="78" t="e">
-        <f t="array" aca="1" ref="B4:H4" ca="1">INDEX(달력,ndx+0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C4" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D4" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E4" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F4" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G4" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H4" s="81" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="51" customHeight="1">
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="24" customHeight="1">
-      <c r="B6" s="78" t="e">
-        <f t="array" aca="1" ref="B6:H6" ca="1">INDEX(달력,ndx+1)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C6" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D6" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E6" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F6" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G6" s="80" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H6" s="81" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="51" customHeight="1">
-      <c r="B7" s="83"/>
-      <c r="C7" s="82" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>221</v>
-      </c>
-      <c r="E7" s="82" t="s">
-        <v>231</v>
-      </c>
-      <c r="F7" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G7" s="82" t="s">
-        <v>232</v>
-      </c>
-      <c r="H7" s="82" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="24" customHeight="1">
-      <c r="B8" s="78" t="e">
-        <f t="array" aca="1" ref="B8:H8" ca="1">INDEX(달력,ndx+2)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C8" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D8" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E8" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F8" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G8" s="80" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H8" s="81" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="51" customHeight="1">
-      <c r="B9" s="79" t="s">
-        <v>229</v>
-      </c>
-      <c r="C9" s="79" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>224</v>
-      </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="82" t="s">
-        <v>241</v>
-      </c>
-      <c r="H9" s="85" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="24" customHeight="1">
-      <c r="B10" s="78" t="e">
-        <f t="array" aca="1" ref="B10:H10" ca="1">INDEX(달력,ndx+3)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C10" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D10" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E10" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F10" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G10" s="80" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H10" s="81" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="51" customHeight="1">
-      <c r="B11" s="82" t="s">
-        <v>238</v>
-      </c>
-      <c r="C11" s="79" t="s">
-        <v>239</v>
-      </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-    </row>
-    <row r="12" spans="2:8" ht="24" customHeight="1">
-      <c r="B12" s="78" t="e">
-        <f t="array" aca="1" ref="B12:H12" ca="1">INDEX(달력,ndx+4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C12" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D12" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E12" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F12" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G12" s="80" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H12" s="81" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="51" customHeight="1">
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-    </row>
-    <row r="14" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B14" s="78" t="e">
-        <f t="array" aca="1" ref="B14:H14" ca="1">INDEX(달력,ndx+5)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C14" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D14" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E14" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F14" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G14" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H14" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="51" customHeight="1">
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B6:H6">
-    <cfRule type="expression" dxfId="11" priority="6">
-      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:H8">
-    <cfRule type="expression" dxfId="10" priority="5">
-      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:H10">
-    <cfRule type="expression" dxfId="9" priority="4">
-      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B10)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:H12">
-    <cfRule type="expression" dxfId="8" priority="3">
-      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B12)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:H14">
-    <cfRule type="expression" dxfId="7" priority="2">
-      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B14)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:H4">
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>MonthToDisplayNumber&lt;&gt;MONTH(B4)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3" xr:uid="{00000000-0002-0000-0700-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4" xr:uid="{00000000-0002-0000-0700-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12" xr:uid="{00000000-0002-0000-0700-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1" xr:uid="{00000000-0002-0000-0700-000003000000}">
-      <formula1>"월요일,화요일,수요일,목요일,금요일,토요일,일요일"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1" xr:uid="{00000000-0002-0000-0700-000004000000}">
-      <formula1>"1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1" xr:uid="{00000000-0002-0000-0700-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1" xr:uid="{00000000-0002-0000-0700-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5" xr:uid="{00000000-0002-0000-0700-000007000000}"/>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.45" right="0.45" top="0.4" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <headerFooter differentFirst="1">
-    <oddFooter>Page &amp;P of &amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD11B490-5908-4BE3-8828-E870D4A11256}">
-  <sheetPr>
-    <tabColor theme="4" tint="-0.499984740745262"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:H15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="2.5703125" style="72" customWidth="1"/>
-    <col min="2" max="8" width="23.5703125" style="72" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="72"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="45" customHeight="1">
-      <c r="B1" s="70">
-        <f ca="1">YEAR(TODAY())</f>
-        <v>2020</v>
-      </c>
-      <c r="C1" s="104" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="104"/>
-      <c r="E1" s="71" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" ht="30" customHeight="1">
-      <c r="B2" s="84" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="105" t="s">
-        <v>206</v>
-      </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="74" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="75" t="e">
-        <f t="array" aca="1" ref="B3:H3" ca="1">달력</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C3" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D3" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E3" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F3" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G3" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H3" s="75" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="24" customHeight="1">
-      <c r="B4" s="78" t="e">
-        <f t="array" aca="1" ref="B4:H4" ca="1">INDEX(달력,ndx+0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C4" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D4" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E4" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F4" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G4" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H4" s="81" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="51" customHeight="1">
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="24" customHeight="1">
-      <c r="B6" s="78" t="e">
-        <f t="array" aca="1" ref="B6:H6" ca="1">INDEX(달력,ndx+1)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C6" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D6" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E6" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F6" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G6" s="80" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H6" s="81" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="51" customHeight="1">
-      <c r="B7" s="83"/>
-      <c r="C7" s="82" t="s">
-        <v>218</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="82" t="s">
-        <v>219</v>
-      </c>
-      <c r="F7" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G7" s="82" t="s">
-        <v>211</v>
-      </c>
-      <c r="H7" s="82" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="24" customHeight="1">
-      <c r="B8" s="78" t="e">
-        <f t="array" aca="1" ref="B8:H8" ca="1">INDEX(달력,ndx+2)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C8" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D8" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E8" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F8" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G8" s="80" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H8" s="81" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="51" customHeight="1">
-      <c r="B9" s="79" t="s">
-        <v>217</v>
-      </c>
-      <c r="C9" s="83" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>224</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>223</v>
-      </c>
-      <c r="F9" s="79" t="s">
-        <v>223</v>
-      </c>
-      <c r="G9" s="82" t="s">
-        <v>215</v>
-      </c>
-      <c r="H9" s="79"/>
-    </row>
-    <row r="10" spans="2:8" ht="24" customHeight="1">
-      <c r="B10" s="78" t="e">
-        <f t="array" aca="1" ref="B10:H10" ca="1">INDEX(달력,ndx+3)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C10" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D10" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E10" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F10" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G10" s="80" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H10" s="81" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="51" customHeight="1">
-      <c r="B11" s="82" t="s">
-        <v>216</v>
-      </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79" t="s">
-        <v>227</v>
-      </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-    </row>
-    <row r="12" spans="2:8" ht="24" customHeight="1">
-      <c r="B12" s="78" t="e">
-        <f t="array" aca="1" ref="B12:H12" ca="1">INDEX(달력,ndx+4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C12" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D12" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E12" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F12" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G12" s="80" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H12" s="81" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="51" customHeight="1">
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B14" s="78" t="e">
-        <f t="array" aca="1" ref="B14:H14" ca="1">INDEX(달력,ndx+5)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C14" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D14" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E14" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F14" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G14" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H14" s="78" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="51" customHeight="1">
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
   <conditionalFormatting sqref="B6:H6">
     <cfRule type="expression" dxfId="5" priority="6">
       <formula>MonthToDisplayNumber&lt;&gt;MONTH(B6)</formula>
@@ -7913,18 +7106,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3" xr:uid="{D8C335D1-0883-431E-A324-9A194F3CF312}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4" xr:uid="{DC417EDA-C569-442C-8AEF-F64EFC76304A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12" xr:uid="{779DCC84-5655-4B92-908C-A9BAC48223BA}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5" xr:uid="{D66DFBB3-C718-4FFA-A671-DFDC72385F06}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1" xr:uid="{C4B1011E-BCBD-49FB-80CA-DDAE64DC67B9}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1" xr:uid="{F328E7D3-3FEE-4737-BC06-D6EFD2214109}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1" xr:uid="{3F7E78F1-A86F-4FE7-98D2-13578D8110C1}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3" xr:uid="{00000000-0002-0000-0700-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4" xr:uid="{00000000-0002-0000-0700-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12" xr:uid="{00000000-0002-0000-0700-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1" xr:uid="{00000000-0002-0000-0700-000003000000}">
+      <formula1>"월요일,화요일,수요일,목요일,금요일,토요일,일요일"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1" xr:uid="{00000000-0002-0000-0700-000004000000}">
       <formula1>"1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1" xr:uid="{462F9299-FA2B-414B-A6B5-82190305DFB0}">
-      <formula1>"월요일,화요일,수요일,목요일,금요일,토요일,일요일"</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1" xr:uid="{00000000-0002-0000-0700-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1" xr:uid="{00000000-0002-0000-0700-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5" xr:uid="{00000000-0002-0000-0700-000007000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.4" bottom="0.5" header="0.3" footer="0.3"/>
@@ -7933,4 +7126,19 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Temp/이사준비-20200605.xlsx
+++ b/Temp/이사준비-20200605.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\03_doc\01_doc\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945EA34D-1478-42DF-B7D0-08B288D35CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="이사짐센터 견적" sheetId="7" r:id="rId1"/>
@@ -56,7 +55,7 @@
     <definedName name="평일">{"월요일","화요일","수요일","목요일","금요일","토요일","일요일"}</definedName>
     <definedName name="표시할연도" localSheetId="6">NOV!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -964,10 +963,6 @@
   </si>
   <si>
     <t>드레스룸 중문설치 고려 - 드레스룸에 냉기가 많을 수 있다고 함</t>
-  </si>
-  <si>
-    <t>진공청소기, 아쿠아 청소기, 스팀 청소기
-활성탄</t>
   </si>
   <si>
     <r>
@@ -1190,20 +1185,26 @@
   <si>
     <t>11/22 SUN</t>
   </si>
+  <si>
+    <t>진공청소기, 아쿠아 청소기, 스팀 청소기
+활성탄
+정전기청소포, 물걸레청소포, 밀대, 3M먼지털이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="aaaa"/>
-    <numFmt numFmtId="165" formatCode="dd"/>
+    <numFmt numFmtId="176" formatCode="aaaa"/>
+    <numFmt numFmtId="177" formatCode="dd"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1211,14 +1212,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1226,7 +1227,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1234,7 +1235,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1242,7 +1243,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1493,10 +1494,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" applyFill="0" applyProtection="0">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" applyFill="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="6" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
@@ -1729,19 +1730,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="7" applyFont="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="5" xfId="7" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="8" applyFont="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="9" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="6" xfId="8" applyFont="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="6" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" xfId="8" applyFont="1">
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="6" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="9" applyFont="1" applyFill="1">
@@ -1750,6 +1751,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="9" applyFont="1" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="15" fillId="6" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1765,6 +1772,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1774,21 +1790,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1810,24 +1817,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="15" fillId="6" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="날짜 설명" xfId="9" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="오른쪽 정렬된 입력 레이블" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="왼쪽 정렬된 입력 레이블" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="제목 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="제목 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="제목 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="제목 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="제목 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="날짜 설명" xfId="9"/>
+    <cellStyle name="오른쪽 정렬된 입력 레이블" xfId="6"/>
+    <cellStyle name="왼쪽 정렬된 입력 레이블" xfId="5"/>
+    <cellStyle name="제목 1 2" xfId="1"/>
+    <cellStyle name="제목 2 2" xfId="3"/>
+    <cellStyle name="제목 3 2" xfId="7"/>
+    <cellStyle name="제목 4 2" xfId="8"/>
+    <cellStyle name="제목 5" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="표준 2" xfId="4"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1954,23 +1955,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2006,23 +1990,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2198,7 +2165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2206,22 +2173,22 @@
       <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.25" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="1" customWidth="1"/>
-    <col min="11" max="11" width="1.28515625" style="39" customWidth="1"/>
+    <col min="11" max="11" width="1.25" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="14" customFormat="1" ht="26.25">
+    <row r="1" spans="2:11" s="14" customFormat="1" ht="31.5">
       <c r="B1" s="14" t="s">
         <v>196</v>
       </c>
@@ -2245,29 +2212,29 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11" s="1" customFormat="1">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="88" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="82" t="s">
+      <c r="D5" s="88"/>
+      <c r="E5" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="82"/>
-      <c r="G5" s="83" t="s">
+      <c r="F5" s="84"/>
+      <c r="G5" s="85" t="s">
         <v>199</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="82" t="s">
+      <c r="H5" s="85"/>
+      <c r="I5" s="84" t="s">
         <v>201</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="38"/>
     </row>
     <row r="6" spans="2:11" s="1" customFormat="1">
-      <c r="B6" s="85"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="33" t="s">
         <v>170</v>
       </c>
@@ -2420,7 +2387,7 @@
       </c>
       <c r="K11" s="37"/>
     </row>
-    <row r="12" spans="2:11" ht="30">
+    <row r="12" spans="2:11" ht="33">
       <c r="B12" s="34" t="s">
         <v>162</v>
       </c>
@@ -2577,7 +2544,7 @@
       <c r="J17" s="46"/>
       <c r="K17" s="37"/>
     </row>
-    <row r="18" spans="2:11" ht="60">
+    <row r="18" spans="2:11" ht="49.5">
       <c r="B18" s="13" t="s">
         <v>169</v>
       </c>
@@ -2633,7 +2600,7 @@
       <c r="J19" s="47"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="2:11" ht="30">
+    <row r="20" spans="2:11" ht="33">
       <c r="B20" s="34" t="s">
         <v>174</v>
       </c>
@@ -2781,7 +2748,7 @@
       <c r="K30" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:K5" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="B5:K5">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
@@ -2801,7 +2768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G96"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2811,18 +2778,18 @@
       <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="1.28515625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="1.25" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="1.25" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="14" customFormat="1" ht="26.25">
+    <row r="1" spans="2:7" s="14" customFormat="1" ht="31.5">
       <c r="B1" s="15"/>
       <c r="C1" s="14" t="s">
         <v>0</v>
@@ -2861,7 +2828,7 @@
       <c r="G5" s="38"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="89" t="s">
         <v>135</v>
       </c>
       <c r="C6" s="90" t="s">
@@ -2877,7 +2844,7 @@
       <c r="G6" s="32"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="93"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="90"/>
       <c r="D7" s="36" t="s">
         <v>25</v>
@@ -2891,8 +2858,8 @@
       <c r="G7" s="37"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="93"/>
-      <c r="C8" s="94" t="s">
+      <c r="B8" s="89"/>
+      <c r="C8" s="91" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="36" t="s">
@@ -2905,8 +2872,8 @@
       <c r="G8" s="37"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="34" t="s">
         <v>34</v>
       </c>
@@ -2917,7 +2884,7 @@
       <c r="G9" s="32"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="93"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="90" t="s">
         <v>48</v>
       </c>
@@ -2931,7 +2898,7 @@
       <c r="G10" s="37"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="93"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="90"/>
       <c r="D11" s="36" t="s">
         <v>114</v>
@@ -2943,7 +2910,7 @@
       <c r="G11" s="37"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="93"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="90" t="s">
         <v>80</v>
       </c>
@@ -2957,7 +2924,7 @@
       <c r="G12" s="32"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="93"/>
+      <c r="B13" s="89"/>
       <c r="C13" s="90"/>
       <c r="D13" s="36" t="s">
         <v>84</v>
@@ -2969,7 +2936,7 @@
       <c r="G13" s="37"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="93"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="90"/>
       <c r="D14" s="36" t="s">
         <v>88</v>
@@ -2981,7 +2948,7 @@
       <c r="G14" s="37"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="93"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="90"/>
       <c r="D15" s="36" t="s">
         <v>115</v>
@@ -3009,7 +2976,7 @@
       <c r="G16" s="32"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="89" t="s">
         <v>147</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -3025,7 +2992,7 @@
       <c r="G17" s="32"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="93"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="35" t="s">
         <v>64</v>
       </c>
@@ -3039,7 +3006,7 @@
       <c r="G18" s="32"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="92" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="90" t="s">
@@ -3055,7 +3022,7 @@
       <c r="G19" s="32"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="88"/>
+      <c r="B20" s="93"/>
       <c r="C20" s="90"/>
       <c r="D20" s="36" t="s">
         <v>17</v>
@@ -3067,7 +3034,7 @@
       <c r="G20" s="32"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="88"/>
+      <c r="B21" s="93"/>
       <c r="C21" s="90" t="s">
         <v>31</v>
       </c>
@@ -3081,7 +3048,7 @@
       <c r="G21" s="32"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="88"/>
+      <c r="B22" s="93"/>
       <c r="C22" s="90"/>
       <c r="D22" s="36" t="s">
         <v>112</v>
@@ -3093,7 +3060,7 @@
       <c r="G22" s="37"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="88"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="35" t="s">
         <v>63</v>
       </c>
@@ -3107,8 +3074,8 @@
       <c r="G23" s="32"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="88"/>
-      <c r="C24" s="91" t="s">
+      <c r="B24" s="93"/>
+      <c r="C24" s="95" t="s">
         <v>69</v>
       </c>
       <c r="D24" s="36" t="s">
@@ -3121,8 +3088,8 @@
       <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="88"/>
-      <c r="C25" s="92"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="96"/>
       <c r="D25" s="36" t="s">
         <v>72</v>
       </c>
@@ -3133,7 +3100,7 @@
       <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="88"/>
+      <c r="B26" s="93"/>
       <c r="C26" s="35" t="s">
         <v>100</v>
       </c>
@@ -3147,8 +3114,8 @@
       <c r="G26" s="32"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="88"/>
-      <c r="C27" s="91" t="s">
+      <c r="B27" s="93"/>
+      <c r="C27" s="95" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="36" t="s">
@@ -3161,8 +3128,8 @@
       <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="88"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="36" t="s">
         <v>12</v>
       </c>
@@ -3173,8 +3140,8 @@
       <c r="G28" s="32"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="88"/>
-      <c r="C29" s="91" t="s">
+      <c r="B29" s="93"/>
+      <c r="C29" s="95" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -3187,8 +3154,8 @@
       <c r="G29" s="32"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="89"/>
-      <c r="C30" s="92"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="96"/>
       <c r="D30" s="36" t="s">
         <v>83</v>
       </c>
@@ -4169,20 +4136,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C5:F5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="C5:F5"/>
   <mergeCells count="12">
+    <mergeCell ref="B19:B30"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B6:B15"/>
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B19:B30"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4191,7 +4158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4201,16 +4168,16 @@
       <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="1.140625" customWidth="1"/>
+    <col min="1" max="1" width="1.125" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="24" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="1.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="14" customFormat="1" ht="26.25">
+    <row r="1" spans="2:4" s="14" customFormat="1" ht="31.5">
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4233,7 +4200,7 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="98" t="s">
         <v>128</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -4242,35 +4209,35 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="95"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="95"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="95"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="6" t="s">
         <v>112</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="95"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="97" t="s">
         <v>127</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -4279,28 +4246,28 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="95"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="26" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="95"/>
+      <c r="B13" s="97"/>
       <c r="C13" s="26" t="s">
         <v>85</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:4" s="21" customFormat="1">
-      <c r="B14" s="95"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="26" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="95"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="68" t="s">
         <v>56</v>
       </c>
@@ -4309,7 +4276,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="95"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="68" t="s">
         <v>57</v>
       </c>
@@ -4318,28 +4285,28 @@
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="95"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="95"/>
+      <c r="B18" s="97"/>
       <c r="C18" s="6" t="s">
         <v>120</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="95"/>
+      <c r="B19" s="97"/>
       <c r="C19" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="99" t="s">
         <v>130</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -4348,56 +4315,56 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="98"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="98"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="6" t="s">
         <v>82</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="98"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="68" t="s">
         <v>110</v>
       </c>
       <c r="D23" s="68"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="98"/>
+      <c r="B24" s="100"/>
       <c r="C24" s="6" t="s">
         <v>126</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="98"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="98"/>
+      <c r="B26" s="100"/>
       <c r="C26" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="98"/>
+      <c r="B27" s="100"/>
       <c r="C27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="98"/>
+      <c r="B28" s="100"/>
       <c r="C28" s="6" t="s">
         <v>121</v>
       </c>
@@ -4406,7 +4373,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" s="21" customFormat="1">
-      <c r="B29" s="98"/>
+      <c r="B29" s="100"/>
       <c r="C29" s="6" t="s">
         <v>41</v>
       </c>
@@ -4415,49 +4382,49 @@
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="98"/>
+      <c r="B30" s="100"/>
       <c r="C30" s="6" t="s">
         <v>132</v>
       </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="98"/>
+      <c r="B31" s="100"/>
       <c r="C31" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="98"/>
+      <c r="B32" s="100"/>
       <c r="C32" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="98"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="6" t="s">
         <v>131</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="98"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="98"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="99"/>
+      <c r="B36" s="101"/>
       <c r="C36" s="6" t="s">
         <v>122</v>
       </c>
@@ -4477,7 +4444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4487,15 +4454,15 @@
       <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="11" width="8.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="11" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" ht="26.25">
+    <row r="1" spans="1:11" s="14" customFormat="1" ht="31.5">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6065,14 +6032,14 @@
       <c r="K84" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:K84" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A5:K84"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6082,16 +6049,16 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" ht="26.25">
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="31.5">
       <c r="A1" s="14" t="s">
         <v>103</v>
       </c>
@@ -6652,21 +6619,21 @@
       <c r="E63" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:E5" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A5:E5"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
@@ -6683,24 +6650,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="72" customWidth="1"/>
-    <col min="2" max="8" width="23.5703125" style="72" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="72"/>
-    <col min="10" max="10" width="59.140625" style="72" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="72"/>
+    <col min="1" max="1" width="2.625" style="72" customWidth="1"/>
+    <col min="2" max="8" width="23.625" style="72" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="72"/>
+    <col min="10" max="10" width="59.125" style="72" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="45" customHeight="1">
@@ -6708,10 +6675,10 @@
         <f ca="1">YEAR(TODAY())</f>
         <v>2020</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="102" t="s">
         <v>207</v>
       </c>
-      <c r="D1" s="100"/>
+      <c r="D1" s="102"/>
       <c r="E1" s="71" t="s">
         <v>203</v>
       </c>
@@ -6720,10 +6687,10 @@
       <c r="B2" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="103" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="101"/>
+      <c r="D2" s="103"/>
       <c r="E2" s="74" t="s">
         <v>206</v>
       </c>
@@ -6802,15 +6769,15 @@
         <v>210</v>
       </c>
       <c r="F5" s="80" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="82" t="s">
         <v>230</v>
       </c>
-      <c r="G5" s="102" t="s">
+      <c r="H5" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="H5" s="80" t="s">
-        <v>232</v>
-      </c>
-      <c r="J5" s="103" t="s">
+      <c r="J5" s="83" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6864,12 +6831,12 @@
         <v>217</v>
       </c>
       <c r="G7" s="80" t="s">
+        <v>232</v>
+      </c>
+      <c r="H7" s="80" t="s">
         <v>233</v>
       </c>
-      <c r="H7" s="80" t="s">
-        <v>234</v>
-      </c>
-      <c r="J7" s="103" t="s">
+      <c r="J7" s="83" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6908,13 +6875,13 @@
     </row>
     <row r="9" spans="2:10" ht="51" customHeight="1">
       <c r="B9" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="80" t="s">
         <v>235</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="D9" s="80" t="s">
         <v>236</v>
-      </c>
-      <c r="D9" s="80" t="s">
-        <v>237</v>
       </c>
       <c r="E9" s="77" t="s">
         <v>218</v>
@@ -6970,22 +6937,22 @@
         <v>223</v>
       </c>
       <c r="D11" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" s="77" t="s">
         <v>238</v>
       </c>
-      <c r="E11" s="77" t="s">
+      <c r="G11" s="77" t="s">
         <v>240</v>
       </c>
-      <c r="F11" s="77" t="s">
-        <v>239</v>
-      </c>
-      <c r="G11" s="77" t="s">
+      <c r="H11" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="H11" s="77" t="s">
+      <c r="J11" s="83" t="s">
         <v>242</v>
-      </c>
-      <c r="J11" s="103" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="24" customHeight="1">
@@ -7106,18 +7073,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3" xr:uid="{00000000-0002-0000-0700-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4" xr:uid="{00000000-0002-0000-0700-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12" xr:uid="{00000000-0002-0000-0700-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1" xr:uid="{00000000-0002-0000-0700-000003000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1">
       <formula1>"월요일,화요일,수요일,목요일,금요일,토요일,일요일"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1" xr:uid="{00000000-0002-0000-0700-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1">
       <formula1>"1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1" xr:uid="{00000000-0002-0000-0700-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1" xr:uid="{00000000-0002-0000-0700-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5" xr:uid="{00000000-0002-0000-0700-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.4" bottom="0.5" header="0.3" footer="0.3"/>
@@ -7129,14 +7096,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Temp/이사준비-20200605.xlsx
+++ b/Temp/이사준비-20200605.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\03_doc\01_doc\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AD6921-89DD-4213-820A-B86E8EE232A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="840" activeTab="6"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="이사짐센터 견적" sheetId="7" r:id="rId1"/>
@@ -55,7 +56,7 @@
     <definedName name="평일">{"월요일","화요일","수요일","목요일","금요일","토요일","일요일"}</definedName>
     <definedName name="표시할연도" localSheetId="6">NOV!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="241">
   <si>
     <t>현대아파트 이사 준비</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -894,13 +895,6 @@
     <t>11월</t>
   </si>
   <si>
-    <t>11/5 THU
-줄눈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">입주청소 - 정전기 청소포, 물티슈, 청소도구(밀대), 라텍스장갑, 걸레, </t>
-  </si>
-  <si>
     <t>10/29 THU</t>
   </si>
   <si>
@@ -911,29 +905,16 @@
   </si>
   <si>
     <t>10/26 MON</t>
-  </si>
-  <si>
-    <t>11/2 MON</t>
   </si>
   <si>
     <t xml:space="preserve">11/3 TUE
 </t>
   </si>
   <si>
-    <t>11/4 WED</t>
-  </si>
-  <si>
-    <t>11/6 FRI</t>
-  </si>
-  <si>
     <t>11/12 THU</t>
   </si>
   <si>
     <t>11/13 FRI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/14 SAT
-</t>
   </si>
   <si>
     <t xml:space="preserve">11/15 SUN
@@ -947,155 +928,7 @@
     <t>11/17 TUE</t>
   </si>
   <si>
-    <t>아쿠아 청소기 수리 대기중
-청소 물품 list-up (필요시 구매)
-LED 리폼(사이즈 측정)</t>
-  </si>
-  <si>
     <t>청소list-up(천장-&gt;탄성코트벽-&gt;베이크아웃-&gt;알델리트-&gt;환기)</t>
-  </si>
-  <si>
-    <t>탄성코트 벽면 선반 제거 요청
-나노코팅 방향 계획</t>
-  </si>
-  <si>
-    <t>새집증후군제거 - 베이크아웃(온도 올리는 방법), 야자활성탄(10kg) or 화목한가정, 공기청정기, 열교환기, 환기, 알델리트</t>
-  </si>
-  <si>
-    <t>드레스룸 중문설치 고려 - 드레스룸에 냉기가 많을 수 있다고 함</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10/30 FRI
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>APT 잔금/key 분출</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-베이크아웃 문의-&gt;실행
-천장 청소</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10/31 SAT
-환기, 활성탄, 베이크 아웃
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아버지 생신</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-환기</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">11/1 SUN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>탄성코트 시공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-환기, 활성탄, 베이크아웃</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">11/7 SAT
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입주청소</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">11/8
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이사</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">11/9 MON
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Frame/Bed
-냉장고설치
-인터넷 설치(3PM)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1134,22 +967,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">11/11 WED
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인덕션 설치</t>
-    </r>
-  </si>
-  <si>
     <t>11/18 WED</t>
   </si>
   <si>
@@ -1186,25 +1003,427 @@
     <t>11/22 SUN</t>
   </si>
   <si>
-    <t>진공청소기, 아쿠아 청소기, 스팀 청소기
-활성탄
-정전기청소포, 물걸레청소포, 밀대, 3M먼지털이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>11/8 SUN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이사</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>11/7 SAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입주청소</t>
+    </r>
+  </si>
+  <si>
+    <t>아쿠아 청소기 수리 대기중
+LED 리폼(사이즈 측정)
+탄성코트 벽면 선반 제거 요청</t>
+  </si>
+  <si>
+    <t>새집증후군제거 - 베이크아웃(온도 올리는 방법 문의) + 활성탄 + 환기
+                        베이크아웃 + 알델리트 + 세척 + 환기
+                        공기청정기, 활성탄(고급), 열교환기</t>
+  </si>
+  <si>
+    <t>나노코팅 방향 계획
+드레스룸 중문설치 고려 - 드레스룸에 냉기가 많을 수 있다고 함</t>
+  </si>
+  <si>
+    <t>11/5 THU Annual Leave???
+줄눈</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10/30 FRI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>APT 잔금/key 분출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+베이크아웃 문의, 차량등록
+천장 청소/환기/활성탄?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>11/1 SUN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탄성코트 시공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+알델리트/환기/활성탄</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>10/31 SAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베이크아웃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">/활성탄
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아버지 생신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+환기</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11/2 MON
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베이크아웃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/활성탄/환기</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11/4 WED
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베이크아웃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/활성탄/환기</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11/6 FRI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베이크아웃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/활성탄/환기</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11/9 MON - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Annual Leave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Frame/Bed-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베이크아웃</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+냉장고설치
+인터넷 설치(3PM)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11/11 WED
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인덕션 설치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베이크아웃</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11/14 SAT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베이크아웃</t>
+    </r>
+  </si>
+  <si>
+    <t>입주청소 - 정전기청소포, 밀대2, 물티슈2, 물걸레청소포, 라텍스장갑, 걸레
+               진공청소기, 아쿠아청소기, 물걸레청소기(스팀청소기)
+               3M먼지털이, 일회용 슬리퍼, 빗자루(쓰레받이), 종량제봉투</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="aaaa"/>
-    <numFmt numFmtId="177" formatCode="dd"/>
+    <numFmt numFmtId="164" formatCode="aaaa"/>
+    <numFmt numFmtId="165" formatCode="dd"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1212,14 +1431,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1227,7 +1446,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1235,7 +1454,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1243,7 +1462,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1336,6 +1555,31 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="Malgun Gothic"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Malgun Gothic"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
       <name val="Malgun Gothic"/>
       <charset val="129"/>
     </font>
@@ -1494,17 +1738,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" applyFill="0" applyProtection="0">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="6" applyFill="0" applyProtection="0">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1730,19 +1974,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="5" xfId="7" applyFont="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="7" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="8" applyFont="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="9" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="6" xfId="8" applyFont="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="6" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="6" xfId="8" applyFont="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="9" applyFont="1" applyFill="1">
@@ -1751,12 +1995,18 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="9" applyFont="1" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="15" fillId="6" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="21" fillId="6" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="9" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1819,16 +2069,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="날짜 설명" xfId="9"/>
-    <cellStyle name="오른쪽 정렬된 입력 레이블" xfId="6"/>
-    <cellStyle name="왼쪽 정렬된 입력 레이블" xfId="5"/>
-    <cellStyle name="제목 1 2" xfId="1"/>
-    <cellStyle name="제목 2 2" xfId="3"/>
-    <cellStyle name="제목 3 2" xfId="7"/>
-    <cellStyle name="제목 4 2" xfId="8"/>
-    <cellStyle name="제목 5" xfId="2"/>
+    <cellStyle name="날짜 설명" xfId="9" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="오른쪽 정렬된 입력 레이블" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="왼쪽 정렬된 입력 레이블" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="제목 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="제목 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="제목 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="제목 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="제목 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="4"/>
+    <cellStyle name="표준 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1955,6 +2205,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1990,6 +2257,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2165,7 +2449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2173,22 +2457,22 @@
       <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.25" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="15.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="1" customWidth="1"/>
-    <col min="11" max="11" width="1.25" style="39" customWidth="1"/>
+    <col min="11" max="11" width="1.28515625" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="14" customFormat="1" ht="31.5">
+    <row r="1" spans="2:11" s="14" customFormat="1" ht="26.25">
       <c r="B1" s="14" t="s">
         <v>196</v>
       </c>
@@ -2212,29 +2496,29 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11" s="1" customFormat="1">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="90" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="84" t="s">
+      <c r="D5" s="90"/>
+      <c r="E5" s="86" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="85" t="s">
+      <c r="F5" s="86"/>
+      <c r="G5" s="87" t="s">
         <v>199</v>
       </c>
-      <c r="H5" s="85"/>
-      <c r="I5" s="84" t="s">
+      <c r="H5" s="87"/>
+      <c r="I5" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="38"/>
     </row>
     <row r="6" spans="2:11" s="1" customFormat="1">
-      <c r="B6" s="87"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="33" t="s">
         <v>170</v>
       </c>
@@ -2387,7 +2671,7 @@
       </c>
       <c r="K11" s="37"/>
     </row>
-    <row r="12" spans="2:11" ht="33">
+    <row r="12" spans="2:11" ht="30">
       <c r="B12" s="34" t="s">
         <v>162</v>
       </c>
@@ -2544,7 +2828,7 @@
       <c r="J17" s="46"/>
       <c r="K17" s="37"/>
     </row>
-    <row r="18" spans="2:11" ht="49.5">
+    <row r="18" spans="2:11" ht="60">
       <c r="B18" s="13" t="s">
         <v>169</v>
       </c>
@@ -2600,7 +2884,7 @@
       <c r="J19" s="47"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="2:11" ht="33">
+    <row r="20" spans="2:11" ht="30">
       <c r="B20" s="34" t="s">
         <v>174</v>
       </c>
@@ -2748,7 +3032,7 @@
       <c r="K30" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:K5">
+  <autoFilter ref="B5:K5" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
@@ -2768,7 +3052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:G96"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2778,18 +3062,18 @@
       <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.25" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="1.25" style="39" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="1.28515625" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="14" customFormat="1" ht="31.5">
+    <row r="1" spans="2:7" s="14" customFormat="1" ht="26.25">
       <c r="B1" s="15"/>
       <c r="C1" s="14" t="s">
         <v>0</v>
@@ -2828,10 +3112,10 @@
       <c r="G5" s="38"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="92" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -2844,8 +3128,8 @@
       <c r="G6" s="32"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="89"/>
-      <c r="C7" s="90"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="36" t="s">
         <v>25</v>
       </c>
@@ -2858,8 +3142,8 @@
       <c r="G7" s="37"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="89"/>
-      <c r="C8" s="91" t="s">
+      <c r="B8" s="91"/>
+      <c r="C8" s="93" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="36" t="s">
@@ -2872,8 +3156,8 @@
       <c r="G8" s="37"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="89"/>
-      <c r="C9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="34" t="s">
         <v>34</v>
       </c>
@@ -2884,8 +3168,8 @@
       <c r="G9" s="32"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="89"/>
-      <c r="C10" s="90" t="s">
+      <c r="B10" s="91"/>
+      <c r="C10" s="92" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="36" t="s">
@@ -2898,8 +3182,8 @@
       <c r="G10" s="37"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="36" t="s">
         <v>114</v>
       </c>
@@ -2910,8 +3194,8 @@
       <c r="G11" s="37"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="89"/>
-      <c r="C12" s="90" t="s">
+      <c r="B12" s="91"/>
+      <c r="C12" s="92" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="36" t="s">
@@ -2924,8 +3208,8 @@
       <c r="G12" s="32"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="36" t="s">
         <v>84</v>
       </c>
@@ -2936,8 +3220,8 @@
       <c r="G13" s="37"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="36" t="s">
         <v>88</v>
       </c>
@@ -2948,8 +3232,8 @@
       <c r="G14" s="37"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="36" t="s">
         <v>115</v>
       </c>
@@ -2976,7 +3260,7 @@
       <c r="G16" s="32"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="91" t="s">
         <v>147</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -2992,7 +3276,7 @@
       <c r="G17" s="32"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="89"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="35" t="s">
         <v>64</v>
       </c>
@@ -3006,10 +3290,10 @@
       <c r="G18" s="32"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="92" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="36" t="s">
@@ -3022,8 +3306,8 @@
       <c r="G19" s="32"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="93"/>
-      <c r="C20" s="90"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="36" t="s">
         <v>17</v>
       </c>
@@ -3034,8 +3318,8 @@
       <c r="G20" s="32"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="93"/>
-      <c r="C21" s="90" t="s">
+      <c r="B21" s="95"/>
+      <c r="C21" s="92" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="36" t="s">
@@ -3048,8 +3332,8 @@
       <c r="G21" s="32"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="93"/>
-      <c r="C22" s="90"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="92"/>
       <c r="D22" s="36" t="s">
         <v>112</v>
       </c>
@@ -3060,7 +3344,7 @@
       <c r="G22" s="37"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="93"/>
+      <c r="B23" s="95"/>
       <c r="C23" s="35" t="s">
         <v>63</v>
       </c>
@@ -3074,8 +3358,8 @@
       <c r="G23" s="32"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="93"/>
-      <c r="C24" s="95" t="s">
+      <c r="B24" s="95"/>
+      <c r="C24" s="97" t="s">
         <v>69</v>
       </c>
       <c r="D24" s="36" t="s">
@@ -3088,8 +3372,8 @@
       <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="93"/>
-      <c r="C25" s="96"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="98"/>
       <c r="D25" s="36" t="s">
         <v>72</v>
       </c>
@@ -3100,7 +3384,7 @@
       <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="93"/>
+      <c r="B26" s="95"/>
       <c r="C26" s="35" t="s">
         <v>100</v>
       </c>
@@ -3114,8 +3398,8 @@
       <c r="G26" s="32"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="93"/>
-      <c r="C27" s="95" t="s">
+      <c r="B27" s="95"/>
+      <c r="C27" s="97" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="36" t="s">
@@ -3128,8 +3412,8 @@
       <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="93"/>
-      <c r="C28" s="96"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="98"/>
       <c r="D28" s="36" t="s">
         <v>12</v>
       </c>
@@ -3140,8 +3424,8 @@
       <c r="G28" s="32"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="93"/>
-      <c r="C29" s="95" t="s">
+      <c r="B29" s="95"/>
+      <c r="C29" s="97" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -3154,8 +3438,8 @@
       <c r="G29" s="32"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="94"/>
-      <c r="C30" s="96"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="98"/>
       <c r="D30" s="36" t="s">
         <v>83</v>
       </c>
@@ -4136,7 +4420,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C5:F5"/>
+  <autoFilter ref="C5:F5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="12">
     <mergeCell ref="B19:B30"/>
     <mergeCell ref="C19:C20"/>
@@ -4158,7 +4442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:D37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4168,16 +4452,16 @@
       <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.125" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="24" customWidth="1"/>
-    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" customWidth="1"/>
-    <col min="5" max="5" width="1.125" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="1.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="14" customFormat="1" ht="31.5">
+    <row r="1" spans="2:4" s="14" customFormat="1" ht="26.25">
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4200,7 +4484,7 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="100" t="s">
         <v>128</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -4209,35 +4493,35 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="97"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="97"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="97"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="6" t="s">
         <v>112</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="97"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="99" t="s">
         <v>127</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -4246,28 +4530,28 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="97"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="26" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="97"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="26" t="s">
         <v>85</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:4" s="21" customFormat="1">
-      <c r="B14" s="97"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="26" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="97"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="68" t="s">
         <v>56</v>
       </c>
@@ -4276,7 +4560,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="97"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="68" t="s">
         <v>57</v>
       </c>
@@ -4285,28 +4569,28 @@
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="97"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="97"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="6" t="s">
         <v>120</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="97"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="101" t="s">
         <v>130</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -4315,56 +4599,56 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="100"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="100"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="6" t="s">
         <v>82</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="100"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="68" t="s">
         <v>110</v>
       </c>
       <c r="D23" s="68"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="100"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="6" t="s">
         <v>126</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="100"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="100"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="100"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="100"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="6" t="s">
         <v>121</v>
       </c>
@@ -4373,7 +4657,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" s="21" customFormat="1">
-      <c r="B29" s="100"/>
+      <c r="B29" s="102"/>
       <c r="C29" s="6" t="s">
         <v>41</v>
       </c>
@@ -4382,49 +4666,49 @@
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="100"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="6" t="s">
         <v>132</v>
       </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="100"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="100"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="100"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="6" t="s">
         <v>131</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="100"/>
+      <c r="B34" s="102"/>
       <c r="C34" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="100"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="101"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="6" t="s">
         <v>122</v>
       </c>
@@ -4444,7 +4728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4454,15 +4738,15 @@
       <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="11" width="8.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="11" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" ht="31.5">
+    <row r="1" spans="1:11" s="14" customFormat="1" ht="26.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6032,14 +6316,14 @@
       <c r="K84" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:K84"/>
+  <autoFilter ref="A5:K84" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6049,16 +6333,16 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" ht="31.5">
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="26.25">
       <c r="A1" s="14" t="s">
         <v>103</v>
       </c>
@@ -6619,21 +6903,21 @@
       <c r="E63" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:E5"/>
+  <autoFilter ref="A5:E5" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
@@ -6650,7 +6934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
@@ -6658,16 +6942,16 @@
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="72" customWidth="1"/>
-    <col min="2" max="8" width="23.625" style="72" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="72"/>
-    <col min="10" max="10" width="59.125" style="72" customWidth="1"/>
-    <col min="11" max="16384" width="9.125" style="72"/>
+    <col min="1" max="1" width="2.5703125" style="72" customWidth="1"/>
+    <col min="2" max="8" width="23.5703125" style="72" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="72"/>
+    <col min="10" max="10" width="79.28515625" style="72" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="45" customHeight="1">
@@ -6675,10 +6959,10 @@
         <f ca="1">YEAR(TODAY())</f>
         <v>2020</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="104" t="s">
         <v>207</v>
       </c>
-      <c r="D1" s="102"/>
+      <c r="D1" s="104"/>
       <c r="E1" s="71" t="s">
         <v>203</v>
       </c>
@@ -6687,10 +6971,10 @@
       <c r="B2" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="103"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="74" t="s">
         <v>206</v>
       </c>
@@ -6757,28 +7041,28 @@
     </row>
     <row r="5" spans="2:10" ht="51" customHeight="1">
       <c r="B5" s="77" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C5" s="77" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E5" s="77" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F5" s="80" t="s">
-        <v>229</v>
-      </c>
-      <c r="G5" s="82" t="s">
-        <v>230</v>
-      </c>
-      <c r="H5" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="J5" s="83" t="s">
-        <v>224</v>
+      <c r="G5" s="83" t="s">
+        <v>233</v>
+      </c>
+      <c r="H5" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="J5" s="82" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="24" customHeight="1">
@@ -6810,34 +7094,31 @@
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="J6" s="72" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="7" spans="2:10" ht="51" customHeight="1">
       <c r="B7" s="81" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="E7" s="80" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>217</v>
-      </c>
-      <c r="G7" s="80" t="s">
-        <v>232</v>
-      </c>
-      <c r="H7" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="J7" s="83" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="84" t="s">
         <v>226</v>
+      </c>
+      <c r="H7" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="J7" s="82" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="24" customHeight="1">
@@ -6869,31 +7150,31 @@
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="J8" s="72" t="s">
-        <v>227</v>
-      </c>
     </row>
     <row r="9" spans="2:10" ht="51" customHeight="1">
       <c r="B9" s="80" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G9" s="81" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="H9" s="81" t="s">
-        <v>221</v>
+        <v>215</v>
+      </c>
+      <c r="J9" s="85" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="24" customHeight="1">
@@ -6925,34 +7206,31 @@
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="J10" s="72" t="s">
-        <v>209</v>
-      </c>
     </row>
     <row r="11" spans="2:10" ht="51" customHeight="1">
       <c r="B11" s="81" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="F11" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="G11" s="77" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="77" t="s">
-        <v>237</v>
-      </c>
-      <c r="E11" s="77" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11" s="77" t="s">
-        <v>238</v>
-      </c>
-      <c r="G11" s="77" t="s">
-        <v>240</v>
-      </c>
       <c r="H11" s="77" t="s">
-        <v>241</v>
-      </c>
-      <c r="J11" s="83" t="s">
-        <v>242</v>
+        <v>224</v>
+      </c>
+      <c r="J11" s="82" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="24" customHeight="1">
@@ -6983,9 +7261,6 @@
       <c r="H12" s="79" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
-      </c>
-      <c r="J12" s="72" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="51" customHeight="1">
@@ -6996,6 +7271,9 @@
       <c r="F13" s="77"/>
       <c r="G13" s="77"/>
       <c r="H13" s="77"/>
+      <c r="J13" s="82" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="14" spans="2:10" ht="23.25" customHeight="1">
       <c r="B14" s="76" t="e">
@@ -7073,18 +7351,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4" xr:uid="{00000000-0002-0000-0600-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12" xr:uid="{00000000-0002-0000-0600-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>"월요일,화요일,수요일,목요일,금요일,토요일,일요일"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1" xr:uid="{00000000-0002-0000-0600-000004000000}">
       <formula1>"1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1" xr:uid="{00000000-0002-0000-0600-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1" xr:uid="{00000000-0002-0000-0600-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5" xr:uid="{00000000-0002-0000-0600-000007000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.4" bottom="0.5" header="0.3" footer="0.3"/>
@@ -7096,14 +7374,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Temp/이사준비-20200605.xlsx
+++ b/Temp/이사준비-20200605.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\03_doc\01_doc\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AD6921-89DD-4213-820A-B86E8EE232A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="이사짐센터 견적" sheetId="7" r:id="rId1"/>
@@ -56,7 +55,7 @@
     <definedName name="평일">{"월요일","화요일","수요일","목요일","금요일","토요일","일요일"}</definedName>
     <definedName name="표시할연도" localSheetId="6">NOV!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -71,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="242">
   <si>
     <t>현대아파트 이사 준비</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -905,10 +904,6 @@
   </si>
   <si>
     <t>10/26 MON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/3 TUE
-</t>
   </si>
   <si>
     <t>11/12 THU</t>
@@ -1003,70 +998,6 @@
     <t>11/22 SUN</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>11/8 SUN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이사</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>11/7 SAT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입주청소</t>
-    </r>
-  </si>
-  <si>
     <t>아쿠아 청소기 수리 대기중
 LED 리폼(사이즈 측정)
 탄성코트 벽면 선반 제거 요청</t>
@@ -1083,34 +1014,6 @@
   <si>
     <t>11/5 THU Annual Leave???
 줄눈</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10/30 FRI
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>APT 잔금/key 분출</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-베이크아웃 문의, 차량등록
-천장 청소/환기/활성탄?</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1273,32 +1176,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">11/6 FRI
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>베이크아웃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>/활성탄/환기</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">11/9 MON - </t>
     </r>
     <r>
@@ -1357,6 +1234,187 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">11/14 SAT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베이크아웃</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">               공구함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">입주청소 - 정전기청소포, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밀대2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, 물티슈2, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물걸레청소포</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, 라텍스장갑, 걸레
+               진공청소기, 아쿠아청소기, 물걸레청소기(스팀청소기)
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>3M먼지털이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, 일회용 슬리퍼, 빗자루(쓰레받이), 종량제봉투</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10/30 FRI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>APT 잔금/key 분출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+베이크아웃 문의, 차량등록
+천장 청소/환기/활성탄?</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>11/8 SUN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이사
+짐정리 완료</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11/6 FRI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베이크아웃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/활성탄/환기
+짐정리 일부
+공기청정기</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">11/11 WED
 </t>
     </r>
@@ -1389,41 +1447,62 @@
       </rPr>
       <t>베이크아웃</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">11/14 SAT
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>11/7 SAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="9"/>
-        <color rgb="FF0000FF"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <charset val="129"/>
       </rPr>
-      <t>베이크아웃</t>
+      <t>입주청소
+알델리트
+짐정리 전체</t>
     </r>
-  </si>
-  <si>
-    <t>입주청소 - 정전기청소포, 밀대2, 물티슈2, 물걸레청소포, 라텍스장갑, 걸레
-               진공청소기, 아쿠아청소기, 물걸레청소기(스팀청소기)
-               3M먼지털이, 일회용 슬리퍼, 빗자루(쓰레받이), 종량제봉투</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">11/3 TUE
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="aaaa"/>
-    <numFmt numFmtId="165" formatCode="dd"/>
+    <numFmt numFmtId="176" formatCode="aaaa"/>
+    <numFmt numFmtId="177" formatCode="dd"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1431,14 +1510,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1446,7 +1525,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1454,7 +1533,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1462,7 +1541,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1581,6 +1660,22 @@
       <sz val="9"/>
       <color rgb="FF0000FF"/>
       <name val="Malgun Gothic"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1738,17 +1833,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" applyFill="0" applyProtection="0">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" applyFill="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="6" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1974,19 +2069,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="7" applyFont="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="5" xfId="7" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="8" applyFont="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="9" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="6" xfId="8" applyFont="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="6" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" xfId="8" applyFont="1">
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="6" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="9" applyFont="1" applyFill="1">
@@ -2022,30 +2117,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2067,18 +2162,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="9" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="날짜 설명" xfId="9" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="오른쪽 정렬된 입력 레이블" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="왼쪽 정렬된 입력 레이블" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="제목 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="제목 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="제목 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="제목 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="제목 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="날짜 설명" xfId="9"/>
+    <cellStyle name="오른쪽 정렬된 입력 레이블" xfId="6"/>
+    <cellStyle name="왼쪽 정렬된 입력 레이블" xfId="5"/>
+    <cellStyle name="제목 1 2" xfId="1"/>
+    <cellStyle name="제목 2 2" xfId="3"/>
+    <cellStyle name="제목 3 2" xfId="7"/>
+    <cellStyle name="제목 4 2" xfId="8"/>
+    <cellStyle name="제목 5" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="표준 2" xfId="4"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2205,23 +2303,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2257,23 +2338,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2449,7 +2513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2457,22 +2521,22 @@
       <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.25" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="1" customWidth="1"/>
-    <col min="11" max="11" width="1.28515625" style="39" customWidth="1"/>
+    <col min="11" max="11" width="1.25" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="14" customFormat="1" ht="26.25">
+    <row r="1" spans="2:11" s="14" customFormat="1" ht="31.5">
       <c r="B1" s="14" t="s">
         <v>196</v>
       </c>
@@ -2671,7 +2735,7 @@
       </c>
       <c r="K11" s="37"/>
     </row>
-    <row r="12" spans="2:11" ht="30">
+    <row r="12" spans="2:11" ht="33">
       <c r="B12" s="34" t="s">
         <v>162</v>
       </c>
@@ -2828,7 +2892,7 @@
       <c r="J17" s="46"/>
       <c r="K17" s="37"/>
     </row>
-    <row r="18" spans="2:11" ht="60">
+    <row r="18" spans="2:11" ht="49.5">
       <c r="B18" s="13" t="s">
         <v>169</v>
       </c>
@@ -2884,7 +2948,7 @@
       <c r="J19" s="47"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="2:11" ht="30">
+    <row r="20" spans="2:11" ht="33">
       <c r="B20" s="34" t="s">
         <v>174</v>
       </c>
@@ -3032,7 +3096,7 @@
       <c r="K30" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:K5" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="B5:K5">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
@@ -3052,7 +3116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G96"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3062,18 +3126,18 @@
       <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="1.28515625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="1.25" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="1.25" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="14" customFormat="1" ht="26.25">
+    <row r="1" spans="2:7" s="14" customFormat="1" ht="31.5">
       <c r="B1" s="15"/>
       <c r="C1" s="14" t="s">
         <v>0</v>
@@ -3112,10 +3176,10 @@
       <c r="G5" s="38"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="94" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -3128,8 +3192,8 @@
       <c r="G6" s="32"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="91"/>
-      <c r="C7" s="92"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="94"/>
       <c r="D7" s="36" t="s">
         <v>25</v>
       </c>
@@ -3142,8 +3206,8 @@
       <c r="G7" s="37"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="91"/>
-      <c r="C8" s="93" t="s">
+      <c r="B8" s="97"/>
+      <c r="C8" s="98" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="36" t="s">
@@ -3156,8 +3220,8 @@
       <c r="G8" s="37"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="91"/>
-      <c r="C9" s="93"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="34" t="s">
         <v>34</v>
       </c>
@@ -3168,8 +3232,8 @@
       <c r="G9" s="32"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="91"/>
-      <c r="C10" s="92" t="s">
+      <c r="B10" s="97"/>
+      <c r="C10" s="94" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="36" t="s">
@@ -3182,8 +3246,8 @@
       <c r="G10" s="37"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="91"/>
-      <c r="C11" s="92"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="36" t="s">
         <v>114</v>
       </c>
@@ -3194,8 +3258,8 @@
       <c r="G11" s="37"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="91"/>
-      <c r="C12" s="92" t="s">
+      <c r="B12" s="97"/>
+      <c r="C12" s="94" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="36" t="s">
@@ -3208,8 +3272,8 @@
       <c r="G12" s="32"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="91"/>
-      <c r="C13" s="92"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="36" t="s">
         <v>84</v>
       </c>
@@ -3220,8 +3284,8 @@
       <c r="G13" s="37"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="94"/>
       <c r="D14" s="36" t="s">
         <v>88</v>
       </c>
@@ -3232,8 +3296,8 @@
       <c r="G14" s="37"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="91"/>
-      <c r="C15" s="92"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="36" t="s">
         <v>115</v>
       </c>
@@ -3260,7 +3324,7 @@
       <c r="G16" s="32"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="97" t="s">
         <v>147</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -3276,7 +3340,7 @@
       <c r="G17" s="32"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="91"/>
+      <c r="B18" s="97"/>
       <c r="C18" s="35" t="s">
         <v>64</v>
       </c>
@@ -3290,10 +3354,10 @@
       <c r="G18" s="32"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="94" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="36" t="s">
@@ -3306,8 +3370,8 @@
       <c r="G19" s="32"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="95"/>
-      <c r="C20" s="92"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="94"/>
       <c r="D20" s="36" t="s">
         <v>17</v>
       </c>
@@ -3318,8 +3382,8 @@
       <c r="G20" s="32"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="95"/>
-      <c r="C21" s="92" t="s">
+      <c r="B21" s="92"/>
+      <c r="C21" s="94" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="36" t="s">
@@ -3332,8 +3396,8 @@
       <c r="G21" s="32"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="95"/>
-      <c r="C22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="94"/>
       <c r="D22" s="36" t="s">
         <v>112</v>
       </c>
@@ -3344,7 +3408,7 @@
       <c r="G22" s="37"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="95"/>
+      <c r="B23" s="92"/>
       <c r="C23" s="35" t="s">
         <v>63</v>
       </c>
@@ -3358,8 +3422,8 @@
       <c r="G23" s="32"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="95"/>
-      <c r="C24" s="97" t="s">
+      <c r="B24" s="92"/>
+      <c r="C24" s="95" t="s">
         <v>69</v>
       </c>
       <c r="D24" s="36" t="s">
@@ -3372,8 +3436,8 @@
       <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="95"/>
-      <c r="C25" s="98"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="96"/>
       <c r="D25" s="36" t="s">
         <v>72</v>
       </c>
@@ -3384,7 +3448,7 @@
       <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="95"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="35" t="s">
         <v>100</v>
       </c>
@@ -3398,8 +3462,8 @@
       <c r="G26" s="32"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="95"/>
-      <c r="C27" s="97" t="s">
+      <c r="B27" s="92"/>
+      <c r="C27" s="95" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="36" t="s">
@@ -3412,8 +3476,8 @@
       <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="95"/>
-      <c r="C28" s="98"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="36" t="s">
         <v>12</v>
       </c>
@@ -3424,8 +3488,8 @@
       <c r="G28" s="32"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="95"/>
-      <c r="C29" s="97" t="s">
+      <c r="B29" s="92"/>
+      <c r="C29" s="95" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -3438,8 +3502,8 @@
       <c r="G29" s="32"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="96"/>
-      <c r="C30" s="98"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="96"/>
       <c r="D30" s="36" t="s">
         <v>83</v>
       </c>
@@ -4420,20 +4484,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C5:F5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="C5:F5"/>
   <mergeCells count="12">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="B19:B30"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4442,7 +4506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4452,16 +4516,16 @@
       <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="1.140625" customWidth="1"/>
+    <col min="1" max="1" width="1.125" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="24" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="1.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="14" customFormat="1" ht="26.25">
+    <row r="1" spans="2:4" s="14" customFormat="1" ht="31.5">
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4728,7 +4792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4738,15 +4802,15 @@
       <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="11" width="8.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="11" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" ht="26.25">
+    <row r="1" spans="1:11" s="14" customFormat="1" ht="31.5">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6316,14 +6380,14 @@
       <c r="K84" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:K84" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A5:K84"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6333,16 +6397,16 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" ht="26.25">
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="31.5">
       <c r="A1" s="14" t="s">
         <v>103</v>
       </c>
@@ -6903,21 +6967,21 @@
       <c r="E63" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:E5" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A5:E5"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
@@ -6934,24 +6998,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="72" customWidth="1"/>
-    <col min="2" max="8" width="23.5703125" style="72" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="72"/>
-    <col min="10" max="10" width="79.28515625" style="72" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="72"/>
+    <col min="1" max="1" width="2.625" style="72" customWidth="1"/>
+    <col min="2" max="8" width="23.625" style="72" customWidth="1"/>
+    <col min="9" max="9" width="1.875" style="72" customWidth="1"/>
+    <col min="10" max="10" width="79.25" style="72" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="45" customHeight="1">
@@ -7040,10 +7104,10 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="51" customHeight="1">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="106" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="106" t="s">
         <v>210</v>
       </c>
       <c r="D5" s="77" t="s">
@@ -7053,16 +7117,16 @@
         <v>208</v>
       </c>
       <c r="F5" s="80" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G5" s="83" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H5" s="84" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J5" s="82" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="24" customHeight="1">
@@ -7097,28 +7161,28 @@
     </row>
     <row r="7" spans="2:10" ht="51" customHeight="1">
       <c r="B7" s="81" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E7" s="80" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G7" s="84" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="H7" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="J7" s="82" t="s">
         <v>225</v>
-      </c>
-      <c r="J7" s="82" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="24" customHeight="1">
@@ -7153,28 +7217,28 @@
     </row>
     <row r="9" spans="2:10" ht="51" customHeight="1">
       <c r="B9" s="80" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E9" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="F9" s="77" t="s">
+      <c r="G9" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="H9" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="G9" s="81" t="s">
-        <v>239</v>
-      </c>
-      <c r="H9" s="81" t="s">
-        <v>215</v>
-      </c>
       <c r="J9" s="85" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="24" customHeight="1">
@@ -7206,31 +7270,34 @@
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
+      <c r="J10" s="72" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="51" customHeight="1">
       <c r="B11" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="D11" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="G11" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="H11" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="J11" s="82" t="s">
         <v>217</v>
-      </c>
-      <c r="D11" s="77" t="s">
-        <v>220</v>
-      </c>
-      <c r="E11" s="77" t="s">
-        <v>222</v>
-      </c>
-      <c r="F11" s="77" t="s">
-        <v>221</v>
-      </c>
-      <c r="G11" s="77" t="s">
-        <v>223</v>
-      </c>
-      <c r="H11" s="77" t="s">
-        <v>224</v>
-      </c>
-      <c r="J11" s="82" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="24" customHeight="1">
@@ -7272,7 +7339,7 @@
       <c r="G13" s="77"/>
       <c r="H13" s="77"/>
       <c r="J13" s="82" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="23.25" customHeight="1">
@@ -7351,18 +7418,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4" xr:uid="{00000000-0002-0000-0600-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12" xr:uid="{00000000-0002-0000-0600-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1" xr:uid="{00000000-0002-0000-0600-000003000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1">
       <formula1>"월요일,화요일,수요일,목요일,금요일,토요일,일요일"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1" xr:uid="{00000000-0002-0000-0600-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1">
       <formula1>"1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1" xr:uid="{00000000-0002-0000-0600-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1" xr:uid="{00000000-0002-0000-0600-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5" xr:uid="{00000000-0002-0000-0600-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.4" bottom="0.5" header="0.3" footer="0.3"/>
@@ -7374,14 +7441,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Temp/이사준비-20200605.xlsx
+++ b/Temp/이사준비-20200605.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\03_doc\01_doc\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FEF977-06E4-4C40-B33F-6E84A5D4BD40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="840" activeTab="6"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="이사짐센터 견적" sheetId="7" r:id="rId1"/>
@@ -55,7 +56,7 @@
     <definedName name="평일">{"월요일","화요일","수요일","목요일","금요일","토요일","일요일"}</definedName>
     <definedName name="표시할연도" localSheetId="6">NOV!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -924,42 +925,6 @@
   </si>
   <si>
     <t>청소list-up(천장-&gt;탄성코트벽-&gt;베이크아웃-&gt;알델리트-&gt;환기)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">11/10 TUE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(서(9/25))</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>LG(WashTower, 세척기)
-TV설치</t>
-    </r>
   </si>
   <si>
     <t>11/18 WED</t>
@@ -1010,10 +975,6 @@
   <si>
     <t>나노코팅 방향 계획
 드레스룸 중문설치 고려 - 드레스룸에 냉기가 많을 수 있다고 함</t>
-  </si>
-  <si>
-    <t>11/5 THU Annual Leave???
-줄눈</t>
   </si>
   <si>
     <r>
@@ -1060,70 +1021,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>10/31 SAT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>베이크아웃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">/활성탄
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아버지 생신</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-환기</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">11/2 MON
 </t>
     </r>
@@ -1172,79 +1069,6 @@
         <charset val="129"/>
       </rPr>
       <t>/활성탄/환기</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">11/9 MON - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Annual Leave</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Frame/Bed-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>베이크아웃</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-냉장고설치
-인터넷 설치(3PM)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">11/14 SAT
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>베이크아웃</t>
     </r>
   </si>
   <si>
@@ -1322,69 +1146,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">10/30 FRI
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>APT 잔금/key 분출</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-베이크아웃 문의, 차량등록
-천장 청소/환기/활성탄?</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>11/8 SUN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이사
-짐정리 완료</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">11/6 FRI
 </t>
     </r>
@@ -1489,20 +1250,301 @@
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10/30 FRI - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>PM Leave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>APT 잔금/key 분출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+베이크아웃 문의, 차량등록
+천장 청소/환기/활성탄?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>10/31 SAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베이크아웃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">/활성탄/LG사전
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아버지 생신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+환기</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11/10 TUE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(서(9/25))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11/14 SAT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베이크아웃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+쇼핑(생활용품 부족분)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11/9 MON - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Annual Leave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Frame/Bed-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베이크아웃</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+냉장고설치
+LG(WashTower/식기세척기)
+TV설치/인터넷 설치(3PM)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>11/8 SUN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이사
+짐정리 완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+쇼핑(생수)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11/5 THU Annual Leave???
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>줄눈</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="aaaa"/>
-    <numFmt numFmtId="177" formatCode="dd"/>
+    <numFmt numFmtId="164" formatCode="aaaa"/>
+    <numFmt numFmtId="165" formatCode="dd"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1510,14 +1552,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1525,7 +1567,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1533,7 +1575,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1541,7 +1583,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1676,6 +1718,13 @@
       <color rgb="FF0000FF"/>
       <name val="Malgun Gothic"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF7030A0"/>
+      <name val="Malgun Gothic"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1833,10 +1882,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" applyFill="0" applyProtection="0">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="6" applyFill="0" applyProtection="0">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
@@ -2069,19 +2118,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="5" xfId="7" applyFont="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="7" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="8" applyFont="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="9" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="6" xfId="8" applyFont="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="6" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="6" xfId="8" applyFont="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="9" applyFont="1" applyFill="1">
@@ -2102,6 +2151,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="9" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2117,6 +2169,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2126,21 +2187,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2162,21 +2214,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="9" applyFont="1" applyFill="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="날짜 설명" xfId="9"/>
-    <cellStyle name="오른쪽 정렬된 입력 레이블" xfId="6"/>
-    <cellStyle name="왼쪽 정렬된 입력 레이블" xfId="5"/>
-    <cellStyle name="제목 1 2" xfId="1"/>
-    <cellStyle name="제목 2 2" xfId="3"/>
-    <cellStyle name="제목 3 2" xfId="7"/>
-    <cellStyle name="제목 4 2" xfId="8"/>
-    <cellStyle name="제목 5" xfId="2"/>
+    <cellStyle name="날짜 설명" xfId="9" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="오른쪽 정렬된 입력 레이블" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="왼쪽 정렬된 입력 레이블" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="제목 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="제목 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="제목 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="제목 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="제목 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="4"/>
+    <cellStyle name="표준 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2303,6 +2352,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2338,6 +2404,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2513,7 +2596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2521,22 +2604,22 @@
       <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.25" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="15.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="1" customWidth="1"/>
-    <col min="11" max="11" width="1.25" style="39" customWidth="1"/>
+    <col min="11" max="11" width="1.28515625" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="14" customFormat="1" ht="31.5">
+    <row r="1" spans="2:11" s="14" customFormat="1" ht="26.25">
       <c r="B1" s="14" t="s">
         <v>196</v>
       </c>
@@ -2560,29 +2643,29 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11" s="1" customFormat="1">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="91" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="86" t="s">
+      <c r="D5" s="91"/>
+      <c r="E5" s="87" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87" t="s">
+      <c r="F5" s="87"/>
+      <c r="G5" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="H5" s="87"/>
-      <c r="I5" s="86" t="s">
+      <c r="H5" s="88"/>
+      <c r="I5" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="38"/>
     </row>
     <row r="6" spans="2:11" s="1" customFormat="1">
-      <c r="B6" s="89"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="33" t="s">
         <v>170</v>
       </c>
@@ -2735,7 +2818,7 @@
       </c>
       <c r="K11" s="37"/>
     </row>
-    <row r="12" spans="2:11" ht="33">
+    <row r="12" spans="2:11" ht="30">
       <c r="B12" s="34" t="s">
         <v>162</v>
       </c>
@@ -2892,7 +2975,7 @@
       <c r="J17" s="46"/>
       <c r="K17" s="37"/>
     </row>
-    <row r="18" spans="2:11" ht="49.5">
+    <row r="18" spans="2:11" ht="60">
       <c r="B18" s="13" t="s">
         <v>169</v>
       </c>
@@ -2948,7 +3031,7 @@
       <c r="J19" s="47"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="2:11" ht="33">
+    <row r="20" spans="2:11" ht="30">
       <c r="B20" s="34" t="s">
         <v>174</v>
       </c>
@@ -3096,7 +3179,7 @@
       <c r="K30" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:K5">
+  <autoFilter ref="B5:K5" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
@@ -3116,7 +3199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:G96"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3126,18 +3209,18 @@
       <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.25" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="1.25" style="39" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="1.28515625" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="14" customFormat="1" ht="31.5">
+    <row r="1" spans="2:7" s="14" customFormat="1" ht="26.25">
       <c r="B1" s="15"/>
       <c r="C1" s="14" t="s">
         <v>0</v>
@@ -3176,10 +3259,10 @@
       <c r="G5" s="38"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="93" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -3192,8 +3275,8 @@
       <c r="G6" s="32"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="97"/>
-      <c r="C7" s="94"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="36" t="s">
         <v>25</v>
       </c>
@@ -3206,8 +3289,8 @@
       <c r="G7" s="37"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="97"/>
-      <c r="C8" s="98" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="94" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="36" t="s">
@@ -3220,8 +3303,8 @@
       <c r="G8" s="37"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="97"/>
-      <c r="C9" s="98"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="34" t="s">
         <v>34</v>
       </c>
@@ -3232,8 +3315,8 @@
       <c r="G9" s="32"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="97"/>
-      <c r="C10" s="94" t="s">
+      <c r="B10" s="92"/>
+      <c r="C10" s="93" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="36" t="s">
@@ -3246,8 +3329,8 @@
       <c r="G10" s="37"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="97"/>
-      <c r="C11" s="94"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="36" t="s">
         <v>114</v>
       </c>
@@ -3258,8 +3341,8 @@
       <c r="G11" s="37"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="97"/>
-      <c r="C12" s="94" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="93" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="36" t="s">
@@ -3272,8 +3355,8 @@
       <c r="G12" s="32"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="97"/>
-      <c r="C13" s="94"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="36" t="s">
         <v>84</v>
       </c>
@@ -3284,8 +3367,8 @@
       <c r="G13" s="37"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="97"/>
-      <c r="C14" s="94"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
       <c r="D14" s="36" t="s">
         <v>88</v>
       </c>
@@ -3296,8 +3379,8 @@
       <c r="G14" s="37"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="97"/>
-      <c r="C15" s="94"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="36" t="s">
         <v>115</v>
       </c>
@@ -3324,7 +3407,7 @@
       <c r="G16" s="32"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="92" t="s">
         <v>147</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -3340,7 +3423,7 @@
       <c r="G17" s="32"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="97"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="35" t="s">
         <v>64</v>
       </c>
@@ -3354,10 +3437,10 @@
       <c r="G18" s="32"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="93" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="36" t="s">
@@ -3370,8 +3453,8 @@
       <c r="G19" s="32"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="92"/>
-      <c r="C20" s="94"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="93"/>
       <c r="D20" s="36" t="s">
         <v>17</v>
       </c>
@@ -3382,8 +3465,8 @@
       <c r="G20" s="32"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="92"/>
-      <c r="C21" s="94" t="s">
+      <c r="B21" s="96"/>
+      <c r="C21" s="93" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="36" t="s">
@@ -3396,8 +3479,8 @@
       <c r="G21" s="32"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="92"/>
-      <c r="C22" s="94"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="93"/>
       <c r="D22" s="36" t="s">
         <v>112</v>
       </c>
@@ -3408,7 +3491,7 @@
       <c r="G22" s="37"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="92"/>
+      <c r="B23" s="96"/>
       <c r="C23" s="35" t="s">
         <v>63</v>
       </c>
@@ -3422,8 +3505,8 @@
       <c r="G23" s="32"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="92"/>
-      <c r="C24" s="95" t="s">
+      <c r="B24" s="96"/>
+      <c r="C24" s="98" t="s">
         <v>69</v>
       </c>
       <c r="D24" s="36" t="s">
@@ -3436,8 +3519,8 @@
       <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="92"/>
-      <c r="C25" s="96"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="99"/>
       <c r="D25" s="36" t="s">
         <v>72</v>
       </c>
@@ -3448,7 +3531,7 @@
       <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="92"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="35" t="s">
         <v>100</v>
       </c>
@@ -3462,8 +3545,8 @@
       <c r="G26" s="32"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="92"/>
-      <c r="C27" s="95" t="s">
+      <c r="B27" s="96"/>
+      <c r="C27" s="98" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="36" t="s">
@@ -3476,8 +3559,8 @@
       <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="92"/>
-      <c r="C28" s="96"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="99"/>
       <c r="D28" s="36" t="s">
         <v>12</v>
       </c>
@@ -3488,8 +3571,8 @@
       <c r="G28" s="32"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="92"/>
-      <c r="C29" s="95" t="s">
+      <c r="B29" s="96"/>
+      <c r="C29" s="98" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -3502,8 +3585,8 @@
       <c r="G29" s="32"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="93"/>
-      <c r="C30" s="96"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="99"/>
       <c r="D30" s="36" t="s">
         <v>83</v>
       </c>
@@ -4484,20 +4567,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C5:F5"/>
+  <autoFilter ref="C5:F5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="12">
+    <mergeCell ref="B19:B30"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B6:B15"/>
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B19:B30"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4506,7 +4589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:D37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4516,16 +4599,16 @@
       <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.125" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="24" customWidth="1"/>
-    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" customWidth="1"/>
-    <col min="5" max="5" width="1.125" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="1.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="14" customFormat="1" ht="31.5">
+    <row r="1" spans="2:4" s="14" customFormat="1" ht="26.25">
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4548,7 +4631,7 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="101" t="s">
         <v>128</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -4557,35 +4640,35 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="99"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="99"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="99"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="6" t="s">
         <v>112</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="99"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="100" t="s">
         <v>127</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -4594,28 +4677,28 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="99"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="26" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="99"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="26" t="s">
         <v>85</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:4" s="21" customFormat="1">
-      <c r="B14" s="99"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="26" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="99"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="68" t="s">
         <v>56</v>
       </c>
@@ -4624,7 +4707,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="99"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="68" t="s">
         <v>57</v>
       </c>
@@ -4633,28 +4716,28 @@
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="99"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="99"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="6" t="s">
         <v>120</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="99"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="102" t="s">
         <v>130</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -4663,56 +4746,56 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="102"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="102"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="6" t="s">
         <v>82</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="102"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="68" t="s">
         <v>110</v>
       </c>
       <c r="D23" s="68"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="102"/>
+      <c r="B24" s="103"/>
       <c r="C24" s="6" t="s">
         <v>126</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="102"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="102"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="102"/>
+      <c r="B27" s="103"/>
       <c r="C27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="102"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="6" t="s">
         <v>121</v>
       </c>
@@ -4721,7 +4804,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" s="21" customFormat="1">
-      <c r="B29" s="102"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="6" t="s">
         <v>41</v>
       </c>
@@ -4730,49 +4813,49 @@
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="102"/>
+      <c r="B30" s="103"/>
       <c r="C30" s="6" t="s">
         <v>132</v>
       </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="102"/>
+      <c r="B31" s="103"/>
       <c r="C31" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="102"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="102"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="6" t="s">
         <v>131</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="102"/>
+      <c r="B34" s="103"/>
       <c r="C34" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="102"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="103"/>
+      <c r="B36" s="104"/>
       <c r="C36" s="6" t="s">
         <v>122</v>
       </c>
@@ -4792,7 +4875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4802,15 +4885,15 @@
       <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="11" width="8.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="11" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" ht="31.5">
+    <row r="1" spans="1:11" s="14" customFormat="1" ht="26.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6380,14 +6463,14 @@
       <c r="K84" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:K84"/>
+  <autoFilter ref="A5:K84" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6397,16 +6480,16 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" ht="31.5">
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="26.25">
       <c r="A1" s="14" t="s">
         <v>103</v>
       </c>
@@ -6967,21 +7050,21 @@
       <c r="E63" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:E5"/>
+  <autoFilter ref="A5:E5" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
@@ -6998,7 +7081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
@@ -7006,16 +7089,16 @@
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="72" customWidth="1"/>
-    <col min="2" max="8" width="23.625" style="72" customWidth="1"/>
-    <col min="9" max="9" width="1.875" style="72" customWidth="1"/>
-    <col min="10" max="10" width="79.25" style="72" customWidth="1"/>
-    <col min="11" max="16384" width="9.125" style="72"/>
+    <col min="1" max="1" width="2.5703125" style="72" customWidth="1"/>
+    <col min="2" max="8" width="23.5703125" style="72" customWidth="1"/>
+    <col min="9" max="9" width="1.85546875" style="72" customWidth="1"/>
+    <col min="10" max="10" width="79.28515625" style="72" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="45" customHeight="1">
@@ -7023,10 +7106,10 @@
         <f ca="1">YEAR(TODAY())</f>
         <v>2020</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="105" t="s">
         <v>207</v>
       </c>
-      <c r="D1" s="104"/>
+      <c r="D1" s="105"/>
       <c r="E1" s="71" t="s">
         <v>203</v>
       </c>
@@ -7035,10 +7118,10 @@
       <c r="B2" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="106" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="105"/>
+      <c r="D2" s="106"/>
       <c r="E2" s="74" t="s">
         <v>206</v>
       </c>
@@ -7104,10 +7187,10 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="51" customHeight="1">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="86" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="86" t="s">
         <v>210</v>
       </c>
       <c r="D5" s="77" t="s">
@@ -7117,16 +7200,16 @@
         <v>208</v>
       </c>
       <c r="F5" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" s="83" t="s">
         <v>236</v>
       </c>
-      <c r="G5" s="83" t="s">
-        <v>229</v>
-      </c>
       <c r="H5" s="84" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J5" s="82" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="24" customHeight="1">
@@ -7161,28 +7244,28 @@
     </row>
     <row r="7" spans="2:10" ht="51" customHeight="1">
       <c r="B7" s="81" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C7" s="81" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="81" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="F7" s="77" t="s">
         <v>231</v>
       </c>
-      <c r="E7" s="80" t="s">
-        <v>227</v>
-      </c>
-      <c r="F7" s="77" t="s">
-        <v>238</v>
-      </c>
       <c r="G7" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="H7" s="84" t="s">
         <v>240</v>
       </c>
-      <c r="H7" s="84" t="s">
-        <v>237</v>
-      </c>
       <c r="J7" s="82" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="24" customHeight="1">
@@ -7215,15 +7298,15 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="51" customHeight="1">
+    <row r="9" spans="2:10" ht="65.25" customHeight="1">
       <c r="B9" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="80" t="s">
         <v>232</v>
-      </c>
-      <c r="C9" s="80" t="s">
-        <v>218</v>
-      </c>
-      <c r="D9" s="80" t="s">
-        <v>239</v>
       </c>
       <c r="E9" s="77" t="s">
         <v>212</v>
@@ -7232,13 +7315,13 @@
         <v>213</v>
       </c>
       <c r="G9" s="81" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H9" s="81" t="s">
         <v>214</v>
       </c>
       <c r="J9" s="85" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="24" customHeight="1">
@@ -7271,7 +7354,7 @@
         <v>#NAME?</v>
       </c>
       <c r="J10" s="72" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="51" customHeight="1">
@@ -7282,19 +7365,19 @@
         <v>216</v>
       </c>
       <c r="D11" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="E11" s="77" t="s">
+      <c r="G11" s="77" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="77" t="s">
-        <v>220</v>
-      </c>
-      <c r="G11" s="77" t="s">
+      <c r="H11" s="77" t="s">
         <v>222</v>
-      </c>
-      <c r="H11" s="77" t="s">
-        <v>223</v>
       </c>
       <c r="J11" s="82" t="s">
         <v>217</v>
@@ -7339,7 +7422,7 @@
       <c r="G13" s="77"/>
       <c r="H13" s="77"/>
       <c r="J13" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="23.25" customHeight="1">
@@ -7418,18 +7501,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4" xr:uid="{00000000-0002-0000-0600-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12" xr:uid="{00000000-0002-0000-0600-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>"월요일,화요일,수요일,목요일,금요일,토요일,일요일"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1" xr:uid="{00000000-0002-0000-0600-000004000000}">
       <formula1>"1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1" xr:uid="{00000000-0002-0000-0600-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1" xr:uid="{00000000-0002-0000-0600-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5" xr:uid="{00000000-0002-0000-0600-000007000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.4" bottom="0.5" header="0.3" footer="0.3"/>
@@ -7441,14 +7524,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Temp/이사준비-20200605.xlsx
+++ b/Temp/이사준비-20200605.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FEF977-06E4-4C40-B33F-6E84A5D4BD40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0418D0B-D8CF-4492-B3DD-34EDE5FE517D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31005" yWindow="2205" windowWidth="21600" windowHeight="11850" tabRatio="840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="이사짐센터 견적" sheetId="7" r:id="rId1"/>
@@ -1017,32 +1017,6 @@
       </rPr>
       <t xml:space="preserve">
 알델리트/환기/활성탄</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">11/2 MON
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>베이크아웃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>/활성탄/환기</t>
     </r>
   </si>
   <si>
@@ -1529,6 +1503,43 @@
         <charset val="129"/>
       </rPr>
       <t>줄눈</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11/2 MON
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베이크아웃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">/활성탄/환기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Wedding Aniversary</t>
     </r>
   </si>
 </sst>
@@ -2169,28 +2180,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3259,10 +3270,10 @@
       <c r="G5" s="38"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="95" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -3275,8 +3286,8 @@
       <c r="G6" s="32"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="92"/>
-      <c r="C7" s="93"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="95"/>
       <c r="D7" s="36" t="s">
         <v>25</v>
       </c>
@@ -3289,8 +3300,8 @@
       <c r="G7" s="37"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="92"/>
-      <c r="C8" s="94" t="s">
+      <c r="B8" s="98"/>
+      <c r="C8" s="99" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="36" t="s">
@@ -3303,8 +3314,8 @@
       <c r="G8" s="37"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="92"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="99"/>
       <c r="D9" s="34" t="s">
         <v>34</v>
       </c>
@@ -3315,8 +3326,8 @@
       <c r="G9" s="32"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="92"/>
-      <c r="C10" s="93" t="s">
+      <c r="B10" s="98"/>
+      <c r="C10" s="95" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="36" t="s">
@@ -3329,8 +3340,8 @@
       <c r="G10" s="37"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="95"/>
       <c r="D11" s="36" t="s">
         <v>114</v>
       </c>
@@ -3341,8 +3352,8 @@
       <c r="G11" s="37"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="92"/>
-      <c r="C12" s="93" t="s">
+      <c r="B12" s="98"/>
+      <c r="C12" s="95" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="36" t="s">
@@ -3355,8 +3366,8 @@
       <c r="G12" s="32"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="95"/>
       <c r="D13" s="36" t="s">
         <v>84</v>
       </c>
@@ -3367,8 +3378,8 @@
       <c r="G13" s="37"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="36" t="s">
         <v>88</v>
       </c>
@@ -3379,8 +3390,8 @@
       <c r="G14" s="37"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="95"/>
       <c r="D15" s="36" t="s">
         <v>115</v>
       </c>
@@ -3407,7 +3418,7 @@
       <c r="G16" s="32"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="98" t="s">
         <v>147</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -3423,7 +3434,7 @@
       <c r="G17" s="32"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="92"/>
+      <c r="B18" s="98"/>
       <c r="C18" s="35" t="s">
         <v>64</v>
       </c>
@@ -3437,10 +3448,10 @@
       <c r="G18" s="32"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="93" t="s">
+      <c r="C19" s="95" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="36" t="s">
@@ -3453,8 +3464,8 @@
       <c r="G19" s="32"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="96"/>
-      <c r="C20" s="93"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="95"/>
       <c r="D20" s="36" t="s">
         <v>17</v>
       </c>
@@ -3465,8 +3476,8 @@
       <c r="G20" s="32"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="96"/>
-      <c r="C21" s="93" t="s">
+      <c r="B21" s="93"/>
+      <c r="C21" s="95" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="36" t="s">
@@ -3479,8 +3490,8 @@
       <c r="G21" s="32"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="96"/>
-      <c r="C22" s="93"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="95"/>
       <c r="D22" s="36" t="s">
         <v>112</v>
       </c>
@@ -3491,7 +3502,7 @@
       <c r="G22" s="37"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="96"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="35" t="s">
         <v>63</v>
       </c>
@@ -3505,8 +3516,8 @@
       <c r="G23" s="32"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="96"/>
-      <c r="C24" s="98" t="s">
+      <c r="B24" s="93"/>
+      <c r="C24" s="96" t="s">
         <v>69</v>
       </c>
       <c r="D24" s="36" t="s">
@@ -3519,8 +3530,8 @@
       <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="96"/>
-      <c r="C25" s="99"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="97"/>
       <c r="D25" s="36" t="s">
         <v>72</v>
       </c>
@@ -3531,7 +3542,7 @@
       <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="96"/>
+      <c r="B26" s="93"/>
       <c r="C26" s="35" t="s">
         <v>100</v>
       </c>
@@ -3545,8 +3556,8 @@
       <c r="G26" s="32"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="96"/>
-      <c r="C27" s="98" t="s">
+      <c r="B27" s="93"/>
+      <c r="C27" s="96" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="36" t="s">
@@ -3559,8 +3570,8 @@
       <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="96"/>
-      <c r="C28" s="99"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="97"/>
       <c r="D28" s="36" t="s">
         <v>12</v>
       </c>
@@ -3571,8 +3582,8 @@
       <c r="G28" s="32"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="96"/>
-      <c r="C29" s="98" t="s">
+      <c r="B29" s="93"/>
+      <c r="C29" s="96" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -3585,8 +3596,8 @@
       <c r="G29" s="32"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="97"/>
-      <c r="C30" s="99"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="97"/>
       <c r="D30" s="36" t="s">
         <v>83</v>
       </c>
@@ -4569,18 +4580,18 @@
   </sheetData>
   <autoFilter ref="C5:F5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="12">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="B19:B30"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7088,8 +7099,8 @@
   </sheetPr>
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -7200,10 +7211,10 @@
         <v>208</v>
       </c>
       <c r="F5" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" s="83" t="s">
         <v>235</v>
-      </c>
-      <c r="G5" s="83" t="s">
-        <v>236</v>
       </c>
       <c r="H5" s="84" t="s">
         <v>226</v>
@@ -7243,26 +7254,26 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="51" customHeight="1">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="80" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="81" t="s">
-        <v>234</v>
-      </c>
-      <c r="D7" s="81" t="s">
-        <v>228</v>
-      </c>
       <c r="E7" s="80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G7" s="84" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H7" s="84" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J7" s="82" t="s">
         <v>224</v>
@@ -7300,13 +7311,13 @@
     </row>
     <row r="9" spans="2:10" ht="65.25" customHeight="1">
       <c r="B9" s="80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E9" s="77" t="s">
         <v>212</v>
@@ -7315,13 +7326,13 @@
         <v>213</v>
       </c>
       <c r="G9" s="81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H9" s="81" t="s">
         <v>214</v>
       </c>
       <c r="J9" s="85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="24" customHeight="1">
@@ -7354,7 +7365,7 @@
         <v>#NAME?</v>
       </c>
       <c r="J10" s="72" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="51" customHeight="1">

--- a/Temp/이사준비-20200605.xlsx
+++ b/Temp/이사준비-20200605.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0418D0B-D8CF-4492-B3DD-34EDE5FE517D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168D062E-513F-4B0C-A068-2D2CCC233D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31005" yWindow="2205" windowWidth="21600" windowHeight="11850" tabRatio="840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="이사짐센터 견적" sheetId="7" r:id="rId1"/>
@@ -1226,54 +1226,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">10/30 FRI - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>PM Leave</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>APT 잔금/key 분출</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-베이크아웃 문의, 차량등록
-천장 청소/환기/활성탄?</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF0070C0"/>
@@ -1540,6 +1492,53 @@
         <charset val="129"/>
       </rPr>
       <t>Wedding Aniversary</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10/30 FRI - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>PM Leave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>APT 잔금/key 불출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+천장 청소/환기/활성탄?</t>
     </r>
   </si>
 </sst>
@@ -2180,6 +2179,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2189,19 +2197,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3270,10 +3269,10 @@
       <c r="G5" s="38"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="93" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -3286,8 +3285,8 @@
       <c r="G6" s="32"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="98"/>
-      <c r="C7" s="95"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="36" t="s">
         <v>25</v>
       </c>
@@ -3300,8 +3299,8 @@
       <c r="G7" s="37"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="98"/>
-      <c r="C8" s="99" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="94" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="36" t="s">
@@ -3314,8 +3313,8 @@
       <c r="G8" s="37"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="98"/>
-      <c r="C9" s="99"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="34" t="s">
         <v>34</v>
       </c>
@@ -3326,8 +3325,8 @@
       <c r="G9" s="32"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="98"/>
-      <c r="C10" s="95" t="s">
+      <c r="B10" s="92"/>
+      <c r="C10" s="93" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="36" t="s">
@@ -3340,8 +3339,8 @@
       <c r="G10" s="37"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="98"/>
-      <c r="C11" s="95"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="36" t="s">
         <v>114</v>
       </c>
@@ -3352,8 +3351,8 @@
       <c r="G11" s="37"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="98"/>
-      <c r="C12" s="95" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="93" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="36" t="s">
@@ -3366,8 +3365,8 @@
       <c r="G12" s="32"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="98"/>
-      <c r="C13" s="95"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="36" t="s">
         <v>84</v>
       </c>
@@ -3378,8 +3377,8 @@
       <c r="G13" s="37"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="98"/>
-      <c r="C14" s="95"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
       <c r="D14" s="36" t="s">
         <v>88</v>
       </c>
@@ -3390,8 +3389,8 @@
       <c r="G14" s="37"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="98"/>
-      <c r="C15" s="95"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="36" t="s">
         <v>115</v>
       </c>
@@ -3418,7 +3417,7 @@
       <c r="G16" s="32"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="92" t="s">
         <v>147</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -3434,7 +3433,7 @@
       <c r="G17" s="32"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="98"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="35" t="s">
         <v>64</v>
       </c>
@@ -3448,10 +3447,10 @@
       <c r="G18" s="32"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="93" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="36" t="s">
@@ -3464,8 +3463,8 @@
       <c r="G19" s="32"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="93"/>
-      <c r="C20" s="95"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="93"/>
       <c r="D20" s="36" t="s">
         <v>17</v>
       </c>
@@ -3476,8 +3475,8 @@
       <c r="G20" s="32"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="93"/>
-      <c r="C21" s="95" t="s">
+      <c r="B21" s="96"/>
+      <c r="C21" s="93" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="36" t="s">
@@ -3490,8 +3489,8 @@
       <c r="G21" s="32"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="93"/>
-      <c r="C22" s="95"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="93"/>
       <c r="D22" s="36" t="s">
         <v>112</v>
       </c>
@@ -3502,7 +3501,7 @@
       <c r="G22" s="37"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="93"/>
+      <c r="B23" s="96"/>
       <c r="C23" s="35" t="s">
         <v>63</v>
       </c>
@@ -3516,8 +3515,8 @@
       <c r="G23" s="32"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="93"/>
-      <c r="C24" s="96" t="s">
+      <c r="B24" s="96"/>
+      <c r="C24" s="98" t="s">
         <v>69</v>
       </c>
       <c r="D24" s="36" t="s">
@@ -3530,8 +3529,8 @@
       <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="93"/>
-      <c r="C25" s="97"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="99"/>
       <c r="D25" s="36" t="s">
         <v>72</v>
       </c>
@@ -3542,7 +3541,7 @@
       <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="93"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="35" t="s">
         <v>100</v>
       </c>
@@ -3556,8 +3555,8 @@
       <c r="G26" s="32"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="93"/>
-      <c r="C27" s="96" t="s">
+      <c r="B27" s="96"/>
+      <c r="C27" s="98" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="36" t="s">
@@ -3570,8 +3569,8 @@
       <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="93"/>
-      <c r="C28" s="97"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="99"/>
       <c r="D28" s="36" t="s">
         <v>12</v>
       </c>
@@ -3582,8 +3581,8 @@
       <c r="G28" s="32"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="93"/>
-      <c r="C29" s="96" t="s">
+      <c r="B29" s="96"/>
+      <c r="C29" s="98" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -3596,8 +3595,8 @@
       <c r="G29" s="32"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="94"/>
-      <c r="C30" s="97"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="99"/>
       <c r="D30" s="36" t="s">
         <v>83</v>
       </c>
@@ -4580,18 +4579,18 @@
   </sheetData>
   <autoFilter ref="C5:F5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="12">
+    <mergeCell ref="B19:B30"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B6:B15"/>
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B19:B30"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7099,8 +7098,8 @@
   </sheetPr>
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -7204,17 +7203,17 @@
       <c r="C5" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="86" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="86" t="s">
         <v>208</v>
       </c>
       <c r="F5" s="80" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="83" t="s">
         <v>234</v>
-      </c>
-      <c r="G5" s="83" t="s">
-        <v>235</v>
       </c>
       <c r="H5" s="84" t="s">
         <v>226</v>
@@ -7255,7 +7254,7 @@
     </row>
     <row r="7" spans="2:10" ht="51" customHeight="1">
       <c r="B7" s="80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C7" s="81" t="s">
         <v>233</v>
@@ -7264,7 +7263,7 @@
         <v>227</v>
       </c>
       <c r="E7" s="80" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F7" s="77" t="s">
         <v>230</v>
@@ -7273,7 +7272,7 @@
         <v>232</v>
       </c>
       <c r="H7" s="84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J7" s="82" t="s">
         <v>224</v>
@@ -7311,10 +7310,10 @@
     </row>
     <row r="9" spans="2:10" ht="65.25" customHeight="1">
       <c r="B9" s="80" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D9" s="80" t="s">
         <v>231</v>
@@ -7326,7 +7325,7 @@
         <v>213</v>
       </c>
       <c r="G9" s="81" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H9" s="81" t="s">
         <v>214</v>

--- a/Temp/이사준비-20200605.xlsx
+++ b/Temp/이사준비-20200605.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\03_doc\01_doc\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4792AE6-A095-471A-ADA0-F090DFC51E71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="입주 준비" sheetId="1" r:id="rId1"/>
@@ -49,7 +50,7 @@
     <definedName name="평일">{"월요일","화요일","수요일","목요일","금요일","토요일","일요일"}</definedName>
     <definedName name="표시할연도" localSheetId="2">NOV!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1152,7 +1153,162 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>11/5 THU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베이크아웃 종료(~2:40PM)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공기청정기/활성탄교체/에어컨작동검증/방2청소/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입주(생수,이부자리,생필품)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>11/4 WED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">베이크아웃
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차량 적재(공기청정기,가습기)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아쿠아 청소기 수리 대기중
+LED 리폼(사이즈 측정)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새집증후군제거 - 베이크아웃 + 활성탄 + 환기
+                        알델리트 + 세척 + 열교환기
+                        공기청정기, 시스클라인, 활성탄(고급)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작동 검증 - 에어컨, 시스클라인, 빨래건조대, 주방TV, 리모콘, 기타 등등</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입주 준비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>11/6 FRI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>식기세척기 자리 철거(오전)</t>
     </r>
     <r>
       <rPr>
@@ -1166,156 +1322,21 @@
 짐정리 일부
 환기</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>11/5 THU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>베이크아웃 종료(~2:40PM)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공기청정기/활성탄교체/에어컨작동검증/방2청소/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입주(생수,이부자리,생필품)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>11/4 WED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">베이크아웃
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차량 적재(공기청정기,가습기)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">아쿠아 청소기 수리 대기중
-LED 리폼(사이즈 측정)
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>새집증후군제거 - 베이크아웃 + 활성탄 + 환기
-                        알델리트 + 세척 + 열교환기
-                        공기청정기, 시스클라인, 활성탄(고급)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작동 검증 - 에어컨, 시스클라인, 빨래건조대, 주방TV, 리모콘, 기타 등등</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입주 준비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="aaaa"/>
-    <numFmt numFmtId="177" formatCode="dd"/>
+    <numFmt numFmtId="164" formatCode="aaaa"/>
+    <numFmt numFmtId="165" formatCode="dd"/>
   </numFmts>
   <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1323,14 +1344,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1338,7 +1359,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1346,7 +1367,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1683,10 +1704,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" applyFill="0" applyProtection="0">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" applyFill="0" applyProtection="0">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
@@ -1778,19 +1799,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="7" applyFont="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="7" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="6" xfId="8" applyFont="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="9" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="8" applyFont="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="6" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="6" xfId="8" applyFont="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="6" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="9" applyFont="1" applyFill="1">
@@ -1808,33 +1829,33 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="9" applyFont="1" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="20" fillId="6" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="9" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="9" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="20" fillId="6" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="9" applyFont="1" applyFill="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="9" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="날짜 설명" xfId="9"/>
-    <cellStyle name="오른쪽 정렬된 입력 레이블" xfId="6"/>
-    <cellStyle name="왼쪽 정렬된 입력 레이블" xfId="5"/>
-    <cellStyle name="제목 1 2" xfId="1"/>
-    <cellStyle name="제목 2 2" xfId="3"/>
-    <cellStyle name="제목 3 2" xfId="7"/>
-    <cellStyle name="제목 4 2" xfId="8"/>
-    <cellStyle name="제목 5" xfId="2"/>
+    <cellStyle name="날짜 설명" xfId="9" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="오른쪽 정렬된 입력 레이블" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="왼쪽 정렬된 입력 레이블" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="제목 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="제목 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="제목 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="제목 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="제목 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="4"/>
+    <cellStyle name="표준 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1961,6 +1982,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1996,6 +2034,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2171,7 +2226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2181,17 +2236,17 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="31.5">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="26.25">
       <c r="A1" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D1" s="13"/>
     </row>
@@ -2750,14 +2805,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:D49"/>
+  <autoFilter ref="A5:D49" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2767,16 +2822,16 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="31.5">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="26.25">
       <c r="A1" s="12" t="s">
         <v>70</v>
       </c>
@@ -3337,31 +3392,31 @@
       <c r="E63" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:E5"/>
+  <autoFilter ref="A5:E5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="25" customWidth="1"/>
-    <col min="2" max="8" width="23.625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="1.875" style="25" customWidth="1"/>
-    <col min="10" max="10" width="79.25" style="25" customWidth="1"/>
-    <col min="11" max="16384" width="9.125" style="25"/>
+    <col min="1" max="1" width="2.5703125" style="25" customWidth="1"/>
+    <col min="2" max="8" width="23.5703125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="1.85546875" style="25" customWidth="1"/>
+    <col min="10" max="10" width="79.28515625" style="25" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="45" customHeight="1">
@@ -3369,10 +3424,10 @@
         <f ca="1">YEAR(TODAY())</f>
         <v>2020</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="24" t="s">
         <v>81</v>
       </c>
@@ -3381,10 +3436,10 @@
       <c r="B2" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="27" t="s">
         <v>84</v>
       </c>
@@ -3462,17 +3517,17 @@
       <c r="E5" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="39" t="s">
         <v>109</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="24" customHeight="1">
@@ -3505,24 +3560,24 @@
         <v>#NAME?</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="60">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="39" t="s">
         <v>110</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>100</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="30" t="s">
         <v>113</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>119</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>108</v>
@@ -3531,7 +3586,7 @@
         <v>111</v>
       </c>
       <c r="J7" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="24" customHeight="1">
@@ -3574,10 +3629,10 @@
       <c r="D9" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="40" t="s">
         <v>105</v>
       </c>
       <c r="G9" s="34" t="s">
@@ -3762,18 +3817,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 이 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 셀 E1에서 새 요일을 입력하거나 선택합니다." sqref="B3" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 바로 위의 머리글인 3행에 표시된 요일에 해당하는 시작 날짜가 표시됩니다. 이 셀의 숫자가 1이 아닌 경우 해당 날짜는 이전 달의 날짜가 됩니다. 4, 6, 8, 10, 12, 14행에 각 요일에 해당하는 날짜가 표시됩니다." sqref="B4" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이번 달이 12행이나 14행에서 끝나는 경우 12행이나 14행에 다음 달의 날짜가 표시될 수 있습니다." sqref="B12" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 요일 이름만 이 일정에 적용됩니다. 다시 시도를 선택하고 요일 이름을 직접 입력하거나 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 주 시작 요일을 선택합니다. 요일 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 요일을 선택하고 ENTER 키를 누릅니다." sqref="E1" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"월요일,화요일,수요일,목요일,금요일,토요일,일요일"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="유효한 월 이름만 이 일정에 적용됩니다. 월 이름을 직접 입력하거나 목록에서 하나를 선택합니다. 다시 시도를 선택하고 ALT + 아래쪽 화살표를 누른 다음 목록에서 선택합니다. 취소를 선택하여 셀을 종료합니다." prompt="이 달력의 월을 선택합니다. 월 이름을 직접 입력하거나 ALT+아래쪽 화살표를 누른 다음 목록에서 월을 선택하고 ENTER 키를 누릅니다." sqref="C1:D1" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"1월,2월,3월,4월,5월,6월,7월,8월,9월,10월,11월,12월"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 달력은 연도나 월에 관계없이 월이 하나인 달력입니다. C1에서 월을 선택하고 B1에 연도를 입력합니다. 달력의 시작 요일을 E1에서 선택합니다. 5, 7, 9, 11, 13, 15 행에 일일 메모를 입력합니다." sqref="A1" xr:uid="{00000000-0002-0000-0200-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="달력의 연도를 입력합니다." sqref="B1" xr:uid="{00000000-0002-0000-0200-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 일일 메모를 입력합니다. 5, 7, 9, 11, 13, 15행에는 일별 메모를 입력할 수 있는 셀이 있습니다." sqref="B5" xr:uid="{00000000-0002-0000-0200-000007000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.4" bottom="0.5" header="0.3" footer="0.3"/>
@@ -3785,14 +3840,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Temp/이사준비-20200605.xlsx
+++ b/Temp/이사준비-20200605.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4792AE6-A095-471A-ADA0-F090DFC51E71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5AFAA6-3546-4587-86DA-89C398F17A31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1153,75 +1153,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>11/5 THU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>베이크아웃 종료(~2:40PM)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공기청정기/활성탄교체/에어컨작동검증/방2청소/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입주(생수,이부자리,생필품)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>11/4 WED</t>
     </r>
     <r>
@@ -1287,7 +1218,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>11/6 FRI</t>
+      <t>11/5 THU</t>
     </r>
     <r>
       <rPr>
@@ -1304,6 +1235,63 @@
       <rPr>
         <b/>
         <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베이크아웃 종료(~2:40PM)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공기청정기/활성탄교체/에어컨작동검증/방2청소</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>11/6 FRI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <charset val="129"/>
@@ -1320,7 +1308,7 @@
       </rPr>
       <t xml:space="preserve">
 짐정리 일부
-환기</t>
+환기/방청소</t>
     </r>
   </si>
 </sst>
@@ -2246,7 +2234,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="12" customFormat="1" ht="26.25">
       <c r="A1" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1" s="13"/>
     </row>
@@ -3407,7 +3395,7 @@
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -3527,7 +3515,7 @@
         <v>109</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="24" customHeight="1">
@@ -3560,21 +3548,21 @@
         <v>#NAME?</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="60">
       <c r="B7" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>114</v>
+      <c r="D7" s="39" t="s">
+        <v>113</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>119</v>
@@ -3586,7 +3574,7 @@
         <v>111</v>
       </c>
       <c r="J7" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="24" customHeight="1">

--- a/Temp/이사준비-20200605.xlsx
+++ b/Temp/이사준비-20200605.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5AFAA6-3546-4587-86DA-89C398F17A31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBB0389-AA4A-44B9-80A0-1BC40CC00B98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -879,64 +879,6 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>11/7 SAT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입주청소
-환기</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>/공기청정/활성탄</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-짐정리 전체</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
@@ -1262,7 +1204,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>공기청정기/활성탄교체/에어컨작동검증/방2청소</t>
+      <t>방2청소</t>
     </r>
   </si>
   <si>
@@ -1307,8 +1249,64 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-짐정리 일부
-환기/방청소</t>
+환기/공기청정/방청소/에어컨테스트/방2청소/화2청소</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>11/7 SAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입주청소
+환기</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/공기청정/활성탄</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+이사짐 셋팅 전체</t>
     </r>
   </si>
 </sst>
@@ -2234,7 +2232,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="12" customFormat="1" ht="26.25">
       <c r="A1" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D1" s="13"/>
     </row>
@@ -3395,7 +3393,7 @@
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -3512,10 +3510,10 @@
         <v>98</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="24" customHeight="1">
@@ -3548,33 +3546,33 @@
         <v>#NAME?</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="60">
       <c r="B7" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>100</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="G7" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="33" t="s">
-        <v>108</v>
-      </c>
       <c r="H7" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J7" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="24" customHeight="1">
@@ -3618,7 +3616,7 @@
         <v>104</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" s="40" t="s">
         <v>105</v>
